--- a/resume.xlsx
+++ b/resume.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="219">
   <si>
     <t>　職　務　経　歴　書</t>
   </si>
@@ -375,6 +375,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
       <t>その</t>
     </r>
     <r>
@@ -1119,6 +1124,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
       <t>チーム</t>
     </r>
     <r>
@@ -1159,6 +1170,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>単</t>
     </r>
     <r>
@@ -1271,13 +1288,18 @@
     <t>OS:</t>
   </si>
   <si>
-    <t>SE</t>
+    <t>BSE</t>
   </si>
   <si>
     <t>～</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
       <t>システム</t>
     </r>
     <r>
@@ -1304,7 +1326,7 @@
     <t>開発言語:</t>
   </si>
   <si>
-    <t>JavaScript</t>
+    <t>JavaScript,Typescript,Vue3</t>
   </si>
   <si>
     <t>作業概要:</t>
@@ -1317,6 +1339,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>ﾌﾚｰﾑﾜｰｸ</t>
     </r>
     <r>
@@ -1329,22 +1356,42 @@
     </r>
   </si>
   <si>
-    <t>Vue3,Typescript,Element Plus</t>
+    <t>Element Plus</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
   <si>
     <t>中宏保险移动展业系统</t>
   </si>
   <si>
+    <t>JavaScript,Vue</t>
+  </si>
+  <si>
     <t>协助开发中宏保险移动展业系统，协助修改bug</t>
   </si>
   <si>
     <t>ﾌﾚｰﾑﾜｰｸ:</t>
   </si>
   <si>
-    <t>Vue,Element</t>
+    <t>ElementUI</t>
+  </si>
+  <si>
+    <t>中宏保险宏掌门APP</t>
+  </si>
+  <si>
+    <t>开发宏掌门APP的内嵌页面</t>
+  </si>
+  <si>
+    <t>システム名:</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Gmeeting</t>
     </r>
     <r>
@@ -1357,67 +1404,143 @@
     </r>
   </si>
   <si>
-    <t>参与开发GSK公司的Gmeeting会议管理系统，负责模块开发，架构设计。其中独立负责移动端的脚手架搭建和大部分开发工作。也协助解决了一些技术难点。</t>
-  </si>
-  <si>
-    <t>Mysql</t>
-  </si>
-  <si>
-    <t>Vue,Element,React,Ant Design Mobile</t>
-  </si>
-  <si>
-    <t>システム名:</t>
-  </si>
-  <si>
-    <t>電力系会社資材契約システム</t>
-  </si>
-  <si>
-    <t>Java、vueJS</t>
-  </si>
-  <si>
-    <t>東電社内取引管理システムの一部の基本設計と詳細設計を担当してました。該当システムの回付承認工程の業務流れとか、DBテーブルの設計とか、画面遷移図とかを担当してました。さらに、詳細設計には画面のレイアウト、画面項目定義の作成を参加した。</t>
-  </si>
-  <si>
-    <t>Struts2</t>
-  </si>
-  <si>
-    <t>LINUXコマンドとWindows</t>
-  </si>
-  <si>
-    <t>銀行プロジェクト</t>
-  </si>
-  <si>
-    <t>JavaとPro C</t>
-  </si>
-  <si>
-    <t>JAVA側で銀行認証強化の基盤系のサーブレットの基本と詳細設計とコーディングと単体テストを担当しました、なお、Pro　C側での作業の画面の詳細設計とPG、PTも担当しました。</t>
-  </si>
-  <si>
-    <t>Windows、NodeJS</t>
-  </si>
-  <si>
-    <t>スマート病院ローボートAI</t>
-  </si>
-  <si>
-    <t>HTML、typescript</t>
-  </si>
-  <si>
-    <t>google-cloudのdialogflowAPIを使って、チャット画面を開発して、普通な問題はローボートが回答する。translationAPIを使って、翻訳画面を開発して、日中英など言語の翻訳し合うことが対応できる</t>
-  </si>
-  <si>
-    <t>NoSQL、dataStore</t>
-  </si>
-  <si>
-    <t>HTML+webSocket</t>
-  </si>
-  <si>
+    <t>JavaScript,Vue,React</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>GSK</t>
+    </r>
     <r>
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>証券</t>
+      <t>公司用来管理他们的医学商业会议的管理系统。有业务系统和后台两个部分在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>端，同时也有移动端的业务系统。</t>
+    </r>
+  </si>
+  <si>
+    <t>ElementUI,Ant Design Mobile</t>
+  </si>
+  <si>
+    <t>流通・サービス業種</t>
+  </si>
+  <si>
+    <t>Linux,Windows</t>
+  </si>
+  <si>
+    <t>Easy trademark China</t>
+  </si>
+  <si>
+    <t>PHP,Vue</t>
+  </si>
+  <si>
+    <t>一个可以进行在线注册商标和商标调查的业务网站。</t>
+  </si>
+  <si>
+    <t>Drupal,ElementUI</t>
+  </si>
+  <si>
+    <t>Leaders and structures</t>
+  </si>
+  <si>
+    <t>HTML,CSS,Javascript</t>
+  </si>
+  <si>
+    <t>一个展示介绍性的网站，有三种设备适配的响应式样式。</t>
+  </si>
+  <si>
+    <t>Jquery</t>
+  </si>
+  <si>
+    <r>
+      <t>流通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・サービス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>業種</t>
+    </r>
+  </si>
+  <si>
+    <t>巴黎购物图鉴</t>
+  </si>
+  <si>
+    <r>
+      <t>JavaScript,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>HTML,CSS</t>
+    </r>
+  </si>
+  <si>
+    <t>同步于一个叫做AiShopping的APP的微信小程序。用于介绍巴黎的商品、旅游线路、优惠活动和品牌。</t>
+  </si>
+  <si>
+    <t>微信小程序框架</t>
+  </si>
+  <si>
+    <t>趣谷APP</t>
+  </si>
+  <si>
+    <t>一个用于校园服务的APP。包含一些广告推广和智能感应业务。</t>
+  </si>
+  <si>
+    <r>
+      <t>官公庁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>公共</t>
     </r>
     <r>
       <rPr>
@@ -1429,25 +1552,37 @@
     </r>
   </si>
   <si>
-    <t>JAVA、JS、AJAX</t>
-  </si>
-  <si>
-    <t>詳細仕様書の修正、テスト仕様書の作成、Junitテストの実施など</t>
-  </si>
-  <si>
-    <t>sybase</t>
-  </si>
-  <si>
-    <t>預金保険機構システム</t>
-  </si>
-  <si>
-    <t>JAVA、JS、JQUERY</t>
-  </si>
-  <si>
-    <t>金融機関保険についての画面と帳票基本設計、詳細設計、製造、テスト、更に、テスト仕様書の作成とレビュー、サービスのJunitテストクラスの作成と実施など</t>
-  </si>
-  <si>
-    <t>SpringMVC+Mybatis</t>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>上海人才申报平台</t>
+  </si>
+  <si>
+    <t>进行千人计划人才信息录入的管理系统。</t>
+  </si>
+  <si>
+    <t>官公庁・公共サービス</t>
+  </si>
+  <si>
+    <t>上海人才大数据平台</t>
+  </si>
+  <si>
+    <t>对上海的人才信息进行管理和数据分析的系统。</t>
+  </si>
+  <si>
+    <t>TSL</t>
+  </si>
+  <si>
+    <t>贵州毕节市干部云大数据平台</t>
+  </si>
+  <si>
+    <t>对贵州省毕节市的干部信息进行大数据分析的图表平台。</t>
+  </si>
+  <si>
+    <t>上海志愿者支持平台</t>
+  </si>
+  <si>
+    <t>对上海市民政部门公益项目做的网站。包括门户网站和公益护照管理系统等模块。</t>
   </si>
   <si>
     <t>テンジ　カイハツ</t>
@@ -1649,9 +1784,6 @@
     <t>日本</t>
   </si>
   <si>
-    <t>TSL</t>
-  </si>
-  <si>
     <t>XXXXシステム</t>
   </si>
   <si>
@@ -1670,19 +1802,7 @@
     <t>通信業種</t>
   </si>
   <si>
-    <t>流通・サービス業種</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>官公庁・公共サービス</t>
-  </si>
-  <si>
     <t>製造業務</t>
-  </si>
-  <si>
-    <t>TL</t>
   </si>
   <si>
     <t>PL</t>
@@ -1696,17 +1816,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="yyyy/m"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m"/>
     <numFmt numFmtId="179" formatCode="0&quot;人&quot;"/>
     <numFmt numFmtId="180" formatCode="0&quot;点&quot;"/>
     <numFmt numFmtId="181" formatCode="0&quot;歳&quot;"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <name val="SimSun"/>
@@ -1786,12 +1906,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <name val="MS Gothic"/>
       <charset val="128"/>
@@ -1812,11 +1926,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -1826,29 +1935,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1866,6 +1969,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1876,9 +2000,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1899,9 +2023,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1921,21 +2067,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1945,22 +2076,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1971,23 +2087,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2001,7 +2100,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2040,97 +2139,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,7 +2169,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2160,43 +2247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2214,7 +2283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,6 +2305,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="163">
     <border>
@@ -4152,13 +4245,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4204,39 +4325,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4252,154 +4345,154 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="158" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="159" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="160" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="159" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="157" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="155" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="156" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="155" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="162" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="161" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="156" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="157" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="158" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="157" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="159" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="161" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="162" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="155" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="529">
+  <cellXfs count="533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4467,7 +4560,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4476,7 +4569,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4737,10 +4830,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4761,7 +4854,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4770,25 +4863,25 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4797,16 +4890,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4827,7 +4920,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4995,7 +5088,7 @@
     <xf numFmtId="181" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5178,10 +5271,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5352,7 +5445,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5427,10 +5520,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5487,16 +5580,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="100" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="100" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="120" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="120" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5514,37 +5607,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="42" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="100" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="100" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="120" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="120" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="78" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="78" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="83" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="83" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="83" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5553,43 +5646,43 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="19" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="20" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="68" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="68" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="42" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="42" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="43" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="43" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5616,7 +5709,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="101" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="102" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="102" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="100" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5640,7 +5733,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="96" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="97" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="97" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5658,16 +5751,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="102" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5685,7 +5787,7 @@
     <xf numFmtId="181" fontId="1" fillId="0" borderId="78" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="103" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5700,7 +5802,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="105" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="106" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5784,16 +5886,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="76" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="122" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="122" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="118" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5850,7 +5949,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5957,6 +6056,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="153" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="117" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="154" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -6354,8 +6459,8 @@
   </sheetPr>
   <dimension ref="A1:AK94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="100" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="U54" sqref="U54:W54"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="100" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83:F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="12.75"/>
@@ -6474,7 +6579,7 @@
       <c r="Z4" s="260"/>
       <c r="AA4" s="260"/>
       <c r="AB4" s="261"/>
-      <c r="AC4" s="478" t="s">
+      <c r="AC4" s="480" t="s">
         <v>8</v>
       </c>
       <c r="AD4" s="196"/>
@@ -6509,25 +6614,25 @@
       <c r="P5" s="400">
         <v>32194</v>
       </c>
-      <c r="Q5" s="426"/>
-      <c r="R5" s="426"/>
-      <c r="S5" s="426"/>
-      <c r="T5" s="427"/>
-      <c r="U5" s="428">
+      <c r="Q5" s="429"/>
+      <c r="R5" s="429"/>
+      <c r="S5" s="429"/>
+      <c r="T5" s="430"/>
+      <c r="U5" s="431">
         <v>34</v>
       </c>
-      <c r="V5" s="429"/>
-      <c r="W5" s="430"/>
-      <c r="X5" s="431"/>
-      <c r="Y5" s="431"/>
-      <c r="Z5" s="431"/>
-      <c r="AA5" s="431"/>
-      <c r="AB5" s="431"/>
-      <c r="AC5" s="479"/>
-      <c r="AD5" s="480"/>
-      <c r="AE5" s="480"/>
-      <c r="AF5" s="480"/>
-      <c r="AG5" s="505"/>
+      <c r="V5" s="432"/>
+      <c r="W5" s="433"/>
+      <c r="X5" s="434"/>
+      <c r="Y5" s="434"/>
+      <c r="Z5" s="434"/>
+      <c r="AA5" s="434"/>
+      <c r="AB5" s="434"/>
+      <c r="AC5" s="481"/>
+      <c r="AD5" s="482"/>
+      <c r="AE5" s="482"/>
+      <c r="AF5" s="482"/>
+      <c r="AG5" s="507"/>
     </row>
     <row r="6" ht="13.5" spans="1:33">
       <c r="A6" s="12" t="s">
@@ -6553,22 +6658,22 @@
       <c r="Q6" s="319"/>
       <c r="R6" s="319"/>
       <c r="S6" s="319"/>
-      <c r="T6" s="432"/>
+      <c r="T6" s="435"/>
       <c r="U6" s="203" t="s">
         <v>15</v>
       </c>
       <c r="V6" s="204"/>
       <c r="W6" s="205"/>
-      <c r="X6" s="433"/>
-      <c r="Y6" s="481"/>
-      <c r="Z6" s="481"/>
-      <c r="AA6" s="481"/>
-      <c r="AB6" s="481"/>
-      <c r="AC6" s="481"/>
-      <c r="AD6" s="481"/>
-      <c r="AE6" s="481"/>
-      <c r="AF6" s="481"/>
-      <c r="AG6" s="506"/>
+      <c r="X6" s="436"/>
+      <c r="Y6" s="483"/>
+      <c r="Z6" s="483"/>
+      <c r="AA6" s="483"/>
+      <c r="AB6" s="483"/>
+      <c r="AC6" s="483"/>
+      <c r="AD6" s="483"/>
+      <c r="AE6" s="483"/>
+      <c r="AF6" s="483"/>
+      <c r="AG6" s="508"/>
     </row>
     <row r="7" ht="13.5" spans="1:33">
       <c r="A7" s="18" t="s">
@@ -6656,7 +6761,7 @@
       <c r="AD8" s="322"/>
       <c r="AE8" s="322"/>
       <c r="AF8" s="322"/>
-      <c r="AG8" s="507"/>
+      <c r="AG8" s="509"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:33">
       <c r="A9" s="26" t="s">
@@ -6684,22 +6789,22 @@
         <v>27</v>
       </c>
       <c r="Q9" s="13"/>
-      <c r="R9" s="434"/>
-      <c r="S9" s="435"/>
-      <c r="T9" s="435"/>
-      <c r="U9" s="435"/>
-      <c r="V9" s="435"/>
-      <c r="W9" s="435"/>
-      <c r="X9" s="435"/>
-      <c r="Y9" s="435"/>
-      <c r="Z9" s="435"/>
-      <c r="AA9" s="435"/>
-      <c r="AB9" s="435"/>
-      <c r="AC9" s="435"/>
-      <c r="AD9" s="435"/>
-      <c r="AE9" s="435"/>
-      <c r="AF9" s="435"/>
-      <c r="AG9" s="508"/>
+      <c r="R9" s="437"/>
+      <c r="S9" s="438"/>
+      <c r="T9" s="438"/>
+      <c r="U9" s="438"/>
+      <c r="V9" s="438"/>
+      <c r="W9" s="438"/>
+      <c r="X9" s="438"/>
+      <c r="Y9" s="438"/>
+      <c r="Z9" s="438"/>
+      <c r="AA9" s="438"/>
+      <c r="AB9" s="438"/>
+      <c r="AC9" s="438"/>
+      <c r="AD9" s="438"/>
+      <c r="AE9" s="438"/>
+      <c r="AF9" s="438"/>
+      <c r="AG9" s="510"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:33">
       <c r="A10" s="26"/>
@@ -6913,7 +7018,7 @@
       <c r="N15" s="324"/>
       <c r="O15" s="324"/>
       <c r="P15" s="325"/>
-      <c r="Q15" s="436" t="s">
+      <c r="Q15" s="439" t="s">
         <v>35</v>
       </c>
       <c r="R15" s="324" t="s">
@@ -6937,7 +7042,7 @@
       <c r="AD15" s="324"/>
       <c r="AE15" s="324"/>
       <c r="AF15" s="325"/>
-      <c r="AG15" s="509"/>
+      <c r="AG15" s="511"/>
     </row>
     <row r="16" ht="13.5" spans="1:33">
       <c r="A16" s="48"/>
@@ -6962,23 +7067,23 @@
       <c r="N16" s="404"/>
       <c r="O16" s="404"/>
       <c r="P16" s="404"/>
-      <c r="Q16" s="437"/>
+      <c r="Q16" s="440"/>
       <c r="R16" s="328"/>
-      <c r="S16" s="438"/>
-      <c r="T16" s="438"/>
-      <c r="U16" s="438"/>
-      <c r="V16" s="438"/>
-      <c r="W16" s="438"/>
-      <c r="X16" s="438"/>
-      <c r="Y16" s="438"/>
-      <c r="Z16" s="438"/>
-      <c r="AA16" s="438"/>
-      <c r="AB16" s="438"/>
-      <c r="AC16" s="438"/>
-      <c r="AD16" s="438"/>
-      <c r="AE16" s="438"/>
-      <c r="AF16" s="438"/>
-      <c r="AG16" s="510"/>
+      <c r="S16" s="441"/>
+      <c r="T16" s="441"/>
+      <c r="U16" s="441"/>
+      <c r="V16" s="441"/>
+      <c r="W16" s="441"/>
+      <c r="X16" s="441"/>
+      <c r="Y16" s="441"/>
+      <c r="Z16" s="441"/>
+      <c r="AA16" s="441"/>
+      <c r="AB16" s="441"/>
+      <c r="AC16" s="441"/>
+      <c r="AD16" s="441"/>
+      <c r="AE16" s="441"/>
+      <c r="AF16" s="441"/>
+      <c r="AG16" s="512"/>
     </row>
     <row r="17" ht="13.5" spans="1:33">
       <c r="A17" s="53" t="s">
@@ -7027,11 +7132,11 @@
       <c r="AB17" s="325" t="s">
         <v>50</v>
       </c>
-      <c r="AC17" s="482"/>
-      <c r="AD17" s="482"/>
-      <c r="AE17" s="482"/>
-      <c r="AF17" s="482"/>
-      <c r="AG17" s="509"/>
+      <c r="AC17" s="484"/>
+      <c r="AD17" s="484"/>
+      <c r="AE17" s="484"/>
+      <c r="AF17" s="484"/>
+      <c r="AG17" s="511"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="55"/>
@@ -7078,7 +7183,7 @@
       <c r="AD18" s="331"/>
       <c r="AE18" s="331"/>
       <c r="AF18" s="331"/>
-      <c r="AG18" s="511"/>
+      <c r="AG18" s="513"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="55"/>
@@ -7127,7 +7232,7 @@
       <c r="AD19" s="334"/>
       <c r="AE19" s="334"/>
       <c r="AF19" s="330"/>
-      <c r="AG19" s="511"/>
+      <c r="AG19" s="513"/>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="55"/>
@@ -7180,11 +7285,11 @@
       <c r="AD20" s="331"/>
       <c r="AE20" s="331"/>
       <c r="AF20" s="331"/>
-      <c r="AG20" s="511" t="s">
+      <c r="AG20" s="513" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" ht="13.5" spans="1:33">
       <c r="A21" s="62"/>
       <c r="B21" s="63"/>
       <c r="C21" s="327" t="s">
@@ -7215,19 +7320,19 @@
       <c r="T21" s="334"/>
       <c r="U21" s="330"/>
       <c r="V21" s="333"/>
-      <c r="W21" s="439" t="s">
+      <c r="W21" s="442" t="s">
         <v>73</v>
       </c>
       <c r="X21" s="404"/>
       <c r="Y21" s="404"/>
       <c r="Z21" s="404"/>
-      <c r="AA21" s="437"/>
+      <c r="AA21" s="440"/>
       <c r="AB21" s="328"/>
-      <c r="AC21" s="438"/>
-      <c r="AD21" s="438"/>
-      <c r="AE21" s="438"/>
-      <c r="AF21" s="438"/>
-      <c r="AG21" s="510"/>
+      <c r="AC21" s="441"/>
+      <c r="AD21" s="441"/>
+      <c r="AE21" s="441"/>
+      <c r="AF21" s="441"/>
+      <c r="AG21" s="512"/>
     </row>
     <row r="22" ht="13.5" spans="1:33">
       <c r="A22" s="64" t="s">
@@ -7260,16 +7365,16 @@
       <c r="R22" s="402" t="s">
         <v>78</v>
       </c>
-      <c r="S22" s="440"/>
-      <c r="T22" s="440"/>
-      <c r="U22" s="440"/>
+      <c r="S22" s="443"/>
+      <c r="T22" s="443"/>
+      <c r="U22" s="443"/>
       <c r="V22" s="326"/>
       <c r="W22" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="X22" s="440"/>
-      <c r="Y22" s="440"/>
-      <c r="Z22" s="440"/>
+      <c r="X22" s="443"/>
+      <c r="Y22" s="443"/>
+      <c r="Z22" s="443"/>
       <c r="AA22" s="333"/>
       <c r="AB22" s="324" t="s">
         <v>80</v>
@@ -7278,7 +7383,7 @@
       <c r="AD22" s="324"/>
       <c r="AE22" s="324"/>
       <c r="AF22" s="325"/>
-      <c r="AG22" s="509" t="s">
+      <c r="AG22" s="511" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7316,18 +7421,18 @@
       <c r="S23" s="404"/>
       <c r="T23" s="404"/>
       <c r="U23" s="404"/>
-      <c r="V23" s="437"/>
-      <c r="W23" s="441"/>
-      <c r="X23" s="442"/>
-      <c r="Y23" s="442"/>
-      <c r="Z23" s="442"/>
-      <c r="AA23" s="442"/>
-      <c r="AB23" s="442"/>
-      <c r="AC23" s="442"/>
-      <c r="AD23" s="442"/>
-      <c r="AE23" s="442"/>
-      <c r="AF23" s="442"/>
-      <c r="AG23" s="512"/>
+      <c r="V23" s="440"/>
+      <c r="W23" s="444"/>
+      <c r="X23" s="445"/>
+      <c r="Y23" s="445"/>
+      <c r="Z23" s="445"/>
+      <c r="AA23" s="445"/>
+      <c r="AB23" s="445"/>
+      <c r="AC23" s="445"/>
+      <c r="AD23" s="445"/>
+      <c r="AE23" s="445"/>
+      <c r="AF23" s="445"/>
+      <c r="AG23" s="514"/>
     </row>
     <row r="24" ht="13.5" spans="1:33">
       <c r="A24" s="336" t="s">
@@ -7362,18 +7467,18 @@
       <c r="R24" s="402" t="s">
         <v>89</v>
       </c>
-      <c r="S24" s="440"/>
-      <c r="T24" s="440"/>
-      <c r="U24" s="440"/>
+      <c r="S24" s="443"/>
+      <c r="T24" s="443"/>
+      <c r="U24" s="443"/>
       <c r="V24" s="326" t="s">
         <v>46</v>
       </c>
       <c r="W24" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="X24" s="440"/>
-      <c r="Y24" s="440"/>
-      <c r="Z24" s="440"/>
+      <c r="X24" s="443"/>
+      <c r="Y24" s="443"/>
+      <c r="Z24" s="443"/>
       <c r="AA24" s="326"/>
       <c r="AB24" s="324" t="s">
         <v>91</v>
@@ -7382,7 +7487,7 @@
       <c r="AD24" s="324"/>
       <c r="AE24" s="324"/>
       <c r="AF24" s="325"/>
-      <c r="AG24" s="509" t="s">
+      <c r="AG24" s="511" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7410,30 +7515,30 @@
       <c r="O25" s="327"/>
       <c r="P25" s="335"/>
       <c r="Q25" s="329"/>
-      <c r="R25" s="443" t="s">
+      <c r="R25" s="446" t="s">
         <v>95</v>
       </c>
-      <c r="S25" s="444"/>
-      <c r="T25" s="444"/>
-      <c r="U25" s="444"/>
+      <c r="S25" s="447"/>
+      <c r="T25" s="447"/>
+      <c r="U25" s="447"/>
       <c r="V25" s="329" t="s">
         <v>46</v>
       </c>
-      <c r="W25" s="445" t="s">
+      <c r="W25" s="448" t="s">
         <v>96</v>
       </c>
-      <c r="X25" s="446"/>
-      <c r="Y25" s="446"/>
-      <c r="Z25" s="446"/>
-      <c r="AA25" s="483" t="s">
+      <c r="X25" s="449"/>
+      <c r="Y25" s="449"/>
+      <c r="Z25" s="449"/>
+      <c r="AA25" s="485" t="s">
         <v>46</v>
       </c>
-      <c r="AB25" s="441"/>
-      <c r="AC25" s="442"/>
-      <c r="AD25" s="442"/>
-      <c r="AE25" s="442"/>
-      <c r="AF25" s="442"/>
-      <c r="AG25" s="512"/>
+      <c r="AB25" s="444"/>
+      <c r="AC25" s="445"/>
+      <c r="AD25" s="445"/>
+      <c r="AE25" s="445"/>
+      <c r="AF25" s="445"/>
+      <c r="AG25" s="514"/>
     </row>
     <row r="26" ht="14.25" spans="1:33">
       <c r="A26" s="75" t="s">
@@ -7468,19 +7573,19 @@
       <c r="T26" s="339"/>
       <c r="U26" s="340"/>
       <c r="V26" s="341"/>
-      <c r="W26" s="447" t="s">
+      <c r="W26" s="450" t="s">
         <v>42</v>
       </c>
-      <c r="X26" s="448"/>
-      <c r="Y26" s="448"/>
-      <c r="Z26" s="448"/>
-      <c r="AA26" s="484"/>
+      <c r="X26" s="451"/>
+      <c r="Y26" s="451"/>
+      <c r="Z26" s="451"/>
+      <c r="AA26" s="486"/>
       <c r="AB26" s="340"/>
-      <c r="AC26" s="485"/>
-      <c r="AD26" s="485"/>
-      <c r="AE26" s="485"/>
-      <c r="AF26" s="485"/>
-      <c r="AG26" s="513"/>
+      <c r="AC26" s="487"/>
+      <c r="AD26" s="487"/>
+      <c r="AE26" s="487"/>
+      <c r="AF26" s="487"/>
+      <c r="AG26" s="515"/>
     </row>
     <row r="27" ht="13.5" spans="1:33">
       <c r="A27" s="80" t="s">
@@ -7521,7 +7626,7 @@
       <c r="AD27" s="405"/>
       <c r="AE27" s="405"/>
       <c r="AF27" s="405"/>
-      <c r="AG27" s="514"/>
+      <c r="AG27" s="516"/>
     </row>
     <row r="28" ht="13.5" spans="1:33">
       <c r="A28" s="86"/>
@@ -7730,7 +7835,7 @@
       <c r="AC33" s="274" t="s">
         <v>122</v>
       </c>
-      <c r="AD33" s="486" t="s">
+      <c r="AD33" s="488" t="s">
         <v>123</v>
       </c>
       <c r="AE33" s="274" t="s">
@@ -7767,18 +7872,18 @@
       <c r="U34" s="349"/>
       <c r="V34" s="349"/>
       <c r="W34" s="350"/>
-      <c r="X34" s="449" t="s">
+      <c r="X34" s="452" t="s">
         <v>127</v>
       </c>
-      <c r="Y34" s="487"/>
-      <c r="Z34" s="488"/>
-      <c r="AA34" s="489"/>
-      <c r="AB34" s="489"/>
-      <c r="AC34" s="489"/>
-      <c r="AD34" s="489"/>
-      <c r="AE34" s="489"/>
-      <c r="AF34" s="489"/>
-      <c r="AG34" s="515"/>
+      <c r="Y34" s="489"/>
+      <c r="Z34" s="490"/>
+      <c r="AA34" s="491"/>
+      <c r="AB34" s="491"/>
+      <c r="AC34" s="491"/>
+      <c r="AD34" s="491"/>
+      <c r="AE34" s="491"/>
+      <c r="AF34" s="491"/>
+      <c r="AG34" s="517"/>
     </row>
     <row r="35" s="4" customFormat="1" ht="14.5" customHeight="1" spans="1:33">
       <c r="A35" s="347"/>
@@ -7804,16 +7909,16 @@
       <c r="U35" s="349"/>
       <c r="V35" s="349"/>
       <c r="W35" s="350"/>
-      <c r="X35" s="450"/>
-      <c r="Y35" s="490"/>
-      <c r="Z35" s="488"/>
-      <c r="AA35" s="489"/>
-      <c r="AB35" s="489"/>
-      <c r="AC35" s="489"/>
-      <c r="AD35" s="489"/>
-      <c r="AE35" s="489"/>
-      <c r="AF35" s="489"/>
-      <c r="AG35" s="515"/>
+      <c r="X35" s="453"/>
+      <c r="Y35" s="492"/>
+      <c r="Z35" s="490"/>
+      <c r="AA35" s="491"/>
+      <c r="AB35" s="491"/>
+      <c r="AC35" s="491"/>
+      <c r="AD35" s="491"/>
+      <c r="AE35" s="491"/>
+      <c r="AF35" s="491"/>
+      <c r="AG35" s="517"/>
     </row>
     <row r="36" s="4" customFormat="1" ht="14.5" customHeight="1" spans="1:33">
       <c r="A36" s="347"/>
@@ -7839,16 +7944,16 @@
       <c r="U36" s="349"/>
       <c r="V36" s="349"/>
       <c r="W36" s="350"/>
-      <c r="X36" s="450"/>
-      <c r="Y36" s="490"/>
-      <c r="Z36" s="488"/>
-      <c r="AA36" s="489"/>
-      <c r="AB36" s="489"/>
-      <c r="AC36" s="489"/>
-      <c r="AD36" s="489"/>
-      <c r="AE36" s="489"/>
-      <c r="AF36" s="489"/>
-      <c r="AG36" s="515"/>
+      <c r="X36" s="453"/>
+      <c r="Y36" s="492"/>
+      <c r="Z36" s="490"/>
+      <c r="AA36" s="491"/>
+      <c r="AB36" s="491"/>
+      <c r="AC36" s="491"/>
+      <c r="AD36" s="491"/>
+      <c r="AE36" s="491"/>
+      <c r="AF36" s="491"/>
+      <c r="AG36" s="517"/>
     </row>
     <row r="37" s="4" customFormat="1" ht="14.5" customHeight="1" spans="1:33">
       <c r="A37" s="354"/>
@@ -7874,16 +7979,16 @@
       <c r="U37" s="356"/>
       <c r="V37" s="356"/>
       <c r="W37" s="357"/>
-      <c r="X37" s="451"/>
-      <c r="Y37" s="491"/>
-      <c r="Z37" s="492"/>
-      <c r="AA37" s="493"/>
-      <c r="AB37" s="493"/>
-      <c r="AC37" s="493"/>
-      <c r="AD37" s="493"/>
-      <c r="AE37" s="493"/>
-      <c r="AF37" s="493"/>
-      <c r="AG37" s="516"/>
+      <c r="X37" s="454"/>
+      <c r="Y37" s="493"/>
+      <c r="Z37" s="494"/>
+      <c r="AA37" s="495"/>
+      <c r="AB37" s="495"/>
+      <c r="AC37" s="495"/>
+      <c r="AD37" s="495"/>
+      <c r="AE37" s="495"/>
+      <c r="AF37" s="495"/>
+      <c r="AG37" s="518"/>
     </row>
     <row r="38" s="4" customFormat="1" ht="2" customHeight="1" spans="1:33">
       <c r="A38" s="361"/>
@@ -7909,8 +8014,8 @@
       <c r="U38" s="362"/>
       <c r="V38" s="362"/>
       <c r="W38" s="362"/>
-      <c r="X38" s="452"/>
-      <c r="Y38" s="452"/>
+      <c r="X38" s="455"/>
+      <c r="Y38" s="455"/>
       <c r="Z38" s="362"/>
       <c r="AA38" s="362"/>
       <c r="AB38" s="362"/>
@@ -7918,7 +8023,7 @@
       <c r="AD38" s="362"/>
       <c r="AE38" s="362"/>
       <c r="AF38" s="362"/>
-      <c r="AG38" s="517"/>
+      <c r="AG38" s="519"/>
     </row>
     <row r="39" s="5" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A39" s="119">
@@ -7951,35 +8056,35 @@
       <c r="N39" s="409"/>
       <c r="O39" s="409"/>
       <c r="P39" s="409"/>
-      <c r="Q39" s="453"/>
+      <c r="Q39" s="456"/>
       <c r="R39" s="370" t="s">
         <v>131</v>
       </c>
       <c r="S39" s="406"/>
       <c r="T39" s="407"/>
-      <c r="U39" s="454" t="s">
+      <c r="U39" s="457" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="455"/>
-      <c r="W39" s="456"/>
-      <c r="X39" s="457" t="s">
+      <c r="V39" s="458"/>
+      <c r="W39" s="459"/>
+      <c r="X39" s="460" t="s">
         <v>132</v>
       </c>
-      <c r="Y39" s="494"/>
-      <c r="Z39" s="495"/>
-      <c r="AA39" s="496"/>
-      <c r="AB39" s="496"/>
-      <c r="AC39" s="496" t="s">
+      <c r="Y39" s="496"/>
+      <c r="Z39" s="497"/>
+      <c r="AA39" s="498"/>
+      <c r="AB39" s="498"/>
+      <c r="AC39" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="AD39" s="496" t="s">
+      <c r="AD39" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="AE39" s="496" t="s">
+      <c r="AE39" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="AF39" s="496"/>
-      <c r="AG39" s="518"/>
+      <c r="AF39" s="498"/>
+      <c r="AG39" s="520"/>
     </row>
     <row r="40" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A40" s="119"/>
@@ -8004,27 +8109,27 @@
       <c r="N40" s="413"/>
       <c r="O40" s="413"/>
       <c r="P40" s="413"/>
-      <c r="Q40" s="458"/>
+      <c r="Q40" s="461"/>
       <c r="R40" s="393" t="s">
         <v>136</v>
       </c>
       <c r="S40" s="410"/>
       <c r="T40" s="411"/>
-      <c r="U40" s="459" t="s">
+      <c r="U40" s="462" t="s">
         <v>137</v>
       </c>
-      <c r="V40" s="460"/>
-      <c r="W40" s="461"/>
-      <c r="X40" s="462"/>
-      <c r="Y40" s="497"/>
-      <c r="Z40" s="498"/>
-      <c r="AA40" s="499"/>
-      <c r="AB40" s="499"/>
-      <c r="AC40" s="499"/>
-      <c r="AD40" s="499"/>
-      <c r="AE40" s="499"/>
-      <c r="AF40" s="499"/>
-      <c r="AG40" s="519"/>
+      <c r="V40" s="463"/>
+      <c r="W40" s="464"/>
+      <c r="X40" s="465"/>
+      <c r="Y40" s="499"/>
+      <c r="Z40" s="500"/>
+      <c r="AA40" s="501"/>
+      <c r="AB40" s="501"/>
+      <c r="AC40" s="501"/>
+      <c r="AD40" s="501"/>
+      <c r="AE40" s="501"/>
+      <c r="AF40" s="501"/>
+      <c r="AG40" s="521"/>
     </row>
     <row r="41" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A41" s="119"/>
@@ -8049,25 +8154,27 @@
       <c r="N41" s="417"/>
       <c r="O41" s="417"/>
       <c r="P41" s="417"/>
-      <c r="Q41" s="463"/>
+      <c r="Q41" s="466"/>
       <c r="R41" s="393" t="s">
         <v>140</v>
       </c>
       <c r="S41" s="410"/>
       <c r="T41" s="411"/>
-      <c r="U41" s="464"/>
-      <c r="V41" s="460"/>
-      <c r="W41" s="461"/>
-      <c r="X41" s="465"/>
-      <c r="Y41" s="500"/>
-      <c r="Z41" s="498"/>
-      <c r="AA41" s="499"/>
-      <c r="AB41" s="499"/>
-      <c r="AC41" s="499"/>
-      <c r="AD41" s="499"/>
-      <c r="AE41" s="499"/>
-      <c r="AF41" s="499"/>
-      <c r="AG41" s="519"/>
+      <c r="U41" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V41" s="463"/>
+      <c r="W41" s="464"/>
+      <c r="X41" s="467"/>
+      <c r="Y41" s="502"/>
+      <c r="Z41" s="500"/>
+      <c r="AA41" s="501"/>
+      <c r="AB41" s="501"/>
+      <c r="AC41" s="501"/>
+      <c r="AD41" s="501"/>
+      <c r="AE41" s="501"/>
+      <c r="AF41" s="501"/>
+      <c r="AG41" s="521"/>
     </row>
     <row r="42" s="5" customFormat="1" ht="24" customHeight="1" spans="1:33">
       <c r="A42" s="119"/>
@@ -8086,42 +8193,42 @@
       <c r="N42" s="421"/>
       <c r="O42" s="421"/>
       <c r="P42" s="421"/>
-      <c r="Q42" s="466"/>
-      <c r="R42" s="467" t="s">
+      <c r="Q42" s="468"/>
+      <c r="R42" s="469" t="s">
         <v>141</v>
       </c>
-      <c r="S42" s="468"/>
-      <c r="T42" s="469"/>
-      <c r="U42" s="470" t="s">
+      <c r="S42" s="470"/>
+      <c r="T42" s="471"/>
+      <c r="U42" s="472" t="s">
         <v>142</v>
       </c>
-      <c r="V42" s="471"/>
-      <c r="W42" s="472"/>
-      <c r="X42" s="473"/>
-      <c r="Y42" s="501"/>
-      <c r="Z42" s="502"/>
-      <c r="AA42" s="503"/>
-      <c r="AB42" s="503"/>
-      <c r="AC42" s="503"/>
-      <c r="AD42" s="503"/>
-      <c r="AE42" s="503"/>
-      <c r="AF42" s="503"/>
-      <c r="AG42" s="520"/>
+      <c r="V42" s="473"/>
+      <c r="W42" s="474"/>
+      <c r="X42" s="475"/>
+      <c r="Y42" s="503"/>
+      <c r="Z42" s="504"/>
+      <c r="AA42" s="505"/>
+      <c r="AB42" s="505"/>
+      <c r="AC42" s="505"/>
+      <c r="AD42" s="505"/>
+      <c r="AE42" s="505"/>
+      <c r="AF42" s="505"/>
+      <c r="AG42" s="522"/>
     </row>
     <row r="43" s="5" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A43" s="134">
         <v>2</v>
       </c>
       <c r="B43" s="387">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C43" s="388"/>
       <c r="D43" s="389"/>
       <c r="E43" s="368">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" s="368">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G43" s="369" t="s">
         <v>128</v>
@@ -8139,33 +8246,33 @@
       <c r="N43" s="409"/>
       <c r="O43" s="409"/>
       <c r="P43" s="409"/>
-      <c r="Q43" s="453"/>
-      <c r="R43" s="474" t="s">
+      <c r="Q43" s="456"/>
+      <c r="R43" s="476" t="s">
         <v>131</v>
       </c>
-      <c r="S43" s="475"/>
-      <c r="T43" s="476"/>
-      <c r="U43" s="454" t="s">
+      <c r="S43" s="477"/>
+      <c r="T43" s="478"/>
+      <c r="U43" s="457" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="455"/>
-      <c r="W43" s="456"/>
-      <c r="X43" s="457" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y43" s="494"/>
-      <c r="Z43" s="495"/>
-      <c r="AA43" s="504"/>
-      <c r="AB43" s="504"/>
-      <c r="AC43" s="504" t="s">
+      <c r="V43" s="458"/>
+      <c r="W43" s="459"/>
+      <c r="X43" s="460" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y43" s="496"/>
+      <c r="Z43" s="497"/>
+      <c r="AA43" s="506"/>
+      <c r="AB43" s="506"/>
+      <c r="AC43" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AD43" s="504" t="s">
+      <c r="AD43" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AE43" s="504"/>
-      <c r="AF43" s="504"/>
-      <c r="AG43" s="518"/>
+      <c r="AE43" s="506"/>
+      <c r="AF43" s="506"/>
+      <c r="AG43" s="520"/>
     </row>
     <row r="44" s="5" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A44" s="119"/>
@@ -8183,34 +8290,34 @@
       <c r="I44" s="410"/>
       <c r="J44" s="411"/>
       <c r="K44" s="422" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L44" s="413"/>
       <c r="M44" s="413"/>
       <c r="N44" s="413"/>
       <c r="O44" s="413"/>
       <c r="P44" s="413"/>
-      <c r="Q44" s="458"/>
+      <c r="Q44" s="461"/>
       <c r="R44" s="393" t="s">
         <v>136</v>
       </c>
       <c r="S44" s="410"/>
       <c r="T44" s="411"/>
-      <c r="U44" s="459" t="s">
-        <v>137</v>
-      </c>
-      <c r="V44" s="460"/>
-      <c r="W44" s="461"/>
-      <c r="X44" s="462"/>
-      <c r="Y44" s="497"/>
-      <c r="Z44" s="498"/>
-      <c r="AA44" s="504"/>
-      <c r="AB44" s="504"/>
-      <c r="AC44" s="504"/>
-      <c r="AD44" s="504"/>
-      <c r="AE44" s="504"/>
-      <c r="AF44" s="504"/>
-      <c r="AG44" s="519"/>
+      <c r="U44" s="462" t="s">
+        <v>145</v>
+      </c>
+      <c r="V44" s="463"/>
+      <c r="W44" s="464"/>
+      <c r="X44" s="465"/>
+      <c r="Y44" s="499"/>
+      <c r="Z44" s="500"/>
+      <c r="AA44" s="506"/>
+      <c r="AB44" s="506"/>
+      <c r="AC44" s="506"/>
+      <c r="AD44" s="506"/>
+      <c r="AE44" s="506"/>
+      <c r="AF44" s="506"/>
+      <c r="AG44" s="521"/>
     </row>
     <row r="45" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A45" s="119"/>
@@ -8228,34 +8335,36 @@
       <c r="I45" s="414"/>
       <c r="J45" s="415"/>
       <c r="K45" s="416" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L45" s="417"/>
       <c r="M45" s="417"/>
       <c r="N45" s="417"/>
       <c r="O45" s="417"/>
       <c r="P45" s="417"/>
-      <c r="Q45" s="463"/>
+      <c r="Q45" s="466"/>
       <c r="R45" s="393" t="s">
         <v>140</v>
       </c>
       <c r="S45" s="410"/>
       <c r="T45" s="411"/>
-      <c r="U45" s="459"/>
-      <c r="V45" s="460"/>
-      <c r="W45" s="461"/>
-      <c r="X45" s="465"/>
-      <c r="Y45" s="500"/>
-      <c r="Z45" s="498"/>
-      <c r="AA45" s="504"/>
-      <c r="AB45" s="504"/>
-      <c r="AC45" s="504"/>
-      <c r="AD45" s="504"/>
-      <c r="AE45" s="504"/>
-      <c r="AF45" s="504"/>
-      <c r="AG45" s="519"/>
-    </row>
-    <row r="46" s="5" customFormat="1" ht="53.25" customHeight="1" spans="1:33">
+      <c r="U45" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V45" s="463"/>
+      <c r="W45" s="464"/>
+      <c r="X45" s="467"/>
+      <c r="Y45" s="502"/>
+      <c r="Z45" s="500"/>
+      <c r="AA45" s="506"/>
+      <c r="AB45" s="506"/>
+      <c r="AC45" s="506"/>
+      <c r="AD45" s="506"/>
+      <c r="AE45" s="506"/>
+      <c r="AF45" s="506"/>
+      <c r="AG45" s="521"/>
+    </row>
+    <row r="46" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A46" s="144"/>
       <c r="B46" s="381"/>
       <c r="C46" s="382"/>
@@ -8272,42 +8381,42 @@
       <c r="N46" s="421"/>
       <c r="O46" s="421"/>
       <c r="P46" s="421"/>
-      <c r="Q46" s="466"/>
-      <c r="R46" s="477" t="s">
-        <v>145</v>
-      </c>
-      <c r="S46" s="468"/>
-      <c r="T46" s="469"/>
-      <c r="U46" s="470" t="s">
-        <v>146</v>
-      </c>
-      <c r="V46" s="471"/>
-      <c r="W46" s="472"/>
-      <c r="X46" s="473"/>
-      <c r="Y46" s="501"/>
-      <c r="Z46" s="502"/>
-      <c r="AA46" s="504"/>
-      <c r="AB46" s="504"/>
-      <c r="AC46" s="504"/>
-      <c r="AD46" s="504"/>
-      <c r="AE46" s="504"/>
-      <c r="AF46" s="504"/>
-      <c r="AG46" s="520"/>
+      <c r="Q46" s="468"/>
+      <c r="R46" s="479" t="s">
+        <v>147</v>
+      </c>
+      <c r="S46" s="470"/>
+      <c r="T46" s="471"/>
+      <c r="U46" s="472" t="s">
+        <v>148</v>
+      </c>
+      <c r="V46" s="473"/>
+      <c r="W46" s="474"/>
+      <c r="X46" s="475"/>
+      <c r="Y46" s="503"/>
+      <c r="Z46" s="504"/>
+      <c r="AA46" s="506"/>
+      <c r="AB46" s="506"/>
+      <c r="AC46" s="506"/>
+      <c r="AD46" s="506"/>
+      <c r="AE46" s="506"/>
+      <c r="AF46" s="506"/>
+      <c r="AG46" s="522"/>
     </row>
     <row r="47" s="5" customFormat="1" customHeight="1" spans="1:33">
       <c r="A47" s="134">
         <v>3</v>
       </c>
       <c r="B47" s="387">
-        <v>43997</v>
+        <v>44378</v>
       </c>
       <c r="C47" s="388"/>
       <c r="D47" s="389"/>
       <c r="E47" s="368">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F47" s="368">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G47" s="369" t="s">
         <v>128</v>
@@ -8318,42 +8427,40 @@
       <c r="I47" s="406"/>
       <c r="J47" s="407"/>
       <c r="K47" s="408" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="L47" s="409"/>
       <c r="M47" s="409"/>
       <c r="N47" s="409"/>
       <c r="O47" s="409"/>
       <c r="P47" s="409"/>
-      <c r="Q47" s="453"/>
-      <c r="R47" s="474" t="s">
+      <c r="Q47" s="456"/>
+      <c r="R47" s="476" t="s">
         <v>131</v>
       </c>
-      <c r="S47" s="475"/>
-      <c r="T47" s="476"/>
-      <c r="U47" s="454" t="s">
+      <c r="S47" s="477"/>
+      <c r="T47" s="478"/>
+      <c r="U47" s="457" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="455"/>
-      <c r="W47" s="456"/>
-      <c r="X47" s="457" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y47" s="494"/>
-      <c r="Z47" s="495"/>
-      <c r="AA47" s="496"/>
-      <c r="AB47" s="504"/>
-      <c r="AC47" s="504" t="s">
+      <c r="V47" s="458"/>
+      <c r="W47" s="459"/>
+      <c r="X47" s="460" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y47" s="496"/>
+      <c r="Z47" s="497"/>
+      <c r="AA47" s="498"/>
+      <c r="AB47" s="506"/>
+      <c r="AC47" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AD47" s="504" t="s">
+      <c r="AD47" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AE47" s="504" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF47" s="504"/>
-      <c r="AG47" s="518"/>
+      <c r="AE47" s="506"/>
+      <c r="AF47" s="506"/>
+      <c r="AG47" s="520"/>
     </row>
     <row r="48" s="5" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A48" s="119"/>
@@ -8370,40 +8477,40 @@
       </c>
       <c r="I48" s="410"/>
       <c r="J48" s="411"/>
-      <c r="K48" s="412" t="s">
-        <v>147</v>
+      <c r="K48" s="422" t="s">
+        <v>149</v>
       </c>
       <c r="L48" s="413"/>
       <c r="M48" s="413"/>
       <c r="N48" s="413"/>
       <c r="O48" s="413"/>
       <c r="P48" s="413"/>
-      <c r="Q48" s="458"/>
+      <c r="Q48" s="461"/>
       <c r="R48" s="393" t="s">
         <v>136</v>
       </c>
       <c r="S48" s="410"/>
       <c r="T48" s="411"/>
-      <c r="U48" s="459" t="s">
-        <v>137</v>
-      </c>
-      <c r="V48" s="460"/>
-      <c r="W48" s="461"/>
-      <c r="X48" s="462"/>
-      <c r="Y48" s="497"/>
-      <c r="Z48" s="498"/>
-      <c r="AA48" s="499"/>
-      <c r="AB48" s="504"/>
-      <c r="AC48" s="504"/>
-      <c r="AD48" s="504"/>
-      <c r="AE48" s="504"/>
-      <c r="AF48" s="504"/>
-      <c r="AG48" s="519"/>
+      <c r="U48" s="462" t="s">
+        <v>145</v>
+      </c>
+      <c r="V48" s="463"/>
+      <c r="W48" s="464"/>
+      <c r="X48" s="465"/>
+      <c r="Y48" s="499"/>
+      <c r="Z48" s="500"/>
+      <c r="AA48" s="501"/>
+      <c r="AB48" s="506"/>
+      <c r="AC48" s="506"/>
+      <c r="AD48" s="506"/>
+      <c r="AE48" s="506"/>
+      <c r="AF48" s="506"/>
+      <c r="AG48" s="521"/>
     </row>
     <row r="49" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A49" s="119"/>
       <c r="B49" s="390">
-        <v>44385</v>
+        <v>44470</v>
       </c>
       <c r="C49" s="391"/>
       <c r="D49" s="392"/>
@@ -8416,36 +8523,36 @@
       <c r="I49" s="414"/>
       <c r="J49" s="415"/>
       <c r="K49" s="416" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L49" s="417"/>
       <c r="M49" s="417"/>
       <c r="N49" s="417"/>
       <c r="O49" s="417"/>
       <c r="P49" s="417"/>
-      <c r="Q49" s="463"/>
+      <c r="Q49" s="466"/>
       <c r="R49" s="393" t="s">
         <v>140</v>
       </c>
       <c r="S49" s="410"/>
       <c r="T49" s="411"/>
-      <c r="U49" s="459" t="s">
-        <v>149</v>
-      </c>
-      <c r="V49" s="460"/>
-      <c r="W49" s="461"/>
-      <c r="X49" s="465"/>
-      <c r="Y49" s="500"/>
-      <c r="Z49" s="498"/>
-      <c r="AA49" s="499"/>
-      <c r="AB49" s="504"/>
-      <c r="AC49" s="504"/>
-      <c r="AD49" s="504"/>
-      <c r="AE49" s="504"/>
-      <c r="AF49" s="504"/>
-      <c r="AG49" s="519"/>
-    </row>
-    <row r="50" s="5" customFormat="1" ht="55" customHeight="1" spans="1:33">
+      <c r="U49" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V49" s="463"/>
+      <c r="W49" s="464"/>
+      <c r="X49" s="467"/>
+      <c r="Y49" s="502"/>
+      <c r="Z49" s="500"/>
+      <c r="AA49" s="501"/>
+      <c r="AB49" s="506"/>
+      <c r="AC49" s="506"/>
+      <c r="AD49" s="506"/>
+      <c r="AE49" s="506"/>
+      <c r="AF49" s="506"/>
+      <c r="AG49" s="521"/>
+    </row>
+    <row r="50" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A50" s="144"/>
       <c r="B50" s="381"/>
       <c r="C50" s="382"/>
@@ -8462,42 +8569,42 @@
       <c r="N50" s="421"/>
       <c r="O50" s="421"/>
       <c r="P50" s="421"/>
-      <c r="Q50" s="466"/>
-      <c r="R50" s="477" t="s">
-        <v>145</v>
-      </c>
-      <c r="S50" s="468"/>
-      <c r="T50" s="469"/>
-      <c r="U50" s="470" t="s">
-        <v>150</v>
-      </c>
-      <c r="V50" s="471"/>
-      <c r="W50" s="472"/>
-      <c r="X50" s="473"/>
-      <c r="Y50" s="501"/>
-      <c r="Z50" s="502"/>
-      <c r="AA50" s="503"/>
-      <c r="AB50" s="504"/>
-      <c r="AC50" s="504"/>
-      <c r="AD50" s="504"/>
-      <c r="AE50" s="504"/>
-      <c r="AF50" s="504"/>
-      <c r="AG50" s="520"/>
+      <c r="Q50" s="468"/>
+      <c r="R50" s="479" t="s">
+        <v>147</v>
+      </c>
+      <c r="S50" s="470"/>
+      <c r="T50" s="471"/>
+      <c r="U50" s="472" t="s">
+        <v>148</v>
+      </c>
+      <c r="V50" s="473"/>
+      <c r="W50" s="474"/>
+      <c r="X50" s="475"/>
+      <c r="Y50" s="503"/>
+      <c r="Z50" s="504"/>
+      <c r="AA50" s="505"/>
+      <c r="AB50" s="506"/>
+      <c r="AC50" s="506"/>
+      <c r="AD50" s="506"/>
+      <c r="AE50" s="506"/>
+      <c r="AF50" s="506"/>
+      <c r="AG50" s="522"/>
     </row>
     <row r="51" s="5" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A51" s="134">
         <v>4</v>
       </c>
       <c r="B51" s="387">
-        <v>43009</v>
+        <v>43983</v>
       </c>
       <c r="C51" s="388"/>
       <c r="D51" s="389"/>
       <c r="E51" s="368">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="368">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G51" s="369" t="s">
         <v>128</v>
@@ -8515,41 +8622,35 @@
       <c r="N51" s="409"/>
       <c r="O51" s="409"/>
       <c r="P51" s="409"/>
-      <c r="Q51" s="453"/>
-      <c r="R51" s="474" t="s">
+      <c r="Q51" s="456"/>
+      <c r="R51" s="476" t="s">
         <v>131</v>
       </c>
-      <c r="S51" s="475"/>
-      <c r="T51" s="476"/>
-      <c r="U51" s="454" t="s">
+      <c r="S51" s="477"/>
+      <c r="T51" s="478"/>
+      <c r="U51" s="457" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="455"/>
-      <c r="W51" s="456"/>
-      <c r="X51" s="457" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y51" s="494"/>
-      <c r="Z51" s="495"/>
-      <c r="AA51" s="504" t="s">
+      <c r="V51" s="458"/>
+      <c r="W51" s="459"/>
+      <c r="X51" s="460" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y51" s="496"/>
+      <c r="Z51" s="497"/>
+      <c r="AA51" s="506"/>
+      <c r="AB51" s="506"/>
+      <c r="AC51" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AB51" s="504" t="s">
+      <c r="AD51" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AC51" s="504" t="s">
+      <c r="AE51" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AD51" s="504" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE51" s="504" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF51" s="504" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG51" s="521"/>
+      <c r="AF51" s="506"/>
+      <c r="AG51" s="523"/>
     </row>
     <row r="52" s="5" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A52" s="119"/>
@@ -8574,32 +8675,32 @@
       <c r="N52" s="413"/>
       <c r="O52" s="413"/>
       <c r="P52" s="413"/>
-      <c r="Q52" s="458"/>
+      <c r="Q52" s="461"/>
       <c r="R52" s="393" t="s">
         <v>136</v>
       </c>
       <c r="S52" s="410"/>
       <c r="T52" s="411"/>
-      <c r="U52" s="459" t="s">
+      <c r="U52" s="462" t="s">
         <v>153</v>
       </c>
-      <c r="V52" s="460"/>
-      <c r="W52" s="461"/>
-      <c r="X52" s="462"/>
-      <c r="Y52" s="497"/>
-      <c r="Z52" s="498"/>
-      <c r="AA52" s="504"/>
-      <c r="AB52" s="504"/>
-      <c r="AC52" s="504"/>
-      <c r="AD52" s="504"/>
-      <c r="AE52" s="504"/>
-      <c r="AF52" s="504"/>
-      <c r="AG52" s="521"/>
+      <c r="V52" s="463"/>
+      <c r="W52" s="464"/>
+      <c r="X52" s="465"/>
+      <c r="Y52" s="499"/>
+      <c r="Z52" s="500"/>
+      <c r="AA52" s="506"/>
+      <c r="AB52" s="506"/>
+      <c r="AC52" s="506"/>
+      <c r="AD52" s="506"/>
+      <c r="AE52" s="506"/>
+      <c r="AF52" s="506"/>
+      <c r="AG52" s="523"/>
     </row>
     <row r="53" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A53" s="119"/>
       <c r="B53" s="390">
-        <v>43524</v>
+        <v>44385</v>
       </c>
       <c r="C53" s="391"/>
       <c r="D53" s="392"/>
@@ -8619,29 +8720,29 @@
       <c r="N53" s="417"/>
       <c r="O53" s="417"/>
       <c r="P53" s="417"/>
-      <c r="Q53" s="463"/>
+      <c r="Q53" s="466"/>
       <c r="R53" s="393" t="s">
         <v>140</v>
       </c>
       <c r="S53" s="410"/>
       <c r="T53" s="411"/>
-      <c r="U53" s="459" t="s">
-        <v>75</v>
-      </c>
-      <c r="V53" s="460"/>
-      <c r="W53" s="461"/>
-      <c r="X53" s="465"/>
-      <c r="Y53" s="500"/>
-      <c r="Z53" s="498"/>
-      <c r="AA53" s="504"/>
-      <c r="AB53" s="504"/>
-      <c r="AC53" s="504"/>
-      <c r="AD53" s="504"/>
-      <c r="AE53" s="504"/>
-      <c r="AF53" s="504"/>
-      <c r="AG53" s="521"/>
-    </row>
-    <row r="54" s="5" customFormat="1" ht="91" customHeight="1" spans="1:33">
+      <c r="U53" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V53" s="463"/>
+      <c r="W53" s="464"/>
+      <c r="X53" s="467"/>
+      <c r="Y53" s="502"/>
+      <c r="Z53" s="500"/>
+      <c r="AA53" s="506"/>
+      <c r="AB53" s="506"/>
+      <c r="AC53" s="506"/>
+      <c r="AD53" s="506"/>
+      <c r="AE53" s="506"/>
+      <c r="AF53" s="506"/>
+      <c r="AG53" s="523"/>
+    </row>
+    <row r="54" s="5" customFormat="1" ht="46" customHeight="1" spans="1:33">
       <c r="A54" s="144"/>
       <c r="B54" s="381"/>
       <c r="C54" s="382"/>
@@ -8658,42 +8759,42 @@
       <c r="N54" s="421"/>
       <c r="O54" s="421"/>
       <c r="P54" s="421"/>
-      <c r="Q54" s="466"/>
-      <c r="R54" s="477" t="s">
-        <v>145</v>
-      </c>
-      <c r="S54" s="468"/>
-      <c r="T54" s="469"/>
-      <c r="U54" s="470" t="s">
+      <c r="Q54" s="468"/>
+      <c r="R54" s="479" t="s">
+        <v>147</v>
+      </c>
+      <c r="S54" s="470"/>
+      <c r="T54" s="471"/>
+      <c r="U54" s="472" t="s">
         <v>155</v>
       </c>
-      <c r="V54" s="471"/>
-      <c r="W54" s="472"/>
-      <c r="X54" s="473"/>
-      <c r="Y54" s="501"/>
-      <c r="Z54" s="502"/>
-      <c r="AA54" s="504"/>
-      <c r="AB54" s="504"/>
-      <c r="AC54" s="504"/>
-      <c r="AD54" s="504"/>
-      <c r="AE54" s="504"/>
-      <c r="AF54" s="504"/>
-      <c r="AG54" s="521"/>
+      <c r="V54" s="473"/>
+      <c r="W54" s="474"/>
+      <c r="X54" s="475"/>
+      <c r="Y54" s="503"/>
+      <c r="Z54" s="504"/>
+      <c r="AA54" s="506"/>
+      <c r="AB54" s="506"/>
+      <c r="AC54" s="506"/>
+      <c r="AD54" s="506"/>
+      <c r="AE54" s="506"/>
+      <c r="AF54" s="506"/>
+      <c r="AG54" s="523"/>
     </row>
     <row r="55" s="5" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A55" s="134">
         <v>5</v>
       </c>
       <c r="B55" s="387">
-        <v>43525</v>
+        <v>43739</v>
       </c>
       <c r="C55" s="388"/>
       <c r="D55" s="389"/>
       <c r="E55" s="368">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F55" s="368">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G55" s="369" t="s">
         <v>128</v>
@@ -8703,45 +8804,43 @@
       </c>
       <c r="I55" s="406"/>
       <c r="J55" s="407"/>
-      <c r="K55" s="423" t="s">
-        <v>130</v>
+      <c r="K55" s="425" t="s">
+        <v>156</v>
       </c>
       <c r="L55" s="409"/>
       <c r="M55" s="409"/>
       <c r="N55" s="409"/>
       <c r="O55" s="409"/>
       <c r="P55" s="409"/>
-      <c r="Q55" s="453"/>
-      <c r="R55" s="474" t="s">
+      <c r="Q55" s="456"/>
+      <c r="R55" s="476" t="s">
         <v>131</v>
       </c>
-      <c r="S55" s="475"/>
-      <c r="T55" s="476"/>
-      <c r="U55" s="454" t="s">
-        <v>156</v>
-      </c>
-      <c r="V55" s="455"/>
-      <c r="W55" s="456"/>
-      <c r="X55" s="457" t="s">
+      <c r="S55" s="477"/>
+      <c r="T55" s="478"/>
+      <c r="U55" s="457" t="s">
+        <v>157</v>
+      </c>
+      <c r="V55" s="458"/>
+      <c r="W55" s="459"/>
+      <c r="X55" s="460" t="s">
         <v>132</v>
       </c>
-      <c r="Y55" s="494"/>
-      <c r="Z55" s="495"/>
-      <c r="AA55" s="504" t="s">
+      <c r="Y55" s="496"/>
+      <c r="Z55" s="497"/>
+      <c r="AA55" s="506"/>
+      <c r="AB55" s="506"/>
+      <c r="AC55" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AB55" s="504" t="s">
+      <c r="AD55" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AC55" s="504" t="s">
+      <c r="AE55" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="504" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE55" s="504"/>
-      <c r="AF55" s="504"/>
-      <c r="AG55" s="518"/>
+      <c r="AF55" s="506"/>
+      <c r="AG55" s="520"/>
     </row>
     <row r="56" s="5" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A56" s="119"/>
@@ -8759,39 +8858,39 @@
       <c r="I56" s="410"/>
       <c r="J56" s="411"/>
       <c r="K56" s="412" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L56" s="413"/>
       <c r="M56" s="413"/>
       <c r="N56" s="413"/>
       <c r="O56" s="413"/>
       <c r="P56" s="413"/>
-      <c r="Q56" s="458"/>
+      <c r="Q56" s="461"/>
       <c r="R56" s="393" t="s">
         <v>136</v>
       </c>
       <c r="S56" s="410"/>
       <c r="T56" s="411"/>
-      <c r="U56" s="459" t="s">
-        <v>158</v>
-      </c>
-      <c r="V56" s="460"/>
-      <c r="W56" s="461"/>
-      <c r="X56" s="462"/>
-      <c r="Y56" s="497"/>
-      <c r="Z56" s="498"/>
-      <c r="AA56" s="504"/>
-      <c r="AB56" s="504"/>
-      <c r="AC56" s="504"/>
-      <c r="AD56" s="504"/>
-      <c r="AE56" s="504"/>
-      <c r="AF56" s="504"/>
-      <c r="AG56" s="519"/>
+      <c r="U56" s="462" t="s">
+        <v>159</v>
+      </c>
+      <c r="V56" s="463"/>
+      <c r="W56" s="464"/>
+      <c r="X56" s="465"/>
+      <c r="Y56" s="499"/>
+      <c r="Z56" s="500"/>
+      <c r="AA56" s="506"/>
+      <c r="AB56" s="506"/>
+      <c r="AC56" s="506"/>
+      <c r="AD56" s="506"/>
+      <c r="AE56" s="506"/>
+      <c r="AF56" s="506"/>
+      <c r="AG56" s="521"/>
     </row>
     <row r="57" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A57" s="119"/>
       <c r="B57" s="390">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="C57" s="391"/>
       <c r="D57" s="392"/>
@@ -8803,37 +8902,37 @@
       </c>
       <c r="I57" s="414"/>
       <c r="J57" s="415"/>
-      <c r="K57" s="424" t="s">
-        <v>159</v>
+      <c r="K57" s="416" t="s">
+        <v>160</v>
       </c>
       <c r="L57" s="417"/>
       <c r="M57" s="417"/>
       <c r="N57" s="417"/>
       <c r="O57" s="417"/>
       <c r="P57" s="417"/>
-      <c r="Q57" s="463"/>
+      <c r="Q57" s="466"/>
       <c r="R57" s="393" t="s">
         <v>140</v>
       </c>
       <c r="S57" s="410"/>
       <c r="T57" s="411"/>
-      <c r="U57" s="459" t="s">
-        <v>75</v>
-      </c>
-      <c r="V57" s="460"/>
-      <c r="W57" s="461"/>
-      <c r="X57" s="465"/>
-      <c r="Y57" s="500"/>
-      <c r="Z57" s="498"/>
-      <c r="AA57" s="504"/>
-      <c r="AB57" s="504"/>
-      <c r="AC57" s="504"/>
-      <c r="AD57" s="504"/>
-      <c r="AE57" s="504"/>
-      <c r="AF57" s="504"/>
-      <c r="AG57" s="519"/>
-    </row>
-    <row r="58" s="5" customFormat="1" ht="65" customHeight="1" spans="1:33">
+      <c r="U57" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V57" s="463"/>
+      <c r="W57" s="464"/>
+      <c r="X57" s="467"/>
+      <c r="Y57" s="502"/>
+      <c r="Z57" s="500"/>
+      <c r="AA57" s="506"/>
+      <c r="AB57" s="506"/>
+      <c r="AC57" s="506"/>
+      <c r="AD57" s="506"/>
+      <c r="AE57" s="506"/>
+      <c r="AF57" s="506"/>
+      <c r="AG57" s="521"/>
+    </row>
+    <row r="58" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A58" s="144"/>
       <c r="B58" s="381"/>
       <c r="C58" s="382"/>
@@ -8850,42 +8949,42 @@
       <c r="N58" s="421"/>
       <c r="O58" s="421"/>
       <c r="P58" s="421"/>
-      <c r="Q58" s="466"/>
-      <c r="R58" s="477" t="s">
-        <v>145</v>
-      </c>
-      <c r="S58" s="468"/>
-      <c r="T58" s="469"/>
-      <c r="U58" s="470" t="s">
-        <v>89</v>
-      </c>
-      <c r="V58" s="471"/>
-      <c r="W58" s="472"/>
-      <c r="X58" s="473"/>
-      <c r="Y58" s="501"/>
-      <c r="Z58" s="502"/>
-      <c r="AA58" s="504"/>
-      <c r="AB58" s="504"/>
-      <c r="AC58" s="504"/>
-      <c r="AD58" s="504"/>
-      <c r="AE58" s="504"/>
-      <c r="AF58" s="504"/>
-      <c r="AG58" s="520"/>
+      <c r="Q58" s="468"/>
+      <c r="R58" s="479" t="s">
+        <v>147</v>
+      </c>
+      <c r="S58" s="470"/>
+      <c r="T58" s="471"/>
+      <c r="U58" s="472" t="s">
+        <v>161</v>
+      </c>
+      <c r="V58" s="473"/>
+      <c r="W58" s="474"/>
+      <c r="X58" s="475"/>
+      <c r="Y58" s="503"/>
+      <c r="Z58" s="504"/>
+      <c r="AA58" s="506"/>
+      <c r="AB58" s="506"/>
+      <c r="AC58" s="506"/>
+      <c r="AD58" s="506"/>
+      <c r="AE58" s="506"/>
+      <c r="AF58" s="506"/>
+      <c r="AG58" s="522"/>
     </row>
     <row r="59" s="5" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A59" s="134">
         <v>6</v>
       </c>
       <c r="B59" s="394">
-        <v>43831</v>
+        <v>43723</v>
       </c>
       <c r="C59" s="395"/>
       <c r="D59" s="396"/>
       <c r="E59" s="368">
+        <v>1</v>
+      </c>
+      <c r="F59" s="368">
         <v>6</v>
-      </c>
-      <c r="F59" s="368">
-        <v>3</v>
       </c>
       <c r="G59" s="369" t="s">
         <v>128</v>
@@ -8896,7 +8995,7 @@
       <c r="I59" s="187"/>
       <c r="J59" s="188"/>
       <c r="K59" s="189" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="L59" s="190"/>
       <c r="M59" s="190"/>
@@ -8909,33 +9008,29 @@
       </c>
       <c r="S59" s="248"/>
       <c r="T59" s="249"/>
-      <c r="U59" s="454" t="s">
-        <v>160</v>
-      </c>
-      <c r="V59" s="455"/>
-      <c r="W59" s="456"/>
-      <c r="X59" s="457" t="s">
+      <c r="U59" s="457" t="s">
+        <v>34</v>
+      </c>
+      <c r="V59" s="458"/>
+      <c r="W59" s="459"/>
+      <c r="X59" s="460" t="s">
         <v>132</v>
       </c>
-      <c r="Y59" s="494"/>
-      <c r="Z59" s="495"/>
-      <c r="AA59" s="504" t="s">
+      <c r="Y59" s="496"/>
+      <c r="Z59" s="497"/>
+      <c r="AA59" s="506"/>
+      <c r="AB59" s="506"/>
+      <c r="AC59" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AB59" s="504" t="s">
+      <c r="AD59" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AC59" s="504" t="s">
+      <c r="AE59" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="AD59" s="504" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE59" s="504" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF59" s="496"/>
-      <c r="AG59" s="518"/>
+      <c r="AF59" s="498"/>
+      <c r="AG59" s="520"/>
     </row>
     <row r="60" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A60" s="119"/>
@@ -8953,7 +9048,7 @@
       <c r="I60" s="175"/>
       <c r="J60" s="176"/>
       <c r="K60" s="177" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L60" s="178"/>
       <c r="M60" s="178"/>
@@ -8966,26 +9061,26 @@
       </c>
       <c r="S60" s="175"/>
       <c r="T60" s="176"/>
-      <c r="U60" s="459" t="s">
-        <v>162</v>
-      </c>
-      <c r="V60" s="460"/>
-      <c r="W60" s="461"/>
-      <c r="X60" s="462"/>
-      <c r="Y60" s="497"/>
-      <c r="Z60" s="498"/>
-      <c r="AA60" s="504"/>
-      <c r="AB60" s="504"/>
-      <c r="AC60" s="504"/>
-      <c r="AD60" s="504"/>
-      <c r="AE60" s="504"/>
-      <c r="AF60" s="499"/>
-      <c r="AG60" s="519"/>
+      <c r="U60" s="462" t="s">
+        <v>163</v>
+      </c>
+      <c r="V60" s="463"/>
+      <c r="W60" s="464"/>
+      <c r="X60" s="465"/>
+      <c r="Y60" s="499"/>
+      <c r="Z60" s="500"/>
+      <c r="AA60" s="506"/>
+      <c r="AB60" s="506"/>
+      <c r="AC60" s="506"/>
+      <c r="AD60" s="506"/>
+      <c r="AE60" s="506"/>
+      <c r="AF60" s="501"/>
+      <c r="AG60" s="521"/>
     </row>
     <row r="61" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A61" s="119"/>
       <c r="B61" s="390">
-        <v>43955</v>
+        <v>43753</v>
       </c>
       <c r="C61" s="391"/>
       <c r="D61" s="392"/>
@@ -8997,8 +9092,8 @@
       </c>
       <c r="I61" s="179"/>
       <c r="J61" s="180"/>
-      <c r="K61" s="191" t="s">
-        <v>163</v>
+      <c r="K61" s="426" t="s">
+        <v>164</v>
       </c>
       <c r="L61" s="182"/>
       <c r="M61" s="182"/>
@@ -9011,23 +9106,23 @@
       </c>
       <c r="S61" s="175"/>
       <c r="T61" s="176"/>
-      <c r="U61" s="459" t="s">
-        <v>164</v>
-      </c>
-      <c r="V61" s="460"/>
-      <c r="W61" s="461"/>
-      <c r="X61" s="465"/>
-      <c r="Y61" s="500"/>
-      <c r="Z61" s="498"/>
-      <c r="AA61" s="504"/>
-      <c r="AB61" s="504"/>
-      <c r="AC61" s="504"/>
-      <c r="AD61" s="504"/>
-      <c r="AE61" s="504"/>
-      <c r="AF61" s="499"/>
-      <c r="AG61" s="519"/>
-    </row>
-    <row r="62" s="5" customFormat="1" ht="67" customHeight="1" spans="1:33">
+      <c r="U61" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V61" s="463"/>
+      <c r="W61" s="464"/>
+      <c r="X61" s="467"/>
+      <c r="Y61" s="502"/>
+      <c r="Z61" s="500"/>
+      <c r="AA61" s="506"/>
+      <c r="AB61" s="506"/>
+      <c r="AC61" s="506"/>
+      <c r="AD61" s="506"/>
+      <c r="AE61" s="506"/>
+      <c r="AF61" s="501"/>
+      <c r="AG61" s="521"/>
+    </row>
+    <row r="62" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A62" s="144"/>
       <c r="B62" s="397"/>
       <c r="C62" s="398"/>
@@ -9046,40 +9141,40 @@
       <c r="P62" s="195"/>
       <c r="Q62" s="254"/>
       <c r="R62" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S62" s="256"/>
       <c r="T62" s="257"/>
-      <c r="U62" s="470" t="s">
+      <c r="U62" s="472" t="s">
         <v>165</v>
       </c>
-      <c r="V62" s="471"/>
-      <c r="W62" s="472"/>
-      <c r="X62" s="473"/>
-      <c r="Y62" s="501"/>
-      <c r="Z62" s="502"/>
-      <c r="AA62" s="504"/>
-      <c r="AB62" s="504"/>
-      <c r="AC62" s="504"/>
-      <c r="AD62" s="504"/>
-      <c r="AE62" s="504"/>
-      <c r="AF62" s="503"/>
-      <c r="AG62" s="520"/>
+      <c r="V62" s="473"/>
+      <c r="W62" s="474"/>
+      <c r="X62" s="475"/>
+      <c r="Y62" s="503"/>
+      <c r="Z62" s="504"/>
+      <c r="AA62" s="506"/>
+      <c r="AB62" s="506"/>
+      <c r="AC62" s="506"/>
+      <c r="AD62" s="506"/>
+      <c r="AE62" s="506"/>
+      <c r="AF62" s="505"/>
+      <c r="AG62" s="522"/>
     </row>
     <row r="63" s="5" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A63" s="134">
         <v>7</v>
       </c>
       <c r="B63" s="394">
-        <v>43952</v>
+        <v>43678</v>
       </c>
       <c r="C63" s="395"/>
       <c r="D63" s="396"/>
       <c r="E63" s="368">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F63" s="368">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G63" s="369" t="s">
         <v>128</v>
@@ -9089,8 +9184,8 @@
       </c>
       <c r="I63" s="187"/>
       <c r="J63" s="188"/>
-      <c r="K63" s="189" t="s">
-        <v>130</v>
+      <c r="K63" s="427" t="s">
+        <v>166</v>
       </c>
       <c r="L63" s="190"/>
       <c r="M63" s="190"/>
@@ -9103,31 +9198,29 @@
       </c>
       <c r="S63" s="248"/>
       <c r="T63" s="249"/>
-      <c r="U63" s="454" t="s">
+      <c r="U63" s="457" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="455"/>
-      <c r="W63" s="456"/>
-      <c r="X63" s="457" t="s">
+      <c r="V63" s="458"/>
+      <c r="W63" s="459"/>
+      <c r="X63" s="460" t="s">
         <v>132</v>
       </c>
-      <c r="Y63" s="494"/>
-      <c r="Z63" s="495"/>
-      <c r="AA63" s="504"/>
-      <c r="AB63" s="496" t="s">
+      <c r="Y63" s="496"/>
+      <c r="Z63" s="497"/>
+      <c r="AA63" s="506"/>
+      <c r="AB63" s="498"/>
+      <c r="AC63" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="AC63" s="496" t="s">
+      <c r="AD63" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="AD63" s="496" t="s">
+      <c r="AE63" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="AE63" s="496" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF63" s="496"/>
-      <c r="AG63" s="518"/>
+      <c r="AF63" s="498"/>
+      <c r="AG63" s="520"/>
     </row>
     <row r="64" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A64" s="119"/>
@@ -9144,8 +9237,8 @@
       </c>
       <c r="I64" s="175"/>
       <c r="J64" s="176"/>
-      <c r="K64" s="425" t="s">
-        <v>166</v>
+      <c r="K64" s="428" t="s">
+        <v>167</v>
       </c>
       <c r="L64" s="178"/>
       <c r="M64" s="178"/>
@@ -9158,26 +9251,26 @@
       </c>
       <c r="S64" s="175"/>
       <c r="T64" s="176"/>
-      <c r="U64" s="459" t="s">
-        <v>167</v>
-      </c>
-      <c r="V64" s="460"/>
-      <c r="W64" s="461"/>
-      <c r="X64" s="462"/>
-      <c r="Y64" s="497"/>
-      <c r="Z64" s="498"/>
-      <c r="AA64" s="504"/>
-      <c r="AB64" s="499"/>
-      <c r="AC64" s="499"/>
-      <c r="AD64" s="499"/>
-      <c r="AE64" s="499"/>
-      <c r="AF64" s="499"/>
-      <c r="AG64" s="519"/>
+      <c r="U64" s="462" t="s">
+        <v>168</v>
+      </c>
+      <c r="V64" s="463"/>
+      <c r="W64" s="464"/>
+      <c r="X64" s="465"/>
+      <c r="Y64" s="499"/>
+      <c r="Z64" s="500"/>
+      <c r="AA64" s="506"/>
+      <c r="AB64" s="501"/>
+      <c r="AC64" s="501"/>
+      <c r="AD64" s="501"/>
+      <c r="AE64" s="501"/>
+      <c r="AF64" s="501"/>
+      <c r="AG64" s="521"/>
     </row>
     <row r="65" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A65" s="119"/>
       <c r="B65" s="390">
-        <v>44104</v>
+        <v>43738</v>
       </c>
       <c r="C65" s="391"/>
       <c r="D65" s="392"/>
@@ -9189,8 +9282,8 @@
       </c>
       <c r="I65" s="179"/>
       <c r="J65" s="180"/>
-      <c r="K65" s="191" t="s">
-        <v>168</v>
+      <c r="K65" s="426" t="s">
+        <v>169</v>
       </c>
       <c r="L65" s="182"/>
       <c r="M65" s="182"/>
@@ -9203,23 +9296,23 @@
       </c>
       <c r="S65" s="175"/>
       <c r="T65" s="176"/>
-      <c r="U65" s="459" t="s">
-        <v>169</v>
-      </c>
-      <c r="V65" s="460"/>
-      <c r="W65" s="461"/>
-      <c r="X65" s="465"/>
-      <c r="Y65" s="500"/>
-      <c r="Z65" s="498"/>
-      <c r="AA65" s="504"/>
-      <c r="AB65" s="499"/>
-      <c r="AC65" s="499"/>
-      <c r="AD65" s="499"/>
-      <c r="AE65" s="499"/>
-      <c r="AF65" s="499"/>
-      <c r="AG65" s="519"/>
-    </row>
-    <row r="66" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
+      <c r="U65" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V65" s="463"/>
+      <c r="W65" s="464"/>
+      <c r="X65" s="467"/>
+      <c r="Y65" s="502"/>
+      <c r="Z65" s="500"/>
+      <c r="AA65" s="506"/>
+      <c r="AB65" s="501"/>
+      <c r="AC65" s="501"/>
+      <c r="AD65" s="501"/>
+      <c r="AE65" s="501"/>
+      <c r="AF65" s="501"/>
+      <c r="AG65" s="521"/>
+    </row>
+    <row r="66" s="5" customFormat="1" ht="34" customHeight="1" spans="1:33">
       <c r="A66" s="144"/>
       <c r="B66" s="397"/>
       <c r="C66" s="398"/>
@@ -9238,37 +9331,37 @@
       <c r="P66" s="195"/>
       <c r="Q66" s="254"/>
       <c r="R66" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S66" s="256"/>
       <c r="T66" s="257"/>
-      <c r="U66" s="470" t="s">
-        <v>89</v>
-      </c>
-      <c r="V66" s="471"/>
-      <c r="W66" s="472"/>
-      <c r="X66" s="473"/>
-      <c r="Y66" s="501"/>
-      <c r="Z66" s="502"/>
-      <c r="AA66" s="504"/>
-      <c r="AB66" s="503"/>
-      <c r="AC66" s="503"/>
-      <c r="AD66" s="503"/>
-      <c r="AE66" s="503"/>
-      <c r="AF66" s="503"/>
-      <c r="AG66" s="520"/>
+      <c r="U66" s="525" t="s">
+        <v>170</v>
+      </c>
+      <c r="V66" s="473"/>
+      <c r="W66" s="474"/>
+      <c r="X66" s="475"/>
+      <c r="Y66" s="503"/>
+      <c r="Z66" s="504"/>
+      <c r="AA66" s="506"/>
+      <c r="AB66" s="505"/>
+      <c r="AC66" s="505"/>
+      <c r="AD66" s="505"/>
+      <c r="AE66" s="505"/>
+      <c r="AF66" s="505"/>
+      <c r="AG66" s="522"/>
     </row>
     <row r="67" s="5" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A67" s="134">
         <v>8</v>
       </c>
       <c r="B67" s="394">
-        <v>44105</v>
+        <v>43282</v>
       </c>
       <c r="C67" s="395"/>
       <c r="D67" s="396"/>
       <c r="E67" s="368">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F67" s="368">
         <v>15</v>
@@ -9282,7 +9375,7 @@
       <c r="I67" s="187"/>
       <c r="J67" s="188"/>
       <c r="K67" s="189" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="L67" s="190"/>
       <c r="M67" s="190"/>
@@ -9295,29 +9388,31 @@
       </c>
       <c r="S67" s="248"/>
       <c r="T67" s="249"/>
-      <c r="U67" s="522" t="s">
+      <c r="U67" s="526" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="523"/>
-      <c r="W67" s="524"/>
-      <c r="X67" s="525"/>
-      <c r="Y67" s="527"/>
-      <c r="Z67" s="498"/>
-      <c r="AA67" s="504" t="s">
+      <c r="V67" s="527"/>
+      <c r="W67" s="528"/>
+      <c r="X67" s="529" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y67" s="531"/>
+      <c r="Z67" s="500"/>
+      <c r="AA67" s="506"/>
+      <c r="AB67" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="AB67" s="496" t="s">
+      <c r="AC67" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="AC67" s="496" t="s">
+      <c r="AD67" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="AD67" s="496" t="s">
+      <c r="AE67" s="498" t="s">
         <v>35</v>
       </c>
-      <c r="AE67" s="496"/>
-      <c r="AF67" s="499"/>
-      <c r="AG67" s="519"/>
+      <c r="AF67" s="501"/>
+      <c r="AG67" s="521"/>
     </row>
     <row r="68" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A68" s="119"/>
@@ -9334,8 +9429,8 @@
       </c>
       <c r="I68" s="175"/>
       <c r="J68" s="176"/>
-      <c r="K68" s="177" t="s">
-        <v>170</v>
+      <c r="K68" s="428" t="s">
+        <v>171</v>
       </c>
       <c r="L68" s="178"/>
       <c r="M68" s="178"/>
@@ -9348,26 +9443,26 @@
       </c>
       <c r="S68" s="175"/>
       <c r="T68" s="176"/>
-      <c r="U68" s="459" t="s">
-        <v>171</v>
-      </c>
-      <c r="V68" s="460"/>
-      <c r="W68" s="461"/>
-      <c r="X68" s="462"/>
-      <c r="Y68" s="497"/>
-      <c r="Z68" s="498"/>
-      <c r="AA68" s="504"/>
-      <c r="AB68" s="499"/>
-      <c r="AC68" s="499"/>
-      <c r="AD68" s="499"/>
-      <c r="AE68" s="499"/>
-      <c r="AF68" s="499"/>
-      <c r="AG68" s="519"/>
+      <c r="U68" s="462" t="s">
+        <v>145</v>
+      </c>
+      <c r="V68" s="463"/>
+      <c r="W68" s="464"/>
+      <c r="X68" s="465"/>
+      <c r="Y68" s="499"/>
+      <c r="Z68" s="500"/>
+      <c r="AA68" s="506"/>
+      <c r="AB68" s="501"/>
+      <c r="AC68" s="501"/>
+      <c r="AD68" s="501"/>
+      <c r="AE68" s="501"/>
+      <c r="AF68" s="501"/>
+      <c r="AG68" s="521"/>
     </row>
     <row r="69" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A69" s="119"/>
       <c r="B69" s="126">
-        <v>44316</v>
+        <v>43434</v>
       </c>
       <c r="C69" s="127"/>
       <c r="D69" s="128"/>
@@ -9379,7 +9474,7 @@
       </c>
       <c r="I69" s="179"/>
       <c r="J69" s="180"/>
-      <c r="K69" s="191" t="s">
+      <c r="K69" s="426" t="s">
         <v>172</v>
       </c>
       <c r="L69" s="182"/>
@@ -9393,23 +9488,23 @@
       </c>
       <c r="S69" s="175"/>
       <c r="T69" s="176"/>
-      <c r="U69" s="459" t="s">
-        <v>76</v>
-      </c>
-      <c r="V69" s="460"/>
-      <c r="W69" s="461"/>
-      <c r="X69" s="465"/>
-      <c r="Y69" s="500"/>
-      <c r="Z69" s="498"/>
-      <c r="AA69" s="504"/>
-      <c r="AB69" s="499"/>
-      <c r="AC69" s="499"/>
-      <c r="AD69" s="499"/>
-      <c r="AE69" s="499"/>
-      <c r="AF69" s="499"/>
-      <c r="AG69" s="519"/>
-    </row>
-    <row r="70" s="5" customFormat="1" ht="53" customHeight="1" spans="1:33">
+      <c r="U69" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V69" s="463"/>
+      <c r="W69" s="464"/>
+      <c r="X69" s="467"/>
+      <c r="Y69" s="502"/>
+      <c r="Z69" s="500"/>
+      <c r="AA69" s="506"/>
+      <c r="AB69" s="501"/>
+      <c r="AC69" s="501"/>
+      <c r="AD69" s="501"/>
+      <c r="AE69" s="501"/>
+      <c r="AF69" s="501"/>
+      <c r="AG69" s="521"/>
+    </row>
+    <row r="70" s="5" customFormat="1" ht="22" customHeight="1" spans="1:33">
       <c r="A70" s="144"/>
       <c r="B70" s="397"/>
       <c r="C70" s="398"/>
@@ -9428,45 +9523,50 @@
       <c r="P70" s="195"/>
       <c r="Q70" s="254"/>
       <c r="R70" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S70" s="256"/>
       <c r="T70" s="257"/>
-      <c r="U70" s="470" t="s">
-        <v>173</v>
-      </c>
-      <c r="V70" s="471"/>
-      <c r="W70" s="472"/>
-      <c r="X70" s="473"/>
-      <c r="Y70" s="501"/>
-      <c r="Z70" s="502"/>
-      <c r="AA70" s="504"/>
-      <c r="AB70" s="503"/>
-      <c r="AC70" s="503"/>
-      <c r="AD70" s="503"/>
-      <c r="AE70" s="503"/>
-      <c r="AF70" s="503"/>
-      <c r="AG70" s="520"/>
+      <c r="U70" s="472" t="s">
+        <v>148</v>
+      </c>
+      <c r="V70" s="473"/>
+      <c r="W70" s="474"/>
+      <c r="X70" s="475"/>
+      <c r="Y70" s="503"/>
+      <c r="Z70" s="504"/>
+      <c r="AA70" s="506"/>
+      <c r="AB70" s="505"/>
+      <c r="AC70" s="505"/>
+      <c r="AD70" s="505"/>
+      <c r="AE70" s="505"/>
+      <c r="AF70" s="505"/>
+      <c r="AG70" s="522"/>
     </row>
     <row r="71" s="5" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A71" s="134">
         <v>9</v>
       </c>
-      <c r="B71" s="394"/>
+      <c r="B71" s="394">
+        <v>43146</v>
+      </c>
       <c r="C71" s="395"/>
       <c r="D71" s="396"/>
-      <c r="E71" s="138" t="str">
-        <f ca="1">IF(AND(B71&lt;&gt;"",B73&lt;&gt;""),DATEDIF(B71,B73,"M")+1,IF(AND(B71&lt;&gt;"",B73=""),DATEDIF(B71,TODAY(),"M")+1,""))</f>
-        <v/>
-      </c>
-      <c r="F71" s="138"/>
+      <c r="E71" s="368">
+        <v>4</v>
+      </c>
+      <c r="F71" s="368">
+        <v>8</v>
+      </c>
       <c r="G71" s="139"/>
       <c r="H71" s="140" t="s">
         <v>129</v>
       </c>
       <c r="I71" s="187"/>
       <c r="J71" s="188"/>
-      <c r="K71" s="189"/>
+      <c r="K71" s="427" t="s">
+        <v>173</v>
+      </c>
       <c r="L71" s="190"/>
       <c r="M71" s="190"/>
       <c r="N71" s="190"/>
@@ -9478,36 +9578,50 @@
       </c>
       <c r="S71" s="248"/>
       <c r="T71" s="249"/>
-      <c r="U71" s="250"/>
-      <c r="V71" s="251"/>
-      <c r="W71" s="252"/>
-      <c r="X71" s="526"/>
-      <c r="Y71" s="528"/>
+      <c r="U71" s="526" t="s">
+        <v>34</v>
+      </c>
+      <c r="V71" s="527"/>
+      <c r="W71" s="528"/>
+      <c r="X71" s="530" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y71" s="532"/>
       <c r="Z71" s="286"/>
       <c r="AA71" s="287"/>
-      <c r="AB71" s="287"/>
-      <c r="AC71" s="287"/>
-      <c r="AD71" s="287"/>
-      <c r="AE71" s="287"/>
+      <c r="AB71" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC71" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD71" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE71" s="498" t="s">
+        <v>35</v>
+      </c>
       <c r="AF71" s="287"/>
       <c r="AG71" s="313"/>
     </row>
     <row r="72" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A72" s="119"/>
-      <c r="B72" s="141" t="s">
+      <c r="B72" s="524" t="s">
         <v>133</v>
       </c>
       <c r="C72" s="142"/>
       <c r="D72" s="143"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="123"/>
+      <c r="E72" s="374"/>
+      <c r="F72" s="374"/>
       <c r="G72" s="124"/>
       <c r="H72" s="125" t="s">
         <v>151</v>
       </c>
       <c r="I72" s="175"/>
       <c r="J72" s="176"/>
-      <c r="K72" s="177"/>
+      <c r="K72" s="428" t="s">
+        <v>175</v>
+      </c>
       <c r="L72" s="178"/>
       <c r="M72" s="178"/>
       <c r="N72" s="178"/>
@@ -9519,34 +9633,40 @@
       </c>
       <c r="S72" s="175"/>
       <c r="T72" s="176"/>
-      <c r="U72" s="236"/>
-      <c r="V72" s="237"/>
-      <c r="W72" s="238"/>
+      <c r="U72" s="462" t="s">
+        <v>145</v>
+      </c>
+      <c r="V72" s="463"/>
+      <c r="W72" s="464"/>
       <c r="X72" s="120"/>
       <c r="Y72" s="122"/>
       <c r="Z72" s="281"/>
       <c r="AA72" s="282"/>
-      <c r="AB72" s="282"/>
-      <c r="AC72" s="282"/>
-      <c r="AD72" s="282"/>
-      <c r="AE72" s="282"/>
+      <c r="AB72" s="501"/>
+      <c r="AC72" s="501"/>
+      <c r="AD72" s="501"/>
+      <c r="AE72" s="501"/>
       <c r="AF72" s="282"/>
       <c r="AG72" s="312"/>
     </row>
     <row r="73" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A73" s="119"/>
-      <c r="B73" s="126"/>
+      <c r="B73" s="126">
+        <v>43252</v>
+      </c>
       <c r="C73" s="127"/>
       <c r="D73" s="128"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
+      <c r="E73" s="374"/>
+      <c r="F73" s="374"/>
       <c r="G73" s="124"/>
       <c r="H73" s="129" t="s">
         <v>138</v>
       </c>
       <c r="I73" s="179"/>
       <c r="J73" s="180"/>
-      <c r="K73" s="191"/>
+      <c r="K73" s="426" t="s">
+        <v>176</v>
+      </c>
       <c r="L73" s="182"/>
       <c r="M73" s="182"/>
       <c r="N73" s="182"/>
@@ -9558,17 +9678,21 @@
       </c>
       <c r="S73" s="175"/>
       <c r="T73" s="176"/>
-      <c r="U73" s="236"/>
-      <c r="V73" s="237"/>
-      <c r="W73" s="238"/>
-      <c r="X73" s="240"/>
+      <c r="U73" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V73" s="463"/>
+      <c r="W73" s="464"/>
+      <c r="X73" s="240">
+        <v>2</v>
+      </c>
       <c r="Y73" s="283"/>
       <c r="Z73" s="281"/>
       <c r="AA73" s="282"/>
-      <c r="AB73" s="282"/>
-      <c r="AC73" s="282"/>
-      <c r="AD73" s="282"/>
-      <c r="AE73" s="282"/>
+      <c r="AB73" s="501"/>
+      <c r="AC73" s="501"/>
+      <c r="AD73" s="501"/>
+      <c r="AE73" s="501"/>
       <c r="AF73" s="282"/>
       <c r="AG73" s="312"/>
     </row>
@@ -9577,8 +9701,8 @@
       <c r="B74" s="397"/>
       <c r="C74" s="398"/>
       <c r="D74" s="399"/>
-      <c r="E74" s="145"/>
-      <c r="F74" s="145"/>
+      <c r="E74" s="384"/>
+      <c r="F74" s="384"/>
       <c r="G74" s="146"/>
       <c r="H74" s="147"/>
       <c r="I74" s="192"/>
@@ -9591,21 +9715,23 @@
       <c r="P74" s="195"/>
       <c r="Q74" s="254"/>
       <c r="R74" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S74" s="256"/>
       <c r="T74" s="257"/>
-      <c r="U74" s="242"/>
-      <c r="V74" s="243"/>
-      <c r="W74" s="244"/>
+      <c r="U74" s="472" t="s">
+        <v>148</v>
+      </c>
+      <c r="V74" s="473"/>
+      <c r="W74" s="474"/>
       <c r="X74" s="245"/>
       <c r="Y74" s="284"/>
       <c r="Z74" s="288"/>
       <c r="AA74" s="289"/>
-      <c r="AB74" s="289"/>
-      <c r="AC74" s="289"/>
-      <c r="AD74" s="289"/>
-      <c r="AE74" s="289"/>
+      <c r="AB74" s="505"/>
+      <c r="AC74" s="505"/>
+      <c r="AD74" s="505"/>
+      <c r="AE74" s="505"/>
       <c r="AF74" s="289"/>
       <c r="AG74" s="314"/>
     </row>
@@ -9613,21 +9739,26 @@
       <c r="A75" s="134">
         <v>10</v>
       </c>
-      <c r="B75" s="394"/>
+      <c r="B75" s="394">
+        <v>43115</v>
+      </c>
       <c r="C75" s="395"/>
       <c r="D75" s="396"/>
-      <c r="E75" s="138" t="str">
-        <f ca="1">IF(AND(B75&lt;&gt;"",B77&lt;&gt;""),DATEDIF(B75,B77,"M")+1,IF(AND(B75&lt;&gt;"",B77=""),DATEDIF(B75,TODAY(),"M")+1,""))</f>
-        <v/>
-      </c>
-      <c r="F75" s="138"/>
+      <c r="E75" s="368">
+        <v>1</v>
+      </c>
+      <c r="F75" s="368">
+        <v>4</v>
+      </c>
       <c r="G75" s="139"/>
       <c r="H75" s="140" t="s">
         <v>129</v>
       </c>
       <c r="I75" s="187"/>
       <c r="J75" s="188"/>
-      <c r="K75" s="189"/>
+      <c r="K75" s="189" t="s">
+        <v>177</v>
+      </c>
       <c r="L75" s="190"/>
       <c r="M75" s="190"/>
       <c r="N75" s="190"/>
@@ -9639,36 +9770,50 @@
       </c>
       <c r="S75" s="248"/>
       <c r="T75" s="249"/>
-      <c r="U75" s="250"/>
-      <c r="V75" s="251"/>
-      <c r="W75" s="252"/>
-      <c r="X75" s="526"/>
-      <c r="Y75" s="528"/>
+      <c r="U75" s="526" t="s">
+        <v>34</v>
+      </c>
+      <c r="V75" s="527"/>
+      <c r="W75" s="528"/>
+      <c r="X75" s="530" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y75" s="532"/>
       <c r="Z75" s="286"/>
       <c r="AA75" s="287"/>
-      <c r="AB75" s="287"/>
-      <c r="AC75" s="287"/>
-      <c r="AD75" s="287"/>
-      <c r="AE75" s="287"/>
+      <c r="AB75" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC75" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD75" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE75" s="498" t="s">
+        <v>35</v>
+      </c>
       <c r="AF75" s="287"/>
       <c r="AG75" s="313"/>
     </row>
     <row r="76" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A76" s="119"/>
-      <c r="B76" s="141" t="s">
+      <c r="B76" s="524" t="s">
         <v>133</v>
       </c>
       <c r="C76" s="142"/>
       <c r="D76" s="143"/>
-      <c r="E76" s="123"/>
-      <c r="F76" s="123"/>
+      <c r="E76" s="374"/>
+      <c r="F76" s="374"/>
       <c r="G76" s="124"/>
       <c r="H76" s="125" t="s">
         <v>151</v>
       </c>
       <c r="I76" s="175"/>
       <c r="J76" s="176"/>
-      <c r="K76" s="177"/>
+      <c r="K76" s="428" t="s">
+        <v>178</v>
+      </c>
       <c r="L76" s="178"/>
       <c r="M76" s="178"/>
       <c r="N76" s="178"/>
@@ -9680,34 +9825,40 @@
       </c>
       <c r="S76" s="175"/>
       <c r="T76" s="176"/>
-      <c r="U76" s="236"/>
-      <c r="V76" s="237"/>
-      <c r="W76" s="238"/>
+      <c r="U76" s="462" t="s">
+        <v>145</v>
+      </c>
+      <c r="V76" s="463"/>
+      <c r="W76" s="464"/>
       <c r="X76" s="120"/>
       <c r="Y76" s="122"/>
       <c r="Z76" s="281"/>
       <c r="AA76" s="282"/>
-      <c r="AB76" s="282"/>
-      <c r="AC76" s="282"/>
-      <c r="AD76" s="282"/>
-      <c r="AE76" s="282"/>
+      <c r="AB76" s="501"/>
+      <c r="AC76" s="501"/>
+      <c r="AD76" s="501"/>
+      <c r="AE76" s="501"/>
       <c r="AF76" s="282"/>
       <c r="AG76" s="312"/>
     </row>
     <row r="77" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A77" s="119"/>
-      <c r="B77" s="126"/>
+      <c r="B77" s="126">
+        <v>43130</v>
+      </c>
       <c r="C77" s="127"/>
       <c r="D77" s="128"/>
-      <c r="E77" s="123"/>
-      <c r="F77" s="123"/>
+      <c r="E77" s="374"/>
+      <c r="F77" s="374"/>
       <c r="G77" s="124"/>
       <c r="H77" s="129" t="s">
         <v>138</v>
       </c>
       <c r="I77" s="179"/>
       <c r="J77" s="180"/>
-      <c r="K77" s="191"/>
+      <c r="K77" s="426" t="s">
+        <v>179</v>
+      </c>
       <c r="L77" s="182"/>
       <c r="M77" s="182"/>
       <c r="N77" s="182"/>
@@ -9719,17 +9870,19 @@
       </c>
       <c r="S77" s="175"/>
       <c r="T77" s="176"/>
-      <c r="U77" s="236"/>
-      <c r="V77" s="237"/>
-      <c r="W77" s="238"/>
+      <c r="U77" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V77" s="463"/>
+      <c r="W77" s="464"/>
       <c r="X77" s="240"/>
       <c r="Y77" s="283"/>
       <c r="Z77" s="281"/>
       <c r="AA77" s="282"/>
-      <c r="AB77" s="282"/>
-      <c r="AC77" s="282"/>
-      <c r="AD77" s="282"/>
-      <c r="AE77" s="282"/>
+      <c r="AB77" s="501"/>
+      <c r="AC77" s="501"/>
+      <c r="AD77" s="501"/>
+      <c r="AE77" s="501"/>
       <c r="AF77" s="282"/>
       <c r="AG77" s="312"/>
     </row>
@@ -9738,8 +9891,8 @@
       <c r="B78" s="397"/>
       <c r="C78" s="398"/>
       <c r="D78" s="399"/>
-      <c r="E78" s="145"/>
-      <c r="F78" s="145"/>
+      <c r="E78" s="384"/>
+      <c r="F78" s="384"/>
       <c r="G78" s="146"/>
       <c r="H78" s="147"/>
       <c r="I78" s="192"/>
@@ -9752,21 +9905,23 @@
       <c r="P78" s="195"/>
       <c r="Q78" s="254"/>
       <c r="R78" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S78" s="256"/>
       <c r="T78" s="257"/>
-      <c r="U78" s="242"/>
-      <c r="V78" s="243"/>
-      <c r="W78" s="244"/>
+      <c r="U78" s="472" t="s">
+        <v>148</v>
+      </c>
+      <c r="V78" s="473"/>
+      <c r="W78" s="474"/>
       <c r="X78" s="245"/>
       <c r="Y78" s="284"/>
       <c r="Z78" s="288"/>
       <c r="AA78" s="289"/>
-      <c r="AB78" s="289"/>
-      <c r="AC78" s="289"/>
-      <c r="AD78" s="289"/>
-      <c r="AE78" s="289"/>
+      <c r="AB78" s="505"/>
+      <c r="AC78" s="505"/>
+      <c r="AD78" s="505"/>
+      <c r="AE78" s="505"/>
       <c r="AF78" s="289"/>
       <c r="AG78" s="314"/>
     </row>
@@ -9774,21 +9929,26 @@
       <c r="A79" s="134">
         <v>11</v>
       </c>
-      <c r="B79" s="394"/>
+      <c r="B79" s="394">
+        <v>42931</v>
+      </c>
       <c r="C79" s="395"/>
       <c r="D79" s="396"/>
-      <c r="E79" s="138" t="str">
-        <f ca="1">IF(AND(B79&lt;&gt;"",B81&lt;&gt;""),DATEDIF(B79,B81,"M")+1,IF(AND(B79&lt;&gt;"",B81=""),DATEDIF(B79,TODAY(),"M")+1,""))</f>
-        <v/>
-      </c>
-      <c r="F79" s="138"/>
+      <c r="E79" s="368">
+        <v>6</v>
+      </c>
+      <c r="F79" s="368">
+        <v>6</v>
+      </c>
       <c r="G79" s="139"/>
       <c r="H79" s="140" t="s">
         <v>129</v>
       </c>
       <c r="I79" s="187"/>
       <c r="J79" s="188"/>
-      <c r="K79" s="189"/>
+      <c r="K79" s="189" t="s">
+        <v>177</v>
+      </c>
       <c r="L79" s="190"/>
       <c r="M79" s="190"/>
       <c r="N79" s="190"/>
@@ -9800,36 +9960,50 @@
       </c>
       <c r="S79" s="248"/>
       <c r="T79" s="249"/>
-      <c r="U79" s="250"/>
-      <c r="V79" s="251"/>
-      <c r="W79" s="252"/>
-      <c r="X79" s="526"/>
-      <c r="Y79" s="528"/>
+      <c r="U79" s="526" t="s">
+        <v>34</v>
+      </c>
+      <c r="V79" s="527"/>
+      <c r="W79" s="528"/>
+      <c r="X79" s="530" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y79" s="532"/>
       <c r="Z79" s="286"/>
       <c r="AA79" s="287"/>
-      <c r="AB79" s="287"/>
-      <c r="AC79" s="287"/>
-      <c r="AD79" s="287"/>
-      <c r="AE79" s="287"/>
+      <c r="AB79" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC79" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD79" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE79" s="498" t="s">
+        <v>35</v>
+      </c>
       <c r="AF79" s="287"/>
       <c r="AG79" s="313"/>
     </row>
     <row r="80" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A80" s="119"/>
-      <c r="B80" s="141" t="s">
+      <c r="B80" s="524" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="142"/>
       <c r="D80" s="143"/>
-      <c r="E80" s="123"/>
-      <c r="F80" s="123"/>
+      <c r="E80" s="374"/>
+      <c r="F80" s="374"/>
       <c r="G80" s="124"/>
       <c r="H80" s="125" t="s">
         <v>151</v>
       </c>
       <c r="I80" s="175"/>
       <c r="J80" s="176"/>
-      <c r="K80" s="177"/>
+      <c r="K80" s="428" t="s">
+        <v>181</v>
+      </c>
       <c r="L80" s="178"/>
       <c r="M80" s="178"/>
       <c r="N80" s="178"/>
@@ -9841,34 +10015,40 @@
       </c>
       <c r="S80" s="175"/>
       <c r="T80" s="176"/>
-      <c r="U80" s="236"/>
-      <c r="V80" s="237"/>
-      <c r="W80" s="238"/>
+      <c r="U80" s="462" t="s">
+        <v>145</v>
+      </c>
+      <c r="V80" s="463"/>
+      <c r="W80" s="464"/>
       <c r="X80" s="120"/>
       <c r="Y80" s="122"/>
       <c r="Z80" s="281"/>
       <c r="AA80" s="282"/>
-      <c r="AB80" s="282"/>
-      <c r="AC80" s="282"/>
-      <c r="AD80" s="282"/>
-      <c r="AE80" s="282"/>
+      <c r="AB80" s="501"/>
+      <c r="AC80" s="501"/>
+      <c r="AD80" s="501"/>
+      <c r="AE80" s="501"/>
       <c r="AF80" s="282"/>
       <c r="AG80" s="312"/>
     </row>
     <row r="81" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A81" s="119"/>
-      <c r="B81" s="126"/>
+      <c r="B81" s="126">
+        <v>43101</v>
+      </c>
       <c r="C81" s="127"/>
       <c r="D81" s="128"/>
-      <c r="E81" s="123"/>
-      <c r="F81" s="123"/>
+      <c r="E81" s="374"/>
+      <c r="F81" s="374"/>
       <c r="G81" s="124"/>
       <c r="H81" s="129" t="s">
         <v>138</v>
       </c>
       <c r="I81" s="179"/>
       <c r="J81" s="180"/>
-      <c r="K81" s="191"/>
+      <c r="K81" s="426" t="s">
+        <v>182</v>
+      </c>
       <c r="L81" s="182"/>
       <c r="M81" s="182"/>
       <c r="N81" s="182"/>
@@ -9880,17 +10060,21 @@
       </c>
       <c r="S81" s="175"/>
       <c r="T81" s="176"/>
-      <c r="U81" s="236"/>
-      <c r="V81" s="237"/>
-      <c r="W81" s="238"/>
-      <c r="X81" s="240"/>
+      <c r="U81" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V81" s="463"/>
+      <c r="W81" s="464"/>
+      <c r="X81" s="240">
+        <v>1</v>
+      </c>
       <c r="Y81" s="283"/>
       <c r="Z81" s="281"/>
       <c r="AA81" s="282"/>
-      <c r="AB81" s="282"/>
-      <c r="AC81" s="282"/>
-      <c r="AD81" s="282"/>
-      <c r="AE81" s="282"/>
+      <c r="AB81" s="501"/>
+      <c r="AC81" s="501"/>
+      <c r="AD81" s="501"/>
+      <c r="AE81" s="501"/>
       <c r="AF81" s="282"/>
       <c r="AG81" s="312"/>
     </row>
@@ -9899,8 +10083,8 @@
       <c r="B82" s="397"/>
       <c r="C82" s="398"/>
       <c r="D82" s="399"/>
-      <c r="E82" s="145"/>
-      <c r="F82" s="145"/>
+      <c r="E82" s="384"/>
+      <c r="F82" s="384"/>
       <c r="G82" s="146"/>
       <c r="H82" s="147"/>
       <c r="I82" s="192"/>
@@ -9913,21 +10097,23 @@
       <c r="P82" s="195"/>
       <c r="Q82" s="254"/>
       <c r="R82" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S82" s="256"/>
       <c r="T82" s="257"/>
-      <c r="U82" s="242"/>
-      <c r="V82" s="243"/>
-      <c r="W82" s="244"/>
+      <c r="U82" s="472" t="s">
+        <v>148</v>
+      </c>
+      <c r="V82" s="473"/>
+      <c r="W82" s="474"/>
       <c r="X82" s="245"/>
       <c r="Y82" s="284"/>
       <c r="Z82" s="288"/>
       <c r="AA82" s="289"/>
-      <c r="AB82" s="289"/>
-      <c r="AC82" s="289"/>
-      <c r="AD82" s="289"/>
-      <c r="AE82" s="289"/>
+      <c r="AB82" s="505"/>
+      <c r="AC82" s="505"/>
+      <c r="AD82" s="505"/>
+      <c r="AE82" s="505"/>
       <c r="AF82" s="289"/>
       <c r="AG82" s="314"/>
     </row>
@@ -9935,21 +10121,26 @@
       <c r="A83" s="134">
         <v>12</v>
       </c>
-      <c r="B83" s="394"/>
+      <c r="B83" s="394">
+        <v>42614</v>
+      </c>
       <c r="C83" s="395"/>
       <c r="D83" s="396"/>
-      <c r="E83" s="138" t="str">
-        <f ca="1">IF(AND(B83&lt;&gt;"",B85&lt;&gt;""),DATEDIF(B83,B85,"M")+1,IF(AND(B83&lt;&gt;"",B85=""),DATEDIF(B83,TODAY(),"M")+1,""))</f>
-        <v/>
-      </c>
-      <c r="F83" s="138"/>
+      <c r="E83" s="368">
+        <v>9</v>
+      </c>
+      <c r="F83" s="138">
+        <v>10</v>
+      </c>
       <c r="G83" s="139"/>
       <c r="H83" s="140" t="s">
         <v>129</v>
       </c>
       <c r="I83" s="187"/>
       <c r="J83" s="188"/>
-      <c r="K83" s="189"/>
+      <c r="K83" s="189" t="s">
+        <v>177</v>
+      </c>
       <c r="L83" s="190"/>
       <c r="M83" s="190"/>
       <c r="N83" s="190"/>
@@ -9961,28 +10152,40 @@
       </c>
       <c r="S83" s="248"/>
       <c r="T83" s="249"/>
-      <c r="U83" s="250"/>
-      <c r="V83" s="251"/>
-      <c r="W83" s="252"/>
-      <c r="X83" s="526"/>
-      <c r="Y83" s="528"/>
+      <c r="U83" s="526" t="s">
+        <v>34</v>
+      </c>
+      <c r="V83" s="527"/>
+      <c r="W83" s="528"/>
+      <c r="X83" s="530" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y83" s="532"/>
       <c r="Z83" s="286"/>
       <c r="AA83" s="287"/>
-      <c r="AB83" s="287"/>
-      <c r="AC83" s="287"/>
-      <c r="AD83" s="287"/>
-      <c r="AE83" s="287"/>
+      <c r="AB83" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC83" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD83" s="498" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE83" s="498" t="s">
+        <v>35</v>
+      </c>
       <c r="AF83" s="287"/>
       <c r="AG83" s="313"/>
     </row>
     <row r="84" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A84" s="119"/>
-      <c r="B84" s="141" t="s">
+      <c r="B84" s="524" t="s">
         <v>133</v>
       </c>
       <c r="C84" s="142"/>
       <c r="D84" s="143"/>
-      <c r="E84" s="123"/>
+      <c r="E84" s="374"/>
       <c r="F84" s="123"/>
       <c r="G84" s="124"/>
       <c r="H84" s="125" t="s">
@@ -9990,7 +10193,9 @@
       </c>
       <c r="I84" s="175"/>
       <c r="J84" s="176"/>
-      <c r="K84" s="177"/>
+      <c r="K84" s="428" t="s">
+        <v>183</v>
+      </c>
       <c r="L84" s="178"/>
       <c r="M84" s="178"/>
       <c r="N84" s="178"/>
@@ -10002,26 +10207,30 @@
       </c>
       <c r="S84" s="175"/>
       <c r="T84" s="176"/>
-      <c r="U84" s="236"/>
-      <c r="V84" s="237"/>
-      <c r="W84" s="238"/>
+      <c r="U84" s="462" t="s">
+        <v>145</v>
+      </c>
+      <c r="V84" s="463"/>
+      <c r="W84" s="464"/>
       <c r="X84" s="120"/>
       <c r="Y84" s="122"/>
       <c r="Z84" s="281"/>
       <c r="AA84" s="282"/>
-      <c r="AB84" s="282"/>
-      <c r="AC84" s="282"/>
-      <c r="AD84" s="282"/>
-      <c r="AE84" s="282"/>
+      <c r="AB84" s="501"/>
+      <c r="AC84" s="501"/>
+      <c r="AD84" s="501"/>
+      <c r="AE84" s="501"/>
       <c r="AF84" s="282"/>
       <c r="AG84" s="312"/>
     </row>
     <row r="85" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A85" s="119"/>
-      <c r="B85" s="126"/>
+      <c r="B85" s="126">
+        <v>42887</v>
+      </c>
       <c r="C85" s="127"/>
       <c r="D85" s="128"/>
-      <c r="E85" s="123"/>
+      <c r="E85" s="374"/>
       <c r="F85" s="123"/>
       <c r="G85" s="124"/>
       <c r="H85" s="129" t="s">
@@ -10029,7 +10238,9 @@
       </c>
       <c r="I85" s="179"/>
       <c r="J85" s="180"/>
-      <c r="K85" s="191"/>
+      <c r="K85" s="426" t="s">
+        <v>184</v>
+      </c>
       <c r="L85" s="182"/>
       <c r="M85" s="182"/>
       <c r="N85" s="182"/>
@@ -10041,26 +10252,28 @@
       </c>
       <c r="S85" s="175"/>
       <c r="T85" s="176"/>
-      <c r="U85" s="236"/>
-      <c r="V85" s="237"/>
-      <c r="W85" s="238"/>
+      <c r="U85" s="462" t="s">
+        <v>80</v>
+      </c>
+      <c r="V85" s="463"/>
+      <c r="W85" s="464"/>
       <c r="X85" s="240"/>
       <c r="Y85" s="283"/>
       <c r="Z85" s="281"/>
       <c r="AA85" s="282"/>
-      <c r="AB85" s="282"/>
-      <c r="AC85" s="282"/>
-      <c r="AD85" s="282"/>
-      <c r="AE85" s="282"/>
+      <c r="AB85" s="501"/>
+      <c r="AC85" s="501"/>
+      <c r="AD85" s="501"/>
+      <c r="AE85" s="501"/>
       <c r="AF85" s="282"/>
       <c r="AG85" s="312"/>
     </row>
-    <row r="86" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
+    <row r="86" s="5" customFormat="1" ht="22" customHeight="1" spans="1:33">
       <c r="A86" s="144"/>
       <c r="B86" s="397"/>
       <c r="C86" s="398"/>
       <c r="D86" s="399"/>
-      <c r="E86" s="145"/>
+      <c r="E86" s="384"/>
       <c r="F86" s="145"/>
       <c r="G86" s="146"/>
       <c r="H86" s="147"/>
@@ -10074,21 +10287,21 @@
       <c r="P86" s="195"/>
       <c r="Q86" s="254"/>
       <c r="R86" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S86" s="256"/>
       <c r="T86" s="257"/>
-      <c r="U86" s="242"/>
-      <c r="V86" s="243"/>
-      <c r="W86" s="244"/>
+      <c r="U86" s="472"/>
+      <c r="V86" s="473"/>
+      <c r="W86" s="474"/>
       <c r="X86" s="245"/>
       <c r="Y86" s="284"/>
       <c r="Z86" s="288"/>
       <c r="AA86" s="289"/>
-      <c r="AB86" s="289"/>
-      <c r="AC86" s="289"/>
-      <c r="AD86" s="289"/>
-      <c r="AE86" s="289"/>
+      <c r="AB86" s="505"/>
+      <c r="AC86" s="505"/>
+      <c r="AD86" s="505"/>
+      <c r="AE86" s="505"/>
       <c r="AF86" s="289"/>
       <c r="AG86" s="314"/>
     </row>
@@ -10125,8 +10338,8 @@
       <c r="U87" s="250"/>
       <c r="V87" s="251"/>
       <c r="W87" s="252"/>
-      <c r="X87" s="526"/>
-      <c r="Y87" s="528"/>
+      <c r="X87" s="530"/>
+      <c r="Y87" s="532"/>
       <c r="Z87" s="286"/>
       <c r="AA87" s="287"/>
       <c r="AB87" s="287"/>
@@ -10235,7 +10448,7 @@
       <c r="P90" s="195"/>
       <c r="Q90" s="254"/>
       <c r="R90" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S90" s="256"/>
       <c r="T90" s="257"/>
@@ -10286,8 +10499,8 @@
       <c r="U91" s="250"/>
       <c r="V91" s="251"/>
       <c r="W91" s="252"/>
-      <c r="X91" s="526"/>
-      <c r="Y91" s="528"/>
+      <c r="X91" s="530"/>
+      <c r="Y91" s="532"/>
       <c r="Z91" s="286"/>
       <c r="AA91" s="287"/>
       <c r="AB91" s="287"/>
@@ -10396,7 +10609,7 @@
       <c r="P94" s="195"/>
       <c r="Q94" s="254"/>
       <c r="R94" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S94" s="256"/>
       <c r="T94" s="257"/>
@@ -10948,7 +11161,6 @@
     <mergeCell ref="X57:Y58"/>
     <mergeCell ref="K57:Q58"/>
     <mergeCell ref="X49:Y50"/>
-    <mergeCell ref="K49:Q50"/>
     <mergeCell ref="K45:Q46"/>
     <mergeCell ref="X39:Y40"/>
     <mergeCell ref="K41:Q42"/>
@@ -10968,9 +11180,7 @@
     <mergeCell ref="K77:Q78"/>
     <mergeCell ref="X75:Y76"/>
     <mergeCell ref="X77:Y78"/>
-    <mergeCell ref="K81:Q82"/>
     <mergeCell ref="X79:Y80"/>
-    <mergeCell ref="X81:Y82"/>
     <mergeCell ref="K65:Q66"/>
     <mergeCell ref="X63:Y64"/>
     <mergeCell ref="X65:Y66"/>
@@ -10994,6 +11204,9 @@
     <mergeCell ref="K61:Q62"/>
     <mergeCell ref="X47:Y48"/>
     <mergeCell ref="K53:Q54"/>
+    <mergeCell ref="K49:Q50"/>
+    <mergeCell ref="K81:Q82"/>
+    <mergeCell ref="X81:Y82"/>
   </mergeCells>
   <conditionalFormatting sqref="AD3:AG3">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -11001,28 +11214,28 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
+      <formula1>"女,男"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
       <formula1>"1級強(母国語レベル),1級(会議に支障がない),1級弱(仕事に支障がない),2級強(日常会話に支障がない),2級(簡単な意思疎通ができる),2級弱(簡単な単語を話せる)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
-      <formula1>"女,男"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
       <formula1>"有,無"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q15 V15 AA15 AG15 V17 G18 G19 AA19 L22 Q22 AA22 AG22 G23 L23 V24 AG24 G15:G17 G20:G22 G24:G26 L15:L21 L24:L26 Q17:Q21 Q23:Q26 V19:V22 V25:V26 AA24:AA25 AG17:AG20">
+      <formula1>"●,〇,△,　"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="作成日を記入すると、自動的に算出" sqref="U5:W5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="その他の場合、ここに記入してください。" sqref="R16:AG16 AB21 W23:AG23 AB26"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="点数" sqref="L11"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
       <formula1>"TOEIC,GRE,その他"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="作成日を記入すると、自動的に算出" sqref="U5:W5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q15 V15 AA15 AG15 V17 G18 G19 AA19 L22 Q22 AA22 AG22 G23 L23 V24 AG24 G15:G17 G20:G22 G24:G26 L15:L21 L24:L26 Q17:Q21 Q23:Q26 V19:V22 V25:V26 AA24:AA25 AG17:AG20">
-      <formula1>"●,〇,△,　"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K39:Q39 K43:Q43 K47:Q47 K51:Q51 K55:Q55 K59:Q59 K63:Q63 K67:Q67 K71:Q71 K75:Q75 K79:Q79 K83:Q83 K87:Q87 K91:Q91">
       <formula1>業種</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z39:AG39 Z43:AC43 AD43 AE43:AG43 Z47:AG47 Z51:AG51 Z55 AA55 AB55:AD55 AE55:AG55 Z59 AA59 AB59 AC59 AD59 AE59 AF59:AG59 Z63 AA63 AB63:AD63 AE63 AF63:AG63 Z67 AA67 AB67:AD67 AE67 AF67:AG67 Z71:AG71 Z75:AG75 Z79:AG79 Z83:AG83 Z87:AG87 Z91:AG91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z39:AG39 Z43:AC43 AD43 AE43:AG43 Z47:AA47 AB47 AC47 AD47 AE47 AF47:AG47 Z51:AD51 AE51 AF51:AG51 Z55 AA55 AB55 AC55:AD55 AE55 AF55:AG55 Z59 AA59 AB59 AC59 AD59 AE59 AF59:AG59 Z63 AA63 AB63:AD63 AE63 AF63:AG63 Z67 AA67 AB67 AC67:AD67 AE67 AF67:AG67 Z71:AA71 AB71 AC71:AD71 AE71 AF71:AG71 Z75:AA75 AB75 AC75:AD75 AE75 AF75:AG75 Z79:AA79 AB79 AC79:AD79 AE79 AF79:AG79 Z83:AA83 AB83 AC83:AD83 AE83 AF83:AG83 Z87:AG87 Z91:AG91">
       <formula1>"●"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G50 G51:G54 G55:G58 G59:G62 G63:G66 G67:G70 G71:G94">
@@ -11134,7 +11347,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -11183,7 +11396,7 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -11197,7 +11410,7 @@
       </c>
       <c r="M5" s="153"/>
       <c r="N5" s="152" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="O5" s="153"/>
       <c r="P5" s="154">
@@ -11221,7 +11434,7 @@
       <c r="AA5" s="262"/>
       <c r="AB5" s="263"/>
       <c r="AC5" s="264" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AD5" s="265"/>
       <c r="AE5" s="265"/>
@@ -11235,7 +11448,7 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="16" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -11259,7 +11472,7 @@
       <c r="V6" s="204"/>
       <c r="W6" s="205"/>
       <c r="X6" s="206" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Y6" s="266"/>
       <c r="Z6" s="266"/>
@@ -11328,7 +11541,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="157" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J8" s="158"/>
       <c r="K8" s="158"/>
@@ -11340,7 +11553,7 @@
       <c r="Q8" s="158"/>
       <c r="R8" s="208"/>
       <c r="S8" s="157" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="T8" s="158"/>
       <c r="U8" s="158"/>
@@ -11352,7 +11565,7 @@
       <c r="AA8" s="158"/>
       <c r="AB8" s="208"/>
       <c r="AC8" s="267" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AD8" s="267"/>
       <c r="AE8" s="267"/>
@@ -11371,7 +11584,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="29" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -11386,7 +11599,7 @@
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="209" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="S9" s="210"/>
       <c r="T9" s="210"/>
@@ -11414,7 +11627,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="32" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -11453,7 +11666,7 @@
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="36" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
@@ -11558,7 +11771,7 @@
     </row>
     <row r="14" ht="13.5" spans="1:33">
       <c r="A14" s="41" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -11656,7 +11869,7 @@
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
       <c r="G16" s="52" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H16" s="50" t="s">
         <v>41</v>
@@ -11848,7 +12061,7 @@
       <c r="E20" s="61"/>
       <c r="F20" s="57"/>
       <c r="G20" s="60" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H20" s="61" t="s">
         <v>64</v>
@@ -11999,7 +12212,7 @@
       <c r="E23" s="50"/>
       <c r="F23" s="68"/>
       <c r="G23" s="52" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H23" s="50" t="s">
         <v>83</v>
@@ -12036,7 +12249,7 @@
     </row>
     <row r="24" ht="13.5" spans="1:33">
       <c r="A24" s="69" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B24" s="70"/>
       <c r="C24" s="45" t="s">
@@ -12063,7 +12276,7 @@
         <v>35</v>
       </c>
       <c r="R24" s="165" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="S24" s="216"/>
       <c r="T24" s="216"/>
@@ -12158,7 +12371,7 @@
       <c r="O26" s="77"/>
       <c r="P26" s="78"/>
       <c r="Q26" s="79" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="R26" s="77" t="s">
         <v>101</v>
@@ -12194,7 +12407,7 @@
       <c r="F27" s="83"/>
       <c r="G27" s="84"/>
       <c r="H27" s="85" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="I27" s="169"/>
       <c r="J27" s="169"/>
@@ -12233,7 +12446,7 @@
       <c r="F28" s="89"/>
       <c r="G28" s="90"/>
       <c r="H28" s="91" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="I28" s="170"/>
       <c r="J28" s="170"/>
@@ -12272,7 +12485,7 @@
       <c r="F29" s="93"/>
       <c r="G29" s="94"/>
       <c r="H29" s="95" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
@@ -12340,7 +12553,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="98" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B32" s="99"/>
       <c r="C32" s="99"/>
@@ -12388,7 +12601,7 @@
         <v>113</v>
       </c>
       <c r="F33" s="105" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="G33" s="106" t="s">
         <v>115</v>
@@ -12430,13 +12643,13 @@
         <v>122</v>
       </c>
       <c r="AD33" s="274" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AE33" s="274" t="s">
         <v>124</v>
       </c>
       <c r="AF33" s="274" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="AG33" s="309" t="s">
         <v>126</v>
@@ -12496,7 +12709,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="117" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H35" s="118" t="s">
         <v>129</v>
@@ -12523,7 +12736,7 @@
       <c r="V35" s="232"/>
       <c r="W35" s="233"/>
       <c r="X35" s="234" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="Y35" s="278"/>
       <c r="Z35" s="279"/>
@@ -12559,7 +12772,7 @@
       <c r="I36" s="175"/>
       <c r="J36" s="176"/>
       <c r="K36" s="177" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L36" s="178"/>
       <c r="M36" s="178"/>
@@ -12604,7 +12817,7 @@
       <c r="I37" s="179"/>
       <c r="J37" s="180"/>
       <c r="K37" s="181" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="L37" s="182"/>
       <c r="M37" s="182"/>
@@ -12618,7 +12831,7 @@
       <c r="S37" s="175"/>
       <c r="T37" s="176"/>
       <c r="U37" s="236" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="V37" s="237"/>
       <c r="W37" s="238"/>
@@ -12647,7 +12860,7 @@
       <c r="I38" s="183"/>
       <c r="J38" s="184"/>
       <c r="K38" s="185" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="L38" s="186"/>
       <c r="M38" s="186"/>
@@ -12656,7 +12869,7 @@
       <c r="P38" s="186"/>
       <c r="Q38" s="241"/>
       <c r="R38" s="129" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S38" s="179"/>
       <c r="T38" s="180"/>
@@ -12819,7 +13032,7 @@
       <c r="P42" s="195"/>
       <c r="Q42" s="254"/>
       <c r="R42" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S42" s="256"/>
       <c r="T42" s="257"/>
@@ -12980,7 +13193,7 @@
       <c r="P46" s="195"/>
       <c r="Q46" s="254"/>
       <c r="R46" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S46" s="256"/>
       <c r="T46" s="257"/>
@@ -13141,7 +13354,7 @@
       <c r="P50" s="195"/>
       <c r="Q50" s="254"/>
       <c r="R50" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S50" s="256"/>
       <c r="T50" s="257"/>
@@ -13302,7 +13515,7 @@
       <c r="P54" s="195"/>
       <c r="Q54" s="254"/>
       <c r="R54" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S54" s="256"/>
       <c r="T54" s="257"/>
@@ -13463,7 +13676,7 @@
       <c r="P58" s="195"/>
       <c r="Q58" s="254"/>
       <c r="R58" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S58" s="256"/>
       <c r="T58" s="257"/>
@@ -13624,7 +13837,7 @@
       <c r="P62" s="195"/>
       <c r="Q62" s="254"/>
       <c r="R62" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S62" s="256"/>
       <c r="T62" s="257"/>
@@ -13785,7 +13998,7 @@
       <c r="P66" s="195"/>
       <c r="Q66" s="254"/>
       <c r="R66" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S66" s="256"/>
       <c r="T66" s="257"/>
@@ -13946,7 +14159,7 @@
       <c r="P70" s="195"/>
       <c r="Q70" s="254"/>
       <c r="R70" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S70" s="256"/>
       <c r="T70" s="257"/>
@@ -14107,7 +14320,7 @@
       <c r="P74" s="195"/>
       <c r="Q74" s="254"/>
       <c r="R74" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S74" s="256"/>
       <c r="T74" s="257"/>
@@ -14268,7 +14481,7 @@
       <c r="P78" s="195"/>
       <c r="Q78" s="254"/>
       <c r="R78" s="255" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S78" s="256"/>
       <c r="T78" s="257"/>
@@ -14769,11 +14982,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
+      <formula1>"女,男"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
       <formula1>"1級強(母国語レベル),1級(会議に支障がない),1級弱(仕事に支障がない),2級強(日常会話に支障がない),2級(簡単な意思疎通ができる),2級弱(簡単な単語を話せる)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
-      <formula1>"女,男"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
       <formula1>"有,無"</formula1>
@@ -14841,39 +15054,39 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -14881,12 +15094,12 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/resume.xlsx
+++ b/resume.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="243">
   <si>
     <t>　職　務　経　歴　書</t>
   </si>
@@ -142,6 +142,9 @@
       </rPr>
       <t>他</t>
     </r>
+  </si>
+  <si>
+    <t>PETS3</t>
   </si>
   <si>
     <t>技術経験</t>
@@ -6486,8 +6489,8 @@
   </sheetPr>
   <dimension ref="A1:AK106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="100" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26:AA26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="100" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9:AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="12.75"/>
@@ -6544,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="11:33">
+    <row r="3" ht="13.5" spans="11:33">
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -6868,7 +6871,7 @@
       <c r="AF10" s="210"/>
       <c r="AG10" s="295"/>
     </row>
-    <row r="11" ht="13.5" spans="1:33">
+    <row r="11" spans="1:33">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -6884,7 +6887,9 @@
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="160"/>
-      <c r="L11" s="161"/>
+      <c r="L11" s="161" t="s">
+        <v>30</v>
+      </c>
       <c r="M11" s="162"/>
       <c r="N11" s="162"/>
       <c r="O11" s="163"/>
@@ -6944,7 +6949,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -6981,7 +6986,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -7018,45 +7023,45 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="324" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="324"/>
       <c r="E15" s="324"/>
       <c r="F15" s="325"/>
       <c r="G15" s="326" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="324" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="324"/>
       <c r="J15" s="324"/>
       <c r="K15" s="403"/>
       <c r="L15" s="326"/>
       <c r="M15" s="324" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N15" s="324"/>
       <c r="O15" s="324"/>
       <c r="P15" s="325"/>
       <c r="Q15" s="441" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R15" s="324" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S15" s="324"/>
       <c r="T15" s="324"/>
       <c r="U15" s="325"/>
       <c r="V15" s="326" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W15" s="324" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X15" s="324"/>
       <c r="Y15" s="324"/>
@@ -7073,21 +7078,21 @@
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
       <c r="C16" s="327" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="327"/>
       <c r="E16" s="327"/>
       <c r="F16" s="328"/>
       <c r="G16" s="329"/>
       <c r="H16" s="327" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" s="327"/>
       <c r="J16" s="327"/>
       <c r="K16" s="335"/>
       <c r="L16" s="329"/>
       <c r="M16" s="404" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N16" s="405"/>
       <c r="O16" s="405"/>
@@ -7112,50 +7117,50 @@
     </row>
     <row r="17" ht="13.5" spans="1:33">
       <c r="A17" s="53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="324" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="324"/>
       <c r="E17" s="324"/>
       <c r="F17" s="325"/>
       <c r="G17" s="326"/>
       <c r="H17" s="324" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" s="324"/>
       <c r="J17" s="324"/>
       <c r="K17" s="325"/>
       <c r="L17" s="326" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M17" s="324" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N17" s="324"/>
       <c r="O17" s="324"/>
       <c r="P17" s="325"/>
       <c r="Q17" s="326"/>
       <c r="R17" s="324" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S17" s="324"/>
       <c r="T17" s="324"/>
       <c r="U17" s="325"/>
       <c r="V17" s="326" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W17" s="324" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X17" s="324"/>
       <c r="Y17" s="324"/>
       <c r="Z17" s="325"/>
       <c r="AA17" s="326"/>
       <c r="AB17" s="325" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC17" s="483"/>
       <c r="AD17" s="483"/>
@@ -7167,42 +7172,42 @@
       <c r="A18" s="55"/>
       <c r="B18" s="56"/>
       <c r="C18" s="330" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="331"/>
       <c r="E18" s="331"/>
       <c r="F18" s="332"/>
       <c r="G18" s="333"/>
       <c r="H18" s="330" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I18" s="331"/>
       <c r="J18" s="331"/>
       <c r="K18" s="332"/>
       <c r="L18" s="333"/>
       <c r="M18" s="330" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N18" s="331"/>
       <c r="O18" s="331"/>
       <c r="P18" s="332"/>
       <c r="Q18" s="333"/>
       <c r="R18" s="334" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S18" s="334"/>
       <c r="T18" s="334"/>
       <c r="U18" s="330"/>
       <c r="V18" s="333"/>
       <c r="W18" s="334" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X18" s="334"/>
       <c r="Y18" s="334"/>
       <c r="Z18" s="330"/>
       <c r="AA18" s="333"/>
       <c r="AB18" s="330" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC18" s="331"/>
       <c r="AD18" s="331"/>
@@ -7214,44 +7219,44 @@
       <c r="A19" s="55"/>
       <c r="B19" s="56"/>
       <c r="C19" s="334" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="334"/>
       <c r="E19" s="334"/>
       <c r="F19" s="330"/>
       <c r="G19" s="333" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="330" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="331"/>
       <c r="J19" s="331"/>
       <c r="K19" s="332"/>
       <c r="L19" s="333"/>
       <c r="M19" s="330" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N19" s="331"/>
       <c r="O19" s="331"/>
       <c r="P19" s="332"/>
       <c r="Q19" s="333"/>
       <c r="R19" s="330" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S19" s="331"/>
       <c r="T19" s="331"/>
       <c r="U19" s="332"/>
       <c r="V19" s="333"/>
       <c r="W19" s="334" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X19" s="334"/>
       <c r="Y19" s="334"/>
       <c r="Z19" s="330"/>
       <c r="AA19" s="333"/>
       <c r="AB19" s="334" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC19" s="334"/>
       <c r="AD19" s="334"/>
@@ -7263,90 +7268,90 @@
       <c r="A20" s="55"/>
       <c r="B20" s="56"/>
       <c r="C20" s="334" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="334"/>
       <c r="E20" s="334"/>
       <c r="F20" s="330"/>
       <c r="G20" s="333" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="334" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="334"/>
       <c r="J20" s="334"/>
       <c r="K20" s="330"/>
       <c r="L20" s="333" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M20" s="334" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20" s="334"/>
       <c r="O20" s="334"/>
       <c r="P20" s="330"/>
       <c r="Q20" s="333"/>
       <c r="R20" s="330" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S20" s="331"/>
       <c r="T20" s="331"/>
       <c r="U20" s="332"/>
       <c r="V20" s="333"/>
       <c r="W20" s="334" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X20" s="334"/>
       <c r="Y20" s="334"/>
       <c r="Z20" s="330"/>
       <c r="AA20" s="333" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB20" s="330" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC20" s="331"/>
       <c r="AD20" s="331"/>
       <c r="AE20" s="331"/>
       <c r="AF20" s="331"/>
       <c r="AG20" s="512" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:33">
       <c r="A21" s="62"/>
       <c r="B21" s="63"/>
       <c r="C21" s="327" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="327"/>
       <c r="E21" s="327"/>
       <c r="F21" s="328"/>
       <c r="G21" s="329"/>
       <c r="H21" s="327" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" s="327"/>
       <c r="J21" s="327"/>
       <c r="K21" s="328"/>
       <c r="L21" s="329"/>
       <c r="M21" s="327" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N21" s="327"/>
       <c r="O21" s="327"/>
       <c r="P21" s="328"/>
       <c r="Q21" s="329"/>
       <c r="R21" s="334" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" s="334"/>
       <c r="T21" s="334"/>
       <c r="U21" s="330"/>
       <c r="V21" s="333"/>
       <c r="W21" s="444" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X21" s="405"/>
       <c r="Y21" s="405"/>
@@ -7361,87 +7366,87 @@
     </row>
     <row r="22" ht="13.5" spans="1:33">
       <c r="A22" s="64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="65"/>
       <c r="C22" s="324" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="324"/>
       <c r="E22" s="324"/>
       <c r="F22" s="325"/>
       <c r="G22" s="326" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="324" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" s="324"/>
       <c r="J22" s="324"/>
       <c r="K22" s="325"/>
       <c r="L22" s="333"/>
       <c r="M22" s="324" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N22" s="324"/>
       <c r="O22" s="324"/>
       <c r="P22" s="325"/>
       <c r="Q22" s="333"/>
       <c r="R22" s="403" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" s="445"/>
       <c r="T22" s="445"/>
       <c r="U22" s="445"/>
       <c r="V22" s="326"/>
       <c r="W22" s="403" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X22" s="445"/>
       <c r="Y22" s="445"/>
       <c r="Z22" s="445"/>
       <c r="AA22" s="333"/>
       <c r="AB22" s="324" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" s="324"/>
       <c r="AD22" s="324"/>
       <c r="AE22" s="324"/>
       <c r="AF22" s="325"/>
       <c r="AG22" s="510" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" ht="13.5" spans="1:33">
       <c r="A23" s="66"/>
       <c r="B23" s="67"/>
       <c r="C23" s="327" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="327"/>
       <c r="E23" s="327"/>
       <c r="F23" s="335"/>
       <c r="G23" s="333" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="327" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I23" s="327"/>
       <c r="J23" s="327"/>
       <c r="K23" s="335"/>
       <c r="L23" s="333" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="327" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N23" s="327"/>
       <c r="O23" s="327"/>
       <c r="P23" s="335"/>
       <c r="Q23" s="329"/>
       <c r="R23" s="404" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S23" s="405"/>
       <c r="T23" s="405"/>
@@ -7461,155 +7466,155 @@
     </row>
     <row r="24" ht="14.25" spans="1:33">
       <c r="A24" s="336" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" s="70"/>
       <c r="C24" s="324" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="324"/>
       <c r="E24" s="324"/>
       <c r="F24" s="325"/>
       <c r="G24" s="326" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="324" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" s="324"/>
       <c r="J24" s="324"/>
       <c r="K24" s="325"/>
       <c r="L24" s="326"/>
       <c r="M24" s="324" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N24" s="324"/>
       <c r="O24" s="324"/>
       <c r="P24" s="325"/>
       <c r="Q24" s="326" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R24" s="403" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S24" s="445"/>
       <c r="T24" s="445"/>
       <c r="U24" s="445"/>
       <c r="V24" s="326" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W24" s="403" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X24" s="445"/>
       <c r="Y24" s="445"/>
       <c r="Z24" s="445"/>
       <c r="AA24" s="326"/>
       <c r="AB24" s="324" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC24" s="324"/>
       <c r="AD24" s="324"/>
       <c r="AE24" s="324"/>
       <c r="AF24" s="325"/>
       <c r="AG24" s="510" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:33">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
       <c r="C25" s="337" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="338"/>
       <c r="E25" s="338"/>
       <c r="F25" s="338"/>
       <c r="G25" s="329" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25" s="339" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I25" s="406"/>
       <c r="J25" s="406"/>
       <c r="K25" s="406"/>
       <c r="L25" s="329" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M25" s="339" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N25" s="406"/>
       <c r="O25" s="406"/>
       <c r="P25" s="406"/>
       <c r="Q25" s="329" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R25" s="339" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S25" s="406"/>
       <c r="T25" s="406"/>
       <c r="U25" s="406"/>
       <c r="V25" s="329" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W25" s="339" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X25" s="406"/>
       <c r="Y25" s="406"/>
       <c r="Z25" s="406"/>
       <c r="AA25" s="484" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB25" s="324" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC25" s="324"/>
       <c r="AD25" s="324"/>
       <c r="AE25" s="324"/>
       <c r="AF25" s="325"/>
       <c r="AG25" s="510" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:33">
       <c r="A26" s="75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="76"/>
       <c r="C26" s="340" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="340"/>
       <c r="E26" s="340"/>
       <c r="F26" s="341"/>
       <c r="G26" s="342"/>
       <c r="H26" s="340" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I26" s="340"/>
       <c r="J26" s="340"/>
       <c r="K26" s="341"/>
       <c r="L26" s="342"/>
       <c r="M26" s="340" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N26" s="340"/>
       <c r="O26" s="340"/>
       <c r="P26" s="341"/>
       <c r="Q26" s="342"/>
       <c r="R26" s="340" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S26" s="340"/>
       <c r="T26" s="340"/>
       <c r="U26" s="341"/>
       <c r="V26" s="342"/>
       <c r="W26" s="448" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X26" s="449"/>
       <c r="Y26" s="449"/>
@@ -7624,18 +7629,18 @@
     </row>
     <row r="27" ht="13.5" spans="1:33">
       <c r="A27" s="80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" s="81"/>
       <c r="C27" s="82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" s="83"/>
       <c r="E27" s="83"/>
       <c r="F27" s="83"/>
       <c r="G27" s="84"/>
       <c r="H27" s="343" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" s="407"/>
       <c r="J27" s="407"/>
@@ -7667,7 +7672,7 @@
       <c r="A28" s="86"/>
       <c r="B28" s="87"/>
       <c r="C28" s="88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" s="89"/>
       <c r="E28" s="89"/>
@@ -7702,7 +7707,7 @@
     </row>
     <row r="29" ht="54" customHeight="1" spans="1:33">
       <c r="A29" s="92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29" s="93"/>
       <c r="C29" s="93"/>
@@ -7711,7 +7716,7 @@
       <c r="F29" s="93"/>
       <c r="G29" s="94"/>
       <c r="H29" s="345" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
@@ -7742,7 +7747,7 @@
     <row r="30" ht="5.25" customHeight="1"/>
     <row r="31" spans="1:33">
       <c r="A31" s="96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" s="97"/>
       <c r="C31" s="97"/>
@@ -7779,7 +7784,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="346" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32" s="99"/>
       <c r="C32" s="99"/>
@@ -7816,24 +7821,24 @@
     </row>
     <row r="33" s="4" customFormat="1" ht="14.5" customHeight="1" spans="1:33">
       <c r="A33" s="100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33" s="101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" s="102"/>
       <c r="D33" s="103"/>
       <c r="E33" s="104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F33" s="347" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G33" s="106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H33" s="101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -7845,7 +7850,7 @@
       <c r="P33" s="102"/>
       <c r="Q33" s="103"/>
       <c r="R33" s="101" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S33" s="102"/>
       <c r="T33" s="102"/>
@@ -7853,32 +7858,32 @@
       <c r="V33" s="102"/>
       <c r="W33" s="103"/>
       <c r="X33" s="225" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y33" s="272"/>
       <c r="Z33" s="273" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA33" s="274" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB33" s="274" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC33" s="274" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD33" s="487" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AE33" s="274" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF33" s="274" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG33" s="309" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" ht="14.5" customHeight="1" spans="1:33">
@@ -7906,7 +7911,7 @@
       <c r="V34" s="350"/>
       <c r="W34" s="351"/>
       <c r="X34" s="450" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y34" s="488"/>
       <c r="Z34" s="489"/>
@@ -8075,15 +8080,15 @@
         <v>4</v>
       </c>
       <c r="G39" s="370" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H39" s="371" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I39" s="408"/>
       <c r="J39" s="409"/>
       <c r="K39" s="410" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L39" s="411"/>
       <c r="M39" s="411"/>
@@ -8092,30 +8097,30 @@
       <c r="P39" s="411"/>
       <c r="Q39" s="454"/>
       <c r="R39" s="371" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S39" s="408"/>
       <c r="T39" s="409"/>
       <c r="U39" s="455" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V39" s="456"/>
       <c r="W39" s="457"/>
       <c r="X39" s="458" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y39" s="495"/>
       <c r="Z39" s="496"/>
       <c r="AA39" s="497"/>
       <c r="AB39" s="497"/>
       <c r="AC39" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD39" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE39" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF39" s="497"/>
       <c r="AG39" s="519"/>
@@ -8123,7 +8128,7 @@
     <row r="40" s="5" customFormat="1" ht="24" customHeight="1" spans="1:33">
       <c r="A40" s="119"/>
       <c r="B40" s="372" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C40" s="373"/>
       <c r="D40" s="374"/>
@@ -8131,12 +8136,12 @@
       <c r="F40" s="375"/>
       <c r="G40" s="376"/>
       <c r="H40" s="377" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I40" s="412"/>
       <c r="J40" s="413"/>
       <c r="K40" s="414" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L40" s="415"/>
       <c r="M40" s="415"/>
@@ -8145,12 +8150,12 @@
       <c r="P40" s="415"/>
       <c r="Q40" s="459"/>
       <c r="R40" s="394" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S40" s="412"/>
       <c r="T40" s="413"/>
       <c r="U40" s="460" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V40" s="461"/>
       <c r="W40" s="462"/>
@@ -8176,12 +8181,12 @@
       <c r="F41" s="375"/>
       <c r="G41" s="376"/>
       <c r="H41" s="381" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I41" s="416"/>
       <c r="J41" s="417"/>
       <c r="K41" s="418" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L41" s="419"/>
       <c r="M41" s="419"/>
@@ -8190,12 +8195,12 @@
       <c r="P41" s="419"/>
       <c r="Q41" s="464"/>
       <c r="R41" s="394" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S41" s="412"/>
       <c r="T41" s="413"/>
       <c r="U41" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V41" s="461"/>
       <c r="W41" s="462"/>
@@ -8229,12 +8234,12 @@
       <c r="P42" s="423"/>
       <c r="Q42" s="467"/>
       <c r="R42" s="468" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S42" s="469"/>
       <c r="T42" s="470"/>
       <c r="U42" s="471" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V42" s="472"/>
       <c r="W42" s="473"/>
@@ -8266,15 +8271,15 @@
         <v>30</v>
       </c>
       <c r="G43" s="370" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H43" s="371" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I43" s="408"/>
       <c r="J43" s="409"/>
       <c r="K43" s="410" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L43" s="411"/>
       <c r="M43" s="411"/>
@@ -8283,27 +8288,27 @@
       <c r="P43" s="411"/>
       <c r="Q43" s="454"/>
       <c r="R43" s="475" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S43" s="476"/>
       <c r="T43" s="477"/>
       <c r="U43" s="455" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V43" s="456"/>
       <c r="W43" s="457"/>
       <c r="X43" s="458" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y43" s="495"/>
       <c r="Z43" s="496"/>
       <c r="AA43" s="505"/>
       <c r="AB43" s="505"/>
       <c r="AC43" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD43" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE43" s="505"/>
       <c r="AF43" s="505"/>
@@ -8312,7 +8317,7 @@
     <row r="44" s="5" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A44" s="119"/>
       <c r="B44" s="372" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C44" s="373"/>
       <c r="D44" s="374"/>
@@ -8320,12 +8325,12 @@
       <c r="F44" s="375"/>
       <c r="G44" s="376"/>
       <c r="H44" s="377" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I44" s="412"/>
       <c r="J44" s="413"/>
       <c r="K44" s="424" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L44" s="415"/>
       <c r="M44" s="415"/>
@@ -8334,12 +8339,12 @@
       <c r="P44" s="415"/>
       <c r="Q44" s="459"/>
       <c r="R44" s="394" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S44" s="412"/>
       <c r="T44" s="413"/>
       <c r="U44" s="465" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V44" s="461"/>
       <c r="W44" s="462"/>
@@ -8365,12 +8370,12 @@
       <c r="F45" s="375"/>
       <c r="G45" s="376"/>
       <c r="H45" s="381" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I45" s="416"/>
       <c r="J45" s="417"/>
       <c r="K45" s="418" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L45" s="419"/>
       <c r="M45" s="419"/>
@@ -8379,12 +8384,12 @@
       <c r="P45" s="419"/>
       <c r="Q45" s="464"/>
       <c r="R45" s="394" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S45" s="412"/>
       <c r="T45" s="413"/>
       <c r="U45" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V45" s="461"/>
       <c r="W45" s="462"/>
@@ -8418,12 +8423,12 @@
       <c r="P46" s="423"/>
       <c r="Q46" s="467"/>
       <c r="R46" s="478" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S46" s="469"/>
       <c r="T46" s="470"/>
       <c r="U46" s="471" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V46" s="472"/>
       <c r="W46" s="473"/>
@@ -8455,15 +8460,15 @@
         <v>11</v>
       </c>
       <c r="G47" s="370" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H47" s="371" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I47" s="408"/>
       <c r="J47" s="409"/>
       <c r="K47" s="410" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L47" s="411"/>
       <c r="M47" s="411"/>
@@ -8472,27 +8477,27 @@
       <c r="P47" s="411"/>
       <c r="Q47" s="454"/>
       <c r="R47" s="475" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S47" s="476"/>
       <c r="T47" s="477"/>
       <c r="U47" s="455" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V47" s="456"/>
       <c r="W47" s="457"/>
       <c r="X47" s="458" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y47" s="495"/>
       <c r="Z47" s="496"/>
       <c r="AA47" s="497"/>
       <c r="AB47" s="505"/>
       <c r="AC47" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD47" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE47" s="505"/>
       <c r="AF47" s="505"/>
@@ -8501,7 +8506,7 @@
     <row r="48" s="5" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A48" s="119"/>
       <c r="B48" s="372" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C48" s="373"/>
       <c r="D48" s="374"/>
@@ -8509,12 +8514,12 @@
       <c r="F48" s="375"/>
       <c r="G48" s="376"/>
       <c r="H48" s="377" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I48" s="412"/>
       <c r="J48" s="413"/>
       <c r="K48" s="424" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L48" s="415"/>
       <c r="M48" s="415"/>
@@ -8523,12 +8528,12 @@
       <c r="P48" s="415"/>
       <c r="Q48" s="459"/>
       <c r="R48" s="394" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S48" s="412"/>
       <c r="T48" s="413"/>
       <c r="U48" s="465" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V48" s="461"/>
       <c r="W48" s="462"/>
@@ -8554,12 +8559,12 @@
       <c r="F49" s="375"/>
       <c r="G49" s="376"/>
       <c r="H49" s="381" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I49" s="416"/>
       <c r="J49" s="417"/>
       <c r="K49" s="418" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L49" s="419"/>
       <c r="M49" s="419"/>
@@ -8568,12 +8573,12 @@
       <c r="P49" s="419"/>
       <c r="Q49" s="464"/>
       <c r="R49" s="394" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S49" s="412"/>
       <c r="T49" s="413"/>
       <c r="U49" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V49" s="461"/>
       <c r="W49" s="462"/>
@@ -8607,12 +8612,12 @@
       <c r="P50" s="423"/>
       <c r="Q50" s="467"/>
       <c r="R50" s="478" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S50" s="469"/>
       <c r="T50" s="470"/>
       <c r="U50" s="471" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V50" s="472"/>
       <c r="W50" s="473"/>
@@ -8644,15 +8649,15 @@
         <v>40</v>
       </c>
       <c r="G51" s="370" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H51" s="371" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I51" s="408"/>
       <c r="J51" s="409"/>
       <c r="K51" s="425" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L51" s="411"/>
       <c r="M51" s="411"/>
@@ -8661,30 +8666,30 @@
       <c r="P51" s="411"/>
       <c r="Q51" s="454"/>
       <c r="R51" s="475" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S51" s="476"/>
       <c r="T51" s="477"/>
       <c r="U51" s="455" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V51" s="456"/>
       <c r="W51" s="457"/>
       <c r="X51" s="458" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y51" s="495"/>
       <c r="Z51" s="496"/>
       <c r="AA51" s="505"/>
       <c r="AB51" s="505"/>
       <c r="AC51" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD51" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE51" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF51" s="505"/>
       <c r="AG51" s="522"/>
@@ -8692,7 +8697,7 @@
     <row r="52" s="5" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A52" s="119"/>
       <c r="B52" s="372" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" s="373"/>
       <c r="D52" s="374"/>
@@ -8700,12 +8705,12 @@
       <c r="F52" s="375"/>
       <c r="G52" s="376"/>
       <c r="H52" s="394" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I52" s="412"/>
       <c r="J52" s="413"/>
       <c r="K52" s="414" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L52" s="415"/>
       <c r="M52" s="415"/>
@@ -8714,12 +8719,12 @@
       <c r="P52" s="415"/>
       <c r="Q52" s="459"/>
       <c r="R52" s="394" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S52" s="412"/>
       <c r="T52" s="413"/>
       <c r="U52" s="465" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V52" s="461"/>
       <c r="W52" s="462"/>
@@ -8745,12 +8750,12 @@
       <c r="F53" s="375"/>
       <c r="G53" s="376"/>
       <c r="H53" s="381" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I53" s="416"/>
       <c r="J53" s="417"/>
       <c r="K53" s="426" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L53" s="419"/>
       <c r="M53" s="419"/>
@@ -8759,12 +8764,12 @@
       <c r="P53" s="419"/>
       <c r="Q53" s="464"/>
       <c r="R53" s="394" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S53" s="412"/>
       <c r="T53" s="413"/>
       <c r="U53" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V53" s="461"/>
       <c r="W53" s="462"/>
@@ -8798,12 +8803,12 @@
       <c r="P54" s="423"/>
       <c r="Q54" s="467"/>
       <c r="R54" s="478" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S54" s="469"/>
       <c r="T54" s="470"/>
       <c r="U54" s="471" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V54" s="472"/>
       <c r="W54" s="473"/>
@@ -8835,15 +8840,15 @@
         <v>6</v>
       </c>
       <c r="G55" s="370" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H55" s="371" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I55" s="408"/>
       <c r="J55" s="409"/>
       <c r="K55" s="427" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L55" s="411"/>
       <c r="M55" s="411"/>
@@ -8852,30 +8857,30 @@
       <c r="P55" s="411"/>
       <c r="Q55" s="454"/>
       <c r="R55" s="475" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S55" s="476"/>
       <c r="T55" s="477"/>
       <c r="U55" s="455" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V55" s="456"/>
       <c r="W55" s="457"/>
       <c r="X55" s="458" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y55" s="495"/>
       <c r="Z55" s="496"/>
       <c r="AA55" s="505"/>
       <c r="AB55" s="505"/>
       <c r="AC55" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD55" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE55" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF55" s="505"/>
       <c r="AG55" s="519"/>
@@ -8883,7 +8888,7 @@
     <row r="56" s="5" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A56" s="119"/>
       <c r="B56" s="372" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C56" s="373"/>
       <c r="D56" s="374"/>
@@ -8891,12 +8896,12 @@
       <c r="F56" s="375"/>
       <c r="G56" s="376"/>
       <c r="H56" s="394" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I56" s="412"/>
       <c r="J56" s="413"/>
       <c r="K56" s="414" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L56" s="415"/>
       <c r="M56" s="415"/>
@@ -8905,12 +8910,12 @@
       <c r="P56" s="415"/>
       <c r="Q56" s="459"/>
       <c r="R56" s="394" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S56" s="412"/>
       <c r="T56" s="413"/>
       <c r="U56" s="465" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V56" s="461"/>
       <c r="W56" s="462"/>
@@ -8936,12 +8941,12 @@
       <c r="F57" s="375"/>
       <c r="G57" s="376"/>
       <c r="H57" s="381" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I57" s="416"/>
       <c r="J57" s="417"/>
       <c r="K57" s="418" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L57" s="419"/>
       <c r="M57" s="419"/>
@@ -8950,12 +8955,12 @@
       <c r="P57" s="419"/>
       <c r="Q57" s="464"/>
       <c r="R57" s="394" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S57" s="412"/>
       <c r="T57" s="413"/>
       <c r="U57" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V57" s="461"/>
       <c r="W57" s="462"/>
@@ -8989,12 +8994,12 @@
       <c r="P58" s="423"/>
       <c r="Q58" s="467"/>
       <c r="R58" s="478" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S58" s="469"/>
       <c r="T58" s="470"/>
       <c r="U58" s="471" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V58" s="472"/>
       <c r="W58" s="473"/>
@@ -9026,15 +9031,15 @@
         <v>6</v>
       </c>
       <c r="G59" s="370" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H59" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I59" s="187"/>
       <c r="J59" s="188"/>
       <c r="K59" s="189" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L59" s="190"/>
       <c r="M59" s="190"/>
@@ -9043,30 +9048,30 @@
       <c r="P59" s="190"/>
       <c r="Q59" s="246"/>
       <c r="R59" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S59" s="248"/>
       <c r="T59" s="249"/>
       <c r="U59" s="455" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V59" s="456"/>
       <c r="W59" s="457"/>
       <c r="X59" s="458" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y59" s="495"/>
       <c r="Z59" s="496"/>
       <c r="AA59" s="505"/>
       <c r="AB59" s="505"/>
       <c r="AC59" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD59" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE59" s="505" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF59" s="497"/>
       <c r="AG59" s="519"/>
@@ -9074,7 +9079,7 @@
     <row r="60" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A60" s="119"/>
       <c r="B60" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" s="142"/>
       <c r="D60" s="143"/>
@@ -9082,12 +9087,12 @@
       <c r="F60" s="375"/>
       <c r="G60" s="376"/>
       <c r="H60" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I60" s="175"/>
       <c r="J60" s="176"/>
       <c r="K60" s="177" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L60" s="178"/>
       <c r="M60" s="178"/>
@@ -9096,12 +9101,12 @@
       <c r="P60" s="178"/>
       <c r="Q60" s="235"/>
       <c r="R60" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S60" s="175"/>
       <c r="T60" s="176"/>
       <c r="U60" s="465" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V60" s="461"/>
       <c r="W60" s="462"/>
@@ -9127,12 +9132,12 @@
       <c r="F61" s="375"/>
       <c r="G61" s="376"/>
       <c r="H61" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I61" s="179"/>
       <c r="J61" s="180"/>
       <c r="K61" s="428" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L61" s="182"/>
       <c r="M61" s="182"/>
@@ -9141,7 +9146,7 @@
       <c r="P61" s="182"/>
       <c r="Q61" s="239"/>
       <c r="R61" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S61" s="175"/>
       <c r="T61" s="176"/>
@@ -9178,12 +9183,12 @@
       <c r="P62" s="195"/>
       <c r="Q62" s="254"/>
       <c r="R62" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S62" s="256"/>
       <c r="T62" s="257"/>
       <c r="U62" s="471" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V62" s="472"/>
       <c r="W62" s="473"/>
@@ -9215,15 +9220,15 @@
         <v>6</v>
       </c>
       <c r="G63" s="370" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H63" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I63" s="187"/>
       <c r="J63" s="188"/>
       <c r="K63" s="429" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L63" s="190"/>
       <c r="M63" s="190"/>
@@ -9232,30 +9237,30 @@
       <c r="P63" s="190"/>
       <c r="Q63" s="246"/>
       <c r="R63" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S63" s="248"/>
       <c r="T63" s="249"/>
       <c r="U63" s="455" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V63" s="456"/>
       <c r="W63" s="457"/>
       <c r="X63" s="458" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y63" s="495"/>
       <c r="Z63" s="496"/>
       <c r="AA63" s="505"/>
       <c r="AB63" s="497"/>
       <c r="AC63" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD63" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE63" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF63" s="497"/>
       <c r="AG63" s="519"/>
@@ -9263,7 +9268,7 @@
     <row r="64" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A64" s="119"/>
       <c r="B64" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64" s="142"/>
       <c r="D64" s="143"/>
@@ -9271,12 +9276,12 @@
       <c r="F64" s="375"/>
       <c r="G64" s="376"/>
       <c r="H64" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I64" s="175"/>
       <c r="J64" s="176"/>
       <c r="K64" s="430" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L64" s="178"/>
       <c r="M64" s="178"/>
@@ -9285,12 +9290,12 @@
       <c r="P64" s="178"/>
       <c r="Q64" s="235"/>
       <c r="R64" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S64" s="175"/>
       <c r="T64" s="176"/>
       <c r="U64" s="465" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V64" s="461"/>
       <c r="W64" s="462"/>
@@ -9316,12 +9321,12 @@
       <c r="F65" s="375"/>
       <c r="G65" s="376"/>
       <c r="H65" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I65" s="179"/>
       <c r="J65" s="180"/>
       <c r="K65" s="428" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L65" s="182"/>
       <c r="M65" s="182"/>
@@ -9330,12 +9335,12 @@
       <c r="P65" s="182"/>
       <c r="Q65" s="239"/>
       <c r="R65" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S65" s="175"/>
       <c r="T65" s="176"/>
       <c r="U65" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V65" s="461"/>
       <c r="W65" s="462"/>
@@ -9369,12 +9374,12 @@
       <c r="P66" s="195"/>
       <c r="Q66" s="254"/>
       <c r="R66" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S66" s="256"/>
       <c r="T66" s="257"/>
       <c r="U66" s="525" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="V66" s="472"/>
       <c r="W66" s="473"/>
@@ -9406,15 +9411,15 @@
         <v>15</v>
       </c>
       <c r="G67" s="370" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H67" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I67" s="187"/>
       <c r="J67" s="188"/>
       <c r="K67" s="189" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L67" s="190"/>
       <c r="M67" s="190"/>
@@ -9423,32 +9428,32 @@
       <c r="P67" s="190"/>
       <c r="Q67" s="246"/>
       <c r="R67" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S67" s="248"/>
       <c r="T67" s="249"/>
       <c r="U67" s="526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V67" s="527"/>
       <c r="W67" s="528"/>
       <c r="X67" s="529" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y67" s="531"/>
       <c r="Z67" s="499"/>
       <c r="AA67" s="505"/>
       <c r="AB67" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC67" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD67" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE67" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF67" s="500"/>
       <c r="AG67" s="520"/>
@@ -9456,7 +9461,7 @@
     <row r="68" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A68" s="119"/>
       <c r="B68" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C68" s="142"/>
       <c r="D68" s="143"/>
@@ -9464,12 +9469,12 @@
       <c r="F68" s="375"/>
       <c r="G68" s="376"/>
       <c r="H68" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I68" s="175"/>
       <c r="J68" s="176"/>
       <c r="K68" s="430" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L68" s="178"/>
       <c r="M68" s="178"/>
@@ -9478,12 +9483,12 @@
       <c r="P68" s="178"/>
       <c r="Q68" s="235"/>
       <c r="R68" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S68" s="175"/>
       <c r="T68" s="176"/>
       <c r="U68" s="465" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V68" s="461"/>
       <c r="W68" s="462"/>
@@ -9509,12 +9514,12 @@
       <c r="F69" s="375"/>
       <c r="G69" s="376"/>
       <c r="H69" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I69" s="179"/>
       <c r="J69" s="180"/>
       <c r="K69" s="428" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L69" s="182"/>
       <c r="M69" s="182"/>
@@ -9523,12 +9528,12 @@
       <c r="P69" s="182"/>
       <c r="Q69" s="239"/>
       <c r="R69" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S69" s="175"/>
       <c r="T69" s="176"/>
       <c r="U69" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V69" s="461"/>
       <c r="W69" s="462"/>
@@ -9562,12 +9567,12 @@
       <c r="P70" s="195"/>
       <c r="Q70" s="254"/>
       <c r="R70" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S70" s="256"/>
       <c r="T70" s="257"/>
       <c r="U70" s="471" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V70" s="472"/>
       <c r="W70" s="473"/>
@@ -9599,15 +9604,15 @@
         <v>8</v>
       </c>
       <c r="G71" s="139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H71" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I71" s="187"/>
       <c r="J71" s="188"/>
       <c r="K71" s="429" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L71" s="190"/>
       <c r="M71" s="190"/>
@@ -9616,32 +9621,32 @@
       <c r="P71" s="190"/>
       <c r="Q71" s="246"/>
       <c r="R71" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S71" s="248"/>
       <c r="T71" s="249"/>
       <c r="U71" s="526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V71" s="527"/>
       <c r="W71" s="528"/>
       <c r="X71" s="530" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y71" s="532"/>
       <c r="Z71" s="286"/>
       <c r="AA71" s="287"/>
       <c r="AB71" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC71" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD71" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE71" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF71" s="287"/>
       <c r="AG71" s="313"/>
@@ -9649,7 +9654,7 @@
     <row r="72" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A72" s="119"/>
       <c r="B72" s="523" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72" s="142"/>
       <c r="D72" s="143"/>
@@ -9657,12 +9662,12 @@
       <c r="F72" s="375"/>
       <c r="G72" s="124"/>
       <c r="H72" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I72" s="175"/>
       <c r="J72" s="176"/>
       <c r="K72" s="430" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L72" s="178"/>
       <c r="M72" s="178"/>
@@ -9671,12 +9676,12 @@
       <c r="P72" s="178"/>
       <c r="Q72" s="235"/>
       <c r="R72" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S72" s="175"/>
       <c r="T72" s="176"/>
       <c r="U72" s="465" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V72" s="461"/>
       <c r="W72" s="462"/>
@@ -9702,12 +9707,12 @@
       <c r="F73" s="375"/>
       <c r="G73" s="124"/>
       <c r="H73" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I73" s="179"/>
       <c r="J73" s="180"/>
       <c r="K73" s="428" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L73" s="182"/>
       <c r="M73" s="182"/>
@@ -9716,12 +9721,12 @@
       <c r="P73" s="182"/>
       <c r="Q73" s="239"/>
       <c r="R73" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S73" s="175"/>
       <c r="T73" s="176"/>
       <c r="U73" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V73" s="461"/>
       <c r="W73" s="462"/>
@@ -9757,12 +9762,12 @@
       <c r="P74" s="195"/>
       <c r="Q74" s="254"/>
       <c r="R74" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S74" s="256"/>
       <c r="T74" s="257"/>
       <c r="U74" s="471" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V74" s="472"/>
       <c r="W74" s="473"/>
@@ -9794,15 +9799,15 @@
         <v>4</v>
       </c>
       <c r="G75" s="139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H75" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I75" s="187"/>
       <c r="J75" s="188"/>
       <c r="K75" s="189" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L75" s="190"/>
       <c r="M75" s="190"/>
@@ -9811,32 +9816,32 @@
       <c r="P75" s="190"/>
       <c r="Q75" s="246"/>
       <c r="R75" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S75" s="248"/>
       <c r="T75" s="249"/>
       <c r="U75" s="526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V75" s="527"/>
       <c r="W75" s="528"/>
       <c r="X75" s="530" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y75" s="532"/>
       <c r="Z75" s="286"/>
       <c r="AA75" s="287"/>
       <c r="AB75" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC75" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD75" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE75" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF75" s="287"/>
       <c r="AG75" s="313"/>
@@ -9844,7 +9849,7 @@
     <row r="76" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A76" s="119"/>
       <c r="B76" s="523" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C76" s="142"/>
       <c r="D76" s="143"/>
@@ -9852,12 +9857,12 @@
       <c r="F76" s="375"/>
       <c r="G76" s="124"/>
       <c r="H76" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I76" s="175"/>
       <c r="J76" s="176"/>
       <c r="K76" s="430" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L76" s="178"/>
       <c r="M76" s="178"/>
@@ -9866,12 +9871,12 @@
       <c r="P76" s="178"/>
       <c r="Q76" s="235"/>
       <c r="R76" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S76" s="175"/>
       <c r="T76" s="176"/>
       <c r="U76" s="465" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V76" s="461"/>
       <c r="W76" s="462"/>
@@ -9897,12 +9902,12 @@
       <c r="F77" s="375"/>
       <c r="G77" s="124"/>
       <c r="H77" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I77" s="179"/>
       <c r="J77" s="180"/>
       <c r="K77" s="428" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L77" s="182"/>
       <c r="M77" s="182"/>
@@ -9911,12 +9916,12 @@
       <c r="P77" s="182"/>
       <c r="Q77" s="239"/>
       <c r="R77" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S77" s="175"/>
       <c r="T77" s="176"/>
       <c r="U77" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V77" s="461"/>
       <c r="W77" s="462"/>
@@ -9950,12 +9955,12 @@
       <c r="P78" s="195"/>
       <c r="Q78" s="254"/>
       <c r="R78" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S78" s="256"/>
       <c r="T78" s="257"/>
       <c r="U78" s="471" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V78" s="472"/>
       <c r="W78" s="473"/>
@@ -9987,15 +9992,15 @@
         <v>6</v>
       </c>
       <c r="G79" s="139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H79" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I79" s="187"/>
       <c r="J79" s="188"/>
       <c r="K79" s="189" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L79" s="190"/>
       <c r="M79" s="190"/>
@@ -10004,32 +10009,32 @@
       <c r="P79" s="190"/>
       <c r="Q79" s="246"/>
       <c r="R79" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S79" s="248"/>
       <c r="T79" s="249"/>
       <c r="U79" s="526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V79" s="527"/>
       <c r="W79" s="528"/>
       <c r="X79" s="530" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y79" s="532"/>
       <c r="Z79" s="286"/>
       <c r="AA79" s="287"/>
       <c r="AB79" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC79" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD79" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE79" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF79" s="287"/>
       <c r="AG79" s="313"/>
@@ -10037,7 +10042,7 @@
     <row r="80" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A80" s="119"/>
       <c r="B80" s="523" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C80" s="142"/>
       <c r="D80" s="143"/>
@@ -10045,12 +10050,12 @@
       <c r="F80" s="375"/>
       <c r="G80" s="124"/>
       <c r="H80" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I80" s="175"/>
       <c r="J80" s="176"/>
       <c r="K80" s="430" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L80" s="178"/>
       <c r="M80" s="178"/>
@@ -10059,12 +10064,12 @@
       <c r="P80" s="178"/>
       <c r="Q80" s="235"/>
       <c r="R80" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S80" s="175"/>
       <c r="T80" s="176"/>
       <c r="U80" s="465" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V80" s="461"/>
       <c r="W80" s="462"/>
@@ -10090,12 +10095,12 @@
       <c r="F81" s="375"/>
       <c r="G81" s="124"/>
       <c r="H81" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I81" s="179"/>
       <c r="J81" s="180"/>
       <c r="K81" s="428" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L81" s="182"/>
       <c r="M81" s="182"/>
@@ -10104,12 +10109,12 @@
       <c r="P81" s="182"/>
       <c r="Q81" s="239"/>
       <c r="R81" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S81" s="175"/>
       <c r="T81" s="176"/>
       <c r="U81" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V81" s="461"/>
       <c r="W81" s="462"/>
@@ -10145,12 +10150,12 @@
       <c r="P82" s="195"/>
       <c r="Q82" s="254"/>
       <c r="R82" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S82" s="256"/>
       <c r="T82" s="257"/>
       <c r="U82" s="471" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V82" s="472"/>
       <c r="W82" s="473"/>
@@ -10182,15 +10187,15 @@
         <v>10</v>
       </c>
       <c r="G83" s="139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H83" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I83" s="187"/>
       <c r="J83" s="188"/>
       <c r="K83" s="189" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L83" s="190"/>
       <c r="M83" s="190"/>
@@ -10199,32 +10204,32 @@
       <c r="P83" s="190"/>
       <c r="Q83" s="246"/>
       <c r="R83" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S83" s="248"/>
       <c r="T83" s="249"/>
       <c r="U83" s="526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V83" s="527"/>
       <c r="W83" s="528"/>
       <c r="X83" s="530" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y83" s="532"/>
       <c r="Z83" s="286"/>
       <c r="AA83" s="287"/>
       <c r="AB83" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC83" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD83" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE83" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF83" s="287"/>
       <c r="AG83" s="313"/>
@@ -10232,7 +10237,7 @@
     <row r="84" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A84" s="119"/>
       <c r="B84" s="523" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C84" s="142"/>
       <c r="D84" s="143"/>
@@ -10240,12 +10245,12 @@
       <c r="F84" s="123"/>
       <c r="G84" s="124"/>
       <c r="H84" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I84" s="175"/>
       <c r="J84" s="176"/>
       <c r="K84" s="430" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L84" s="178"/>
       <c r="M84" s="178"/>
@@ -10254,12 +10259,12 @@
       <c r="P84" s="178"/>
       <c r="Q84" s="235"/>
       <c r="R84" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S84" s="175"/>
       <c r="T84" s="176"/>
       <c r="U84" s="465" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V84" s="461"/>
       <c r="W84" s="462"/>
@@ -10285,12 +10290,12 @@
       <c r="F85" s="123"/>
       <c r="G85" s="124"/>
       <c r="H85" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I85" s="179"/>
       <c r="J85" s="180"/>
       <c r="K85" s="428" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L85" s="182"/>
       <c r="M85" s="182"/>
@@ -10299,12 +10304,12 @@
       <c r="P85" s="182"/>
       <c r="Q85" s="239"/>
       <c r="R85" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S85" s="175"/>
       <c r="T85" s="176"/>
       <c r="U85" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V85" s="461"/>
       <c r="W85" s="462"/>
@@ -10338,12 +10343,12 @@
       <c r="P86" s="195"/>
       <c r="Q86" s="254"/>
       <c r="R86" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S86" s="256"/>
       <c r="T86" s="257"/>
       <c r="U86" s="471" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V86" s="472"/>
       <c r="W86" s="473"/>
@@ -10375,15 +10380,15 @@
         <v>15</v>
       </c>
       <c r="G87" s="139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H87" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I87" s="187"/>
       <c r="J87" s="188"/>
       <c r="K87" s="189" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L87" s="190"/>
       <c r="M87" s="190"/>
@@ -10392,32 +10397,32 @@
       <c r="P87" s="190"/>
       <c r="Q87" s="246"/>
       <c r="R87" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S87" s="248"/>
       <c r="T87" s="249"/>
       <c r="U87" s="526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V87" s="527"/>
       <c r="W87" s="528"/>
       <c r="X87" s="530" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y87" s="532"/>
       <c r="Z87" s="286"/>
       <c r="AA87" s="287"/>
       <c r="AB87" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC87" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD87" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE87" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF87" s="287"/>
       <c r="AG87" s="313"/>
@@ -10425,7 +10430,7 @@
     <row r="88" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A88" s="119"/>
       <c r="B88" s="523" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88" s="142"/>
       <c r="D88" s="143"/>
@@ -10433,12 +10438,12 @@
       <c r="F88" s="123"/>
       <c r="G88" s="124"/>
       <c r="H88" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I88" s="175"/>
       <c r="J88" s="176"/>
       <c r="K88" s="177" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L88" s="178"/>
       <c r="M88" s="178"/>
@@ -10447,12 +10452,12 @@
       <c r="P88" s="178"/>
       <c r="Q88" s="235"/>
       <c r="R88" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S88" s="175"/>
       <c r="T88" s="176"/>
       <c r="U88" s="465" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="V88" s="461"/>
       <c r="W88" s="462"/>
@@ -10478,12 +10483,12 @@
       <c r="F89" s="123"/>
       <c r="G89" s="124"/>
       <c r="H89" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I89" s="179"/>
       <c r="J89" s="180"/>
       <c r="K89" s="428" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L89" s="182"/>
       <c r="M89" s="182"/>
@@ -10492,12 +10497,12 @@
       <c r="P89" s="182"/>
       <c r="Q89" s="239"/>
       <c r="R89" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S89" s="175"/>
       <c r="T89" s="176"/>
       <c r="U89" s="465" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V89" s="461"/>
       <c r="W89" s="462"/>
@@ -10531,12 +10536,12 @@
       <c r="P90" s="195"/>
       <c r="Q90" s="254"/>
       <c r="R90" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S90" s="256"/>
       <c r="T90" s="257"/>
       <c r="U90" s="471" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V90" s="472"/>
       <c r="W90" s="473"/>
@@ -10568,15 +10573,15 @@
         <v>10</v>
       </c>
       <c r="G91" s="139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H91" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I91" s="187"/>
       <c r="J91" s="188"/>
       <c r="K91" s="189" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L91" s="190"/>
       <c r="M91" s="190"/>
@@ -10585,24 +10590,24 @@
       <c r="P91" s="190"/>
       <c r="Q91" s="246"/>
       <c r="R91" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S91" s="248"/>
       <c r="T91" s="249"/>
       <c r="U91" s="526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V91" s="527"/>
       <c r="W91" s="528"/>
       <c r="X91" s="530" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y91" s="532"/>
       <c r="Z91" s="286"/>
       <c r="AA91" s="287"/>
       <c r="AB91" s="287"/>
       <c r="AC91" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD91" s="287"/>
       <c r="AE91" s="287"/>
@@ -10612,7 +10617,7 @@
     <row r="92" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A92" s="119"/>
       <c r="B92" s="523" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" s="142"/>
       <c r="D92" s="143"/>
@@ -10620,12 +10625,12 @@
       <c r="F92" s="123"/>
       <c r="G92" s="124"/>
       <c r="H92" s="524" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I92" s="175"/>
       <c r="J92" s="176"/>
       <c r="K92" s="430" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L92" s="178"/>
       <c r="M92" s="178"/>
@@ -10634,7 +10639,7 @@
       <c r="P92" s="178"/>
       <c r="Q92" s="235"/>
       <c r="R92" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S92" s="175"/>
       <c r="T92" s="176"/>
@@ -10663,12 +10668,12 @@
       <c r="F93" s="123"/>
       <c r="G93" s="124"/>
       <c r="H93" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I93" s="179"/>
       <c r="J93" s="180"/>
       <c r="K93" s="428" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L93" s="182"/>
       <c r="M93" s="182"/>
@@ -10677,7 +10682,7 @@
       <c r="P93" s="182"/>
       <c r="Q93" s="239"/>
       <c r="R93" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S93" s="175"/>
       <c r="T93" s="176"/>
@@ -10714,12 +10719,12 @@
       <c r="P94" s="195"/>
       <c r="Q94" s="254"/>
       <c r="R94" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S94" s="256"/>
       <c r="T94" s="257"/>
       <c r="U94" s="242" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V94" s="243"/>
       <c r="W94" s="244"/>
@@ -10751,15 +10756,15 @@
         <v>60</v>
       </c>
       <c r="G95" s="139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H95" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I95" s="187"/>
       <c r="J95" s="188"/>
       <c r="K95" s="189" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L95" s="190"/>
       <c r="M95" s="190"/>
@@ -10768,24 +10773,24 @@
       <c r="P95" s="190"/>
       <c r="Q95" s="246"/>
       <c r="R95" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S95" s="248"/>
       <c r="T95" s="249"/>
       <c r="U95" s="526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V95" s="527"/>
       <c r="W95" s="528"/>
       <c r="X95" s="530" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y95" s="532"/>
       <c r="Z95" s="286"/>
       <c r="AA95" s="287"/>
       <c r="AB95" s="287"/>
       <c r="AC95" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD95" s="287"/>
       <c r="AE95" s="287"/>
@@ -10795,7 +10800,7 @@
     <row r="96" customFormat="1" ht="13.5" spans="1:33">
       <c r="A96" s="119"/>
       <c r="B96" s="523" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C96" s="142"/>
       <c r="D96" s="143"/>
@@ -10803,12 +10808,12 @@
       <c r="F96" s="123"/>
       <c r="G96" s="124"/>
       <c r="H96" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I96" s="175"/>
       <c r="J96" s="176"/>
       <c r="K96" s="430" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L96" s="178"/>
       <c r="M96" s="178"/>
@@ -10817,7 +10822,7 @@
       <c r="P96" s="178"/>
       <c r="Q96" s="235"/>
       <c r="R96" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S96" s="175"/>
       <c r="T96" s="176"/>
@@ -10846,12 +10851,12 @@
       <c r="F97" s="123"/>
       <c r="G97" s="124"/>
       <c r="H97" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I97" s="179"/>
       <c r="J97" s="180"/>
       <c r="K97" s="428" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L97" s="182"/>
       <c r="M97" s="182"/>
@@ -10860,7 +10865,7 @@
       <c r="P97" s="182"/>
       <c r="Q97" s="239"/>
       <c r="R97" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S97" s="175"/>
       <c r="T97" s="176"/>
@@ -10897,12 +10902,12 @@
       <c r="P98" s="195"/>
       <c r="Q98" s="254"/>
       <c r="R98" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S98" s="256"/>
       <c r="T98" s="257"/>
       <c r="U98" s="242" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V98" s="243"/>
       <c r="W98" s="244"/>
@@ -10934,15 +10939,15 @@
         <v>20</v>
       </c>
       <c r="G99" s="139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H99" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I99" s="187"/>
       <c r="J99" s="188"/>
       <c r="K99" s="189" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L99" s="190"/>
       <c r="M99" s="190"/>
@@ -10951,24 +10956,24 @@
       <c r="P99" s="190"/>
       <c r="Q99" s="246"/>
       <c r="R99" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S99" s="248"/>
       <c r="T99" s="249"/>
       <c r="U99" s="526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V99" s="527"/>
       <c r="W99" s="528"/>
       <c r="X99" s="530" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y99" s="532"/>
       <c r="Z99" s="286"/>
       <c r="AA99" s="287"/>
       <c r="AB99" s="287"/>
       <c r="AC99" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD99" s="287"/>
       <c r="AE99" s="287"/>
@@ -10978,7 +10983,7 @@
     <row r="100" spans="1:33">
       <c r="A100" s="119"/>
       <c r="B100" s="523" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C100" s="142"/>
       <c r="D100" s="143"/>
@@ -10986,12 +10991,12 @@
       <c r="F100" s="123"/>
       <c r="G100" s="124"/>
       <c r="H100" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I100" s="175"/>
       <c r="J100" s="176"/>
       <c r="K100" s="430" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L100" s="178"/>
       <c r="M100" s="178"/>
@@ -11000,7 +11005,7 @@
       <c r="P100" s="178"/>
       <c r="Q100" s="235"/>
       <c r="R100" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S100" s="175"/>
       <c r="T100" s="176"/>
@@ -11029,12 +11034,12 @@
       <c r="F101" s="123"/>
       <c r="G101" s="124"/>
       <c r="H101" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I101" s="179"/>
       <c r="J101" s="180"/>
       <c r="K101" s="428" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L101" s="182"/>
       <c r="M101" s="182"/>
@@ -11043,7 +11048,7 @@
       <c r="P101" s="182"/>
       <c r="Q101" s="239"/>
       <c r="R101" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S101" s="175"/>
       <c r="T101" s="176"/>
@@ -11080,12 +11085,12 @@
       <c r="P102" s="195"/>
       <c r="Q102" s="254"/>
       <c r="R102" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S102" s="256"/>
       <c r="T102" s="257"/>
       <c r="U102" s="242" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V102" s="243"/>
       <c r="W102" s="244"/>
@@ -11117,15 +11122,15 @@
         <v>5</v>
       </c>
       <c r="G103" s="139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H103" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I103" s="187"/>
       <c r="J103" s="188"/>
       <c r="K103" s="189" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L103" s="190"/>
       <c r="M103" s="190"/>
@@ -11134,24 +11139,24 @@
       <c r="P103" s="190"/>
       <c r="Q103" s="246"/>
       <c r="R103" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S103" s="248"/>
       <c r="T103" s="249"/>
       <c r="U103" s="526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V103" s="527"/>
       <c r="W103" s="528"/>
       <c r="X103" s="530" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y103" s="532"/>
       <c r="Z103" s="286"/>
       <c r="AA103" s="287"/>
       <c r="AB103" s="287"/>
       <c r="AC103" s="497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD103" s="287"/>
       <c r="AE103" s="287"/>
@@ -11161,7 +11166,7 @@
     <row r="104" spans="1:33">
       <c r="A104" s="119"/>
       <c r="B104" s="523" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C104" s="142"/>
       <c r="D104" s="143"/>
@@ -11169,12 +11174,12 @@
       <c r="F104" s="123"/>
       <c r="G104" s="124"/>
       <c r="H104" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I104" s="175"/>
       <c r="J104" s="176"/>
       <c r="K104" s="430" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L104" s="178"/>
       <c r="M104" s="178"/>
@@ -11183,7 +11188,7 @@
       <c r="P104" s="178"/>
       <c r="Q104" s="235"/>
       <c r="R104" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S104" s="175"/>
       <c r="T104" s="176"/>
@@ -11212,12 +11217,12 @@
       <c r="F105" s="123"/>
       <c r="G105" s="124"/>
       <c r="H105" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I105" s="179"/>
       <c r="J105" s="180"/>
       <c r="K105" s="428" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L105" s="182"/>
       <c r="M105" s="182"/>
@@ -11226,7 +11231,7 @@
       <c r="P105" s="182"/>
       <c r="Q105" s="239"/>
       <c r="R105" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S105" s="175"/>
       <c r="T105" s="176"/>
@@ -11263,12 +11268,12 @@
       <c r="P106" s="195"/>
       <c r="Q106" s="254"/>
       <c r="R106" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S106" s="256"/>
       <c r="T106" s="257"/>
       <c r="U106" s="242" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V106" s="243"/>
       <c r="W106" s="244"/>
@@ -12096,7 +12101,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -12145,7 +12150,7 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -12159,7 +12164,7 @@
       </c>
       <c r="M5" s="153"/>
       <c r="N5" s="152" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O5" s="153"/>
       <c r="P5" s="154">
@@ -12183,7 +12188,7 @@
       <c r="AA5" s="262"/>
       <c r="AB5" s="263"/>
       <c r="AC5" s="264" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AD5" s="265"/>
       <c r="AE5" s="265"/>
@@ -12197,7 +12202,7 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -12221,7 +12226,7 @@
       <c r="V6" s="204"/>
       <c r="W6" s="205"/>
       <c r="X6" s="206" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y6" s="266"/>
       <c r="Z6" s="266"/>
@@ -12290,7 +12295,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="157" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J8" s="158"/>
       <c r="K8" s="158"/>
@@ -12302,7 +12307,7 @@
       <c r="Q8" s="158"/>
       <c r="R8" s="208"/>
       <c r="S8" s="157" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T8" s="158"/>
       <c r="U8" s="158"/>
@@ -12314,7 +12319,7 @@
       <c r="AA8" s="158"/>
       <c r="AB8" s="208"/>
       <c r="AC8" s="267" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AD8" s="267"/>
       <c r="AE8" s="267"/>
@@ -12333,7 +12338,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -12348,7 +12353,7 @@
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="209" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S9" s="210"/>
       <c r="T9" s="210"/>
@@ -12376,7 +12381,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -12415,7 +12420,7 @@
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
@@ -12483,7 +12488,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -12520,7 +12525,7 @@
     </row>
     <row r="14" ht="13.5" spans="1:33">
       <c r="A14" s="41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -12557,45 +12562,45 @@
     </row>
     <row r="15" ht="13.5" spans="1:33">
       <c r="A15" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
       <c r="G15" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
       <c r="K15" s="165"/>
       <c r="L15" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N15" s="45"/>
       <c r="O15" s="45"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R15" s="45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S15" s="45"/>
       <c r="T15" s="45"/>
       <c r="U15" s="46"/>
       <c r="V15" s="47"/>
       <c r="W15" s="45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X15" s="45"/>
       <c r="Y15" s="45"/>
@@ -12612,23 +12617,23 @@
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
       <c r="C16" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
       <c r="G16" s="52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" s="50"/>
       <c r="J16" s="50"/>
       <c r="K16" s="68"/>
       <c r="L16" s="52"/>
       <c r="M16" s="166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N16" s="167"/>
       <c r="O16" s="167"/>
@@ -12653,48 +12658,48 @@
     </row>
     <row r="17" ht="13.5" spans="1:33">
       <c r="A17" s="53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="46"/>
       <c r="G17" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="45"/>
       <c r="K17" s="46"/>
       <c r="L17" s="47"/>
       <c r="M17" s="45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N17" s="45"/>
       <c r="O17" s="45"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="47"/>
       <c r="R17" s="45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S17" s="45"/>
       <c r="T17" s="45"/>
       <c r="U17" s="46"/>
       <c r="V17" s="47"/>
       <c r="W17" s="45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X17" s="45"/>
       <c r="Y17" s="45"/>
       <c r="Z17" s="46"/>
       <c r="AA17" s="47"/>
       <c r="AB17" s="46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC17" s="268"/>
       <c r="AD17" s="268"/>
@@ -12706,44 +12711,44 @@
       <c r="A18" s="55"/>
       <c r="B18" s="56"/>
       <c r="C18" s="57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
       <c r="F18" s="59"/>
       <c r="G18" s="60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
       <c r="K18" s="59"/>
       <c r="L18" s="168"/>
       <c r="M18" s="57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N18" s="58"/>
       <c r="O18" s="58"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="60"/>
       <c r="R18" s="61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S18" s="61"/>
       <c r="T18" s="61"/>
       <c r="U18" s="57"/>
       <c r="V18" s="60"/>
       <c r="W18" s="61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X18" s="61"/>
       <c r="Y18" s="61"/>
       <c r="Z18" s="57"/>
       <c r="AA18" s="60"/>
       <c r="AB18" s="57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC18" s="58"/>
       <c r="AD18" s="58"/>
@@ -12755,44 +12760,44 @@
       <c r="A19" s="55"/>
       <c r="B19" s="56"/>
       <c r="C19" s="61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="61"/>
       <c r="E19" s="61"/>
       <c r="F19" s="57"/>
       <c r="G19" s="60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="58"/>
       <c r="J19" s="58"/>
       <c r="K19" s="59"/>
       <c r="L19" s="60"/>
       <c r="M19" s="57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N19" s="58"/>
       <c r="O19" s="58"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="60"/>
       <c r="R19" s="57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S19" s="58"/>
       <c r="T19" s="58"/>
       <c r="U19" s="59"/>
       <c r="V19" s="60"/>
       <c r="W19" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X19" s="61"/>
       <c r="Y19" s="61"/>
       <c r="Z19" s="57"/>
       <c r="AA19" s="60"/>
       <c r="AB19" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC19" s="61"/>
       <c r="AD19" s="61"/>
@@ -12804,44 +12809,44 @@
       <c r="A20" s="55"/>
       <c r="B20" s="56"/>
       <c r="C20" s="61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
       <c r="F20" s="57"/>
       <c r="G20" s="60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
       <c r="K20" s="57"/>
       <c r="L20" s="60"/>
       <c r="M20" s="61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20" s="61"/>
       <c r="O20" s="61"/>
       <c r="P20" s="57"/>
       <c r="Q20" s="60"/>
       <c r="R20" s="57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S20" s="58"/>
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
       <c r="W20" s="61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X20" s="61"/>
       <c r="Y20" s="61"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="60"/>
       <c r="AB20" s="57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC20" s="58"/>
       <c r="AD20" s="58"/>
@@ -12853,37 +12858,37 @@
       <c r="A21" s="62"/>
       <c r="B21" s="63"/>
       <c r="C21" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
       <c r="F21" s="51"/>
       <c r="G21" s="52"/>
       <c r="H21" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
       <c r="K21" s="51"/>
       <c r="L21" s="52"/>
       <c r="M21" s="50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="51"/>
       <c r="Q21" s="52"/>
       <c r="R21" s="61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" s="61"/>
       <c r="T21" s="61"/>
       <c r="U21" s="57"/>
       <c r="V21" s="60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W21" s="166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X21" s="167"/>
       <c r="Y21" s="167"/>
@@ -12898,87 +12903,87 @@
     </row>
     <row r="22" ht="13.5" spans="1:33">
       <c r="A22" s="64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="65"/>
       <c r="C22" s="45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
       <c r="F22" s="46"/>
       <c r="G22" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="45"/>
       <c r="K22" s="46"/>
       <c r="L22" s="47"/>
       <c r="M22" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
       <c r="P22" s="46"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="165" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" s="216"/>
       <c r="T22" s="216"/>
       <c r="U22" s="216"/>
       <c r="V22" s="47"/>
       <c r="W22" s="165" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X22" s="216"/>
       <c r="Y22" s="216"/>
       <c r="Z22" s="216"/>
       <c r="AA22" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB22" s="45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" s="45"/>
       <c r="AD22" s="45"/>
       <c r="AE22" s="45"/>
       <c r="AF22" s="46"/>
       <c r="AG22" s="299" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" ht="13.5" spans="1:33">
       <c r="A23" s="66"/>
       <c r="B23" s="67"/>
       <c r="C23" s="50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
       <c r="F23" s="68"/>
       <c r="G23" s="52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I23" s="50"/>
       <c r="J23" s="50"/>
       <c r="K23" s="68"/>
       <c r="L23" s="52"/>
       <c r="M23" s="50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
       <c r="P23" s="68"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S23" s="167"/>
       <c r="T23" s="167"/>
@@ -12998,90 +13003,90 @@
     </row>
     <row r="24" ht="13.5" spans="1:33">
       <c r="A24" s="69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" s="70"/>
       <c r="C24" s="45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
       <c r="F24" s="46"/>
       <c r="G24" s="47"/>
       <c r="H24" s="45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
       <c r="K24" s="46"/>
       <c r="L24" s="47"/>
       <c r="M24" s="45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
       <c r="P24" s="46"/>
       <c r="Q24" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R24" s="165" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S24" s="216"/>
       <c r="T24" s="216"/>
       <c r="U24" s="216"/>
       <c r="V24" s="47"/>
       <c r="W24" s="165" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X24" s="216"/>
       <c r="Y24" s="216"/>
       <c r="Z24" s="216"/>
       <c r="AA24" s="47"/>
       <c r="AB24" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC24" s="45"/>
       <c r="AD24" s="45"/>
       <c r="AE24" s="45"/>
       <c r="AF24" s="46"/>
       <c r="AG24" s="299" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="13.5" spans="1:33">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
       <c r="C25" s="73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D25" s="73"/>
       <c r="E25" s="73"/>
       <c r="F25" s="74"/>
       <c r="G25" s="52"/>
       <c r="H25" s="50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
       <c r="K25" s="68"/>
       <c r="L25" s="52"/>
       <c r="M25" s="50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
       <c r="P25" s="68"/>
       <c r="Q25" s="52"/>
       <c r="R25" s="219" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S25" s="220"/>
       <c r="T25" s="220"/>
       <c r="U25" s="220"/>
       <c r="V25" s="52"/>
       <c r="W25" s="221" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="X25" s="222"/>
       <c r="Y25" s="222"/>
@@ -13096,41 +13101,41 @@
     </row>
     <row r="26" ht="14.25" spans="1:33">
       <c r="A26" s="75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="76"/>
       <c r="C26" s="77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="77"/>
       <c r="E26" s="77"/>
       <c r="F26" s="78"/>
       <c r="G26" s="79"/>
       <c r="H26" s="77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I26" s="77"/>
       <c r="J26" s="77"/>
       <c r="K26" s="78"/>
       <c r="L26" s="79"/>
       <c r="M26" s="77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N26" s="77"/>
       <c r="O26" s="77"/>
       <c r="P26" s="78"/>
       <c r="Q26" s="79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R26" s="77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S26" s="77"/>
       <c r="T26" s="77"/>
       <c r="U26" s="78"/>
       <c r="V26" s="79"/>
       <c r="W26" s="223" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X26" s="224"/>
       <c r="Y26" s="224"/>
@@ -13145,18 +13150,18 @@
     </row>
     <row r="27" ht="13.5" spans="1:33">
       <c r="A27" s="80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" s="81"/>
       <c r="C27" s="82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" s="83"/>
       <c r="E27" s="83"/>
       <c r="F27" s="83"/>
       <c r="G27" s="84"/>
       <c r="H27" s="85" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I27" s="169"/>
       <c r="J27" s="169"/>
@@ -13188,14 +13193,14 @@
       <c r="A28" s="86"/>
       <c r="B28" s="87"/>
       <c r="C28" s="88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" s="89"/>
       <c r="E28" s="89"/>
       <c r="F28" s="89"/>
       <c r="G28" s="90"/>
       <c r="H28" s="91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I28" s="170"/>
       <c r="J28" s="170"/>
@@ -13225,7 +13230,7 @@
     </row>
     <row r="29" ht="13.5" spans="1:33">
       <c r="A29" s="92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29" s="93"/>
       <c r="C29" s="93"/>
@@ -13234,7 +13239,7 @@
       <c r="F29" s="93"/>
       <c r="G29" s="94"/>
       <c r="H29" s="95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
@@ -13265,7 +13270,7 @@
     <row r="30" ht="8.75" customHeight="1"/>
     <row r="31" spans="1:33">
       <c r="A31" s="96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" s="97"/>
       <c r="C31" s="97"/>
@@ -13302,7 +13307,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B32" s="99"/>
       <c r="C32" s="99"/>
@@ -13339,24 +13344,24 @@
     </row>
     <row r="33" s="4" customFormat="1" ht="17.75" customHeight="1" spans="1:33">
       <c r="A33" s="100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33" s="101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" s="102"/>
       <c r="D33" s="103"/>
       <c r="E33" s="104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F33" s="105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G33" s="106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H33" s="101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -13368,7 +13373,7 @@
       <c r="P33" s="102"/>
       <c r="Q33" s="103"/>
       <c r="R33" s="101" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S33" s="102"/>
       <c r="T33" s="102"/>
@@ -13376,32 +13381,32 @@
       <c r="V33" s="102"/>
       <c r="W33" s="103"/>
       <c r="X33" s="225" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y33" s="272"/>
       <c r="Z33" s="273" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA33" s="274" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB33" s="274" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC33" s="274" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD33" s="274" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AE33" s="274" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF33" s="274" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG33" s="309" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" ht="44.75" customHeight="1" spans="1:33">
@@ -13429,7 +13434,7 @@
       <c r="V34" s="109"/>
       <c r="W34" s="110"/>
       <c r="X34" s="226" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y34" s="275"/>
       <c r="Z34" s="276"/>
@@ -13458,15 +13463,15 @@
         <v>12</v>
       </c>
       <c r="G35" s="117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H35" s="118" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I35" s="171"/>
       <c r="J35" s="172"/>
       <c r="K35" s="173" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L35" s="174"/>
       <c r="M35" s="174"/>
@@ -13475,32 +13480,32 @@
       <c r="P35" s="174"/>
       <c r="Q35" s="227"/>
       <c r="R35" s="228" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S35" s="229"/>
       <c r="T35" s="230"/>
       <c r="U35" s="231" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V35" s="232"/>
       <c r="W35" s="233"/>
       <c r="X35" s="234" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y35" s="278"/>
       <c r="Z35" s="279"/>
       <c r="AA35" s="280"/>
       <c r="AB35" s="280" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC35" s="280" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD35" s="280" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE35" s="280" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF35" s="280"/>
       <c r="AG35" s="311"/>
@@ -13508,7 +13513,7 @@
     <row r="36" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A36" s="119"/>
       <c r="B36" s="120" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C36" s="121"/>
       <c r="D36" s="122"/>
@@ -13516,12 +13521,12 @@
       <c r="F36" s="123"/>
       <c r="G36" s="124"/>
       <c r="H36" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I36" s="175"/>
       <c r="J36" s="176"/>
       <c r="K36" s="177" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L36" s="178"/>
       <c r="M36" s="178"/>
@@ -13530,12 +13535,12 @@
       <c r="P36" s="178"/>
       <c r="Q36" s="235"/>
       <c r="R36" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S36" s="175"/>
       <c r="T36" s="176"/>
       <c r="U36" s="236" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V36" s="237"/>
       <c r="W36" s="238"/>
@@ -13561,12 +13566,12 @@
       <c r="F37" s="123"/>
       <c r="G37" s="124"/>
       <c r="H37" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I37" s="179"/>
       <c r="J37" s="180"/>
       <c r="K37" s="181" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L37" s="182"/>
       <c r="M37" s="182"/>
@@ -13575,12 +13580,12 @@
       <c r="P37" s="182"/>
       <c r="Q37" s="239"/>
       <c r="R37" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S37" s="175"/>
       <c r="T37" s="176"/>
       <c r="U37" s="236" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="V37" s="237"/>
       <c r="W37" s="238"/>
@@ -13609,7 +13614,7 @@
       <c r="I38" s="183"/>
       <c r="J38" s="184"/>
       <c r="K38" s="185" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L38" s="186"/>
       <c r="M38" s="186"/>
@@ -13618,12 +13623,12 @@
       <c r="P38" s="186"/>
       <c r="Q38" s="241"/>
       <c r="R38" s="129" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S38" s="179"/>
       <c r="T38" s="180"/>
       <c r="U38" s="242" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V38" s="243"/>
       <c r="W38" s="244"/>
@@ -13652,7 +13657,7 @@
       <c r="F39" s="138"/>
       <c r="G39" s="139"/>
       <c r="H39" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I39" s="187"/>
       <c r="J39" s="188"/>
@@ -13664,7 +13669,7 @@
       <c r="P39" s="190"/>
       <c r="Q39" s="246"/>
       <c r="R39" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S39" s="248"/>
       <c r="T39" s="249"/>
@@ -13685,7 +13690,7 @@
     <row r="40" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A40" s="119"/>
       <c r="B40" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C40" s="142"/>
       <c r="D40" s="143"/>
@@ -13693,7 +13698,7 @@
       <c r="F40" s="123"/>
       <c r="G40" s="124"/>
       <c r="H40" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I40" s="175"/>
       <c r="J40" s="176"/>
@@ -13705,7 +13710,7 @@
       <c r="P40" s="178"/>
       <c r="Q40" s="235"/>
       <c r="R40" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S40" s="175"/>
       <c r="T40" s="176"/>
@@ -13732,7 +13737,7 @@
       <c r="F41" s="123"/>
       <c r="G41" s="124"/>
       <c r="H41" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I41" s="179"/>
       <c r="J41" s="180"/>
@@ -13744,7 +13749,7 @@
       <c r="P41" s="182"/>
       <c r="Q41" s="239"/>
       <c r="R41" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S41" s="175"/>
       <c r="T41" s="176"/>
@@ -13781,7 +13786,7 @@
       <c r="P42" s="195"/>
       <c r="Q42" s="254"/>
       <c r="R42" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S42" s="256"/>
       <c r="T42" s="257"/>
@@ -13813,7 +13818,7 @@
       <c r="F43" s="138"/>
       <c r="G43" s="139"/>
       <c r="H43" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I43" s="187"/>
       <c r="J43" s="188"/>
@@ -13825,7 +13830,7 @@
       <c r="P43" s="190"/>
       <c r="Q43" s="246"/>
       <c r="R43" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S43" s="248"/>
       <c r="T43" s="249"/>
@@ -13846,7 +13851,7 @@
     <row r="44" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A44" s="119"/>
       <c r="B44" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C44" s="142"/>
       <c r="D44" s="143"/>
@@ -13854,7 +13859,7 @@
       <c r="F44" s="123"/>
       <c r="G44" s="124"/>
       <c r="H44" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I44" s="175"/>
       <c r="J44" s="176"/>
@@ -13866,7 +13871,7 @@
       <c r="P44" s="178"/>
       <c r="Q44" s="235"/>
       <c r="R44" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S44" s="175"/>
       <c r="T44" s="176"/>
@@ -13893,7 +13898,7 @@
       <c r="F45" s="123"/>
       <c r="G45" s="124"/>
       <c r="H45" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I45" s="179"/>
       <c r="J45" s="180"/>
@@ -13905,7 +13910,7 @@
       <c r="P45" s="182"/>
       <c r="Q45" s="239"/>
       <c r="R45" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S45" s="175"/>
       <c r="T45" s="176"/>
@@ -13942,7 +13947,7 @@
       <c r="P46" s="195"/>
       <c r="Q46" s="254"/>
       <c r="R46" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S46" s="256"/>
       <c r="T46" s="257"/>
@@ -13974,7 +13979,7 @@
       <c r="F47" s="138"/>
       <c r="G47" s="139"/>
       <c r="H47" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I47" s="187"/>
       <c r="J47" s="188"/>
@@ -13986,7 +13991,7 @@
       <c r="P47" s="190"/>
       <c r="Q47" s="246"/>
       <c r="R47" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S47" s="248"/>
       <c r="T47" s="249"/>
@@ -14007,7 +14012,7 @@
     <row r="48" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A48" s="119"/>
       <c r="B48" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C48" s="142"/>
       <c r="D48" s="143"/>
@@ -14015,7 +14020,7 @@
       <c r="F48" s="123"/>
       <c r="G48" s="124"/>
       <c r="H48" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I48" s="175"/>
       <c r="J48" s="176"/>
@@ -14027,7 +14032,7 @@
       <c r="P48" s="178"/>
       <c r="Q48" s="235"/>
       <c r="R48" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S48" s="175"/>
       <c r="T48" s="176"/>
@@ -14054,7 +14059,7 @@
       <c r="F49" s="123"/>
       <c r="G49" s="124"/>
       <c r="H49" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I49" s="179"/>
       <c r="J49" s="180"/>
@@ -14066,7 +14071,7 @@
       <c r="P49" s="182"/>
       <c r="Q49" s="239"/>
       <c r="R49" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S49" s="175"/>
       <c r="T49" s="176"/>
@@ -14103,7 +14108,7 @@
       <c r="P50" s="195"/>
       <c r="Q50" s="254"/>
       <c r="R50" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S50" s="256"/>
       <c r="T50" s="257"/>
@@ -14135,7 +14140,7 @@
       <c r="F51" s="138"/>
       <c r="G51" s="139"/>
       <c r="H51" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I51" s="187"/>
       <c r="J51" s="188"/>
@@ -14147,7 +14152,7 @@
       <c r="P51" s="190"/>
       <c r="Q51" s="246"/>
       <c r="R51" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S51" s="248"/>
       <c r="T51" s="249"/>
@@ -14168,7 +14173,7 @@
     <row r="52" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A52" s="119"/>
       <c r="B52" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" s="142"/>
       <c r="D52" s="143"/>
@@ -14176,7 +14181,7 @@
       <c r="F52" s="123"/>
       <c r="G52" s="124"/>
       <c r="H52" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I52" s="175"/>
       <c r="J52" s="176"/>
@@ -14188,7 +14193,7 @@
       <c r="P52" s="178"/>
       <c r="Q52" s="235"/>
       <c r="R52" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S52" s="175"/>
       <c r="T52" s="176"/>
@@ -14215,7 +14220,7 @@
       <c r="F53" s="123"/>
       <c r="G53" s="124"/>
       <c r="H53" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I53" s="179"/>
       <c r="J53" s="180"/>
@@ -14227,7 +14232,7 @@
       <c r="P53" s="182"/>
       <c r="Q53" s="239"/>
       <c r="R53" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S53" s="175"/>
       <c r="T53" s="176"/>
@@ -14264,7 +14269,7 @@
       <c r="P54" s="195"/>
       <c r="Q54" s="254"/>
       <c r="R54" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S54" s="256"/>
       <c r="T54" s="257"/>
@@ -14296,7 +14301,7 @@
       <c r="F55" s="138"/>
       <c r="G55" s="139"/>
       <c r="H55" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I55" s="187"/>
       <c r="J55" s="188"/>
@@ -14308,7 +14313,7 @@
       <c r="P55" s="190"/>
       <c r="Q55" s="246"/>
       <c r="R55" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S55" s="248"/>
       <c r="T55" s="249"/>
@@ -14329,7 +14334,7 @@
     <row r="56" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A56" s="119"/>
       <c r="B56" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C56" s="142"/>
       <c r="D56" s="143"/>
@@ -14337,7 +14342,7 @@
       <c r="F56" s="123"/>
       <c r="G56" s="124"/>
       <c r="H56" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I56" s="175"/>
       <c r="J56" s="176"/>
@@ -14349,7 +14354,7 @@
       <c r="P56" s="178"/>
       <c r="Q56" s="235"/>
       <c r="R56" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S56" s="175"/>
       <c r="T56" s="176"/>
@@ -14376,7 +14381,7 @@
       <c r="F57" s="123"/>
       <c r="G57" s="124"/>
       <c r="H57" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I57" s="179"/>
       <c r="J57" s="180"/>
@@ -14388,7 +14393,7 @@
       <c r="P57" s="182"/>
       <c r="Q57" s="239"/>
       <c r="R57" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S57" s="175"/>
       <c r="T57" s="176"/>
@@ -14425,7 +14430,7 @@
       <c r="P58" s="195"/>
       <c r="Q58" s="254"/>
       <c r="R58" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S58" s="256"/>
       <c r="T58" s="257"/>
@@ -14457,7 +14462,7 @@
       <c r="F59" s="138"/>
       <c r="G59" s="139"/>
       <c r="H59" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I59" s="187"/>
       <c r="J59" s="188"/>
@@ -14469,7 +14474,7 @@
       <c r="P59" s="190"/>
       <c r="Q59" s="246"/>
       <c r="R59" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S59" s="248"/>
       <c r="T59" s="249"/>
@@ -14490,7 +14495,7 @@
     <row r="60" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A60" s="119"/>
       <c r="B60" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" s="142"/>
       <c r="D60" s="143"/>
@@ -14498,7 +14503,7 @@
       <c r="F60" s="123"/>
       <c r="G60" s="124"/>
       <c r="H60" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I60" s="175"/>
       <c r="J60" s="176"/>
@@ -14510,7 +14515,7 @@
       <c r="P60" s="178"/>
       <c r="Q60" s="235"/>
       <c r="R60" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S60" s="175"/>
       <c r="T60" s="176"/>
@@ -14537,7 +14542,7 @@
       <c r="F61" s="123"/>
       <c r="G61" s="124"/>
       <c r="H61" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I61" s="179"/>
       <c r="J61" s="180"/>
@@ -14549,7 +14554,7 @@
       <c r="P61" s="182"/>
       <c r="Q61" s="239"/>
       <c r="R61" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S61" s="175"/>
       <c r="T61" s="176"/>
@@ -14586,7 +14591,7 @@
       <c r="P62" s="195"/>
       <c r="Q62" s="254"/>
       <c r="R62" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S62" s="256"/>
       <c r="T62" s="257"/>
@@ -14618,7 +14623,7 @@
       <c r="F63" s="138"/>
       <c r="G63" s="139"/>
       <c r="H63" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I63" s="187"/>
       <c r="J63" s="188"/>
@@ -14630,7 +14635,7 @@
       <c r="P63" s="190"/>
       <c r="Q63" s="246"/>
       <c r="R63" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S63" s="248"/>
       <c r="T63" s="249"/>
@@ -14651,7 +14656,7 @@
     <row r="64" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A64" s="119"/>
       <c r="B64" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64" s="142"/>
       <c r="D64" s="143"/>
@@ -14659,7 +14664,7 @@
       <c r="F64" s="123"/>
       <c r="G64" s="124"/>
       <c r="H64" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I64" s="175"/>
       <c r="J64" s="176"/>
@@ -14671,7 +14676,7 @@
       <c r="P64" s="178"/>
       <c r="Q64" s="235"/>
       <c r="R64" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S64" s="175"/>
       <c r="T64" s="176"/>
@@ -14698,7 +14703,7 @@
       <c r="F65" s="123"/>
       <c r="G65" s="124"/>
       <c r="H65" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I65" s="179"/>
       <c r="J65" s="180"/>
@@ -14710,7 +14715,7 @@
       <c r="P65" s="182"/>
       <c r="Q65" s="239"/>
       <c r="R65" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S65" s="175"/>
       <c r="T65" s="176"/>
@@ -14747,7 +14752,7 @@
       <c r="P66" s="195"/>
       <c r="Q66" s="254"/>
       <c r="R66" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S66" s="256"/>
       <c r="T66" s="257"/>
@@ -14779,7 +14784,7 @@
       <c r="F67" s="138"/>
       <c r="G67" s="139"/>
       <c r="H67" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I67" s="187"/>
       <c r="J67" s="188"/>
@@ -14791,7 +14796,7 @@
       <c r="P67" s="190"/>
       <c r="Q67" s="246"/>
       <c r="R67" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S67" s="248"/>
       <c r="T67" s="249"/>
@@ -14812,7 +14817,7 @@
     <row r="68" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A68" s="119"/>
       <c r="B68" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C68" s="142"/>
       <c r="D68" s="143"/>
@@ -14820,7 +14825,7 @@
       <c r="F68" s="123"/>
       <c r="G68" s="124"/>
       <c r="H68" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I68" s="175"/>
       <c r="J68" s="176"/>
@@ -14832,7 +14837,7 @@
       <c r="P68" s="178"/>
       <c r="Q68" s="235"/>
       <c r="R68" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S68" s="175"/>
       <c r="T68" s="176"/>
@@ -14859,7 +14864,7 @@
       <c r="F69" s="123"/>
       <c r="G69" s="124"/>
       <c r="H69" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I69" s="179"/>
       <c r="J69" s="180"/>
@@ -14871,7 +14876,7 @@
       <c r="P69" s="182"/>
       <c r="Q69" s="239"/>
       <c r="R69" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S69" s="175"/>
       <c r="T69" s="176"/>
@@ -14908,7 +14913,7 @@
       <c r="P70" s="195"/>
       <c r="Q70" s="254"/>
       <c r="R70" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S70" s="256"/>
       <c r="T70" s="257"/>
@@ -14940,7 +14945,7 @@
       <c r="F71" s="138"/>
       <c r="G71" s="139"/>
       <c r="H71" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I71" s="187"/>
       <c r="J71" s="188"/>
@@ -14952,7 +14957,7 @@
       <c r="P71" s="190"/>
       <c r="Q71" s="246"/>
       <c r="R71" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S71" s="248"/>
       <c r="T71" s="249"/>
@@ -14973,7 +14978,7 @@
     <row r="72" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A72" s="119"/>
       <c r="B72" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72" s="142"/>
       <c r="D72" s="143"/>
@@ -14981,7 +14986,7 @@
       <c r="F72" s="123"/>
       <c r="G72" s="124"/>
       <c r="H72" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I72" s="175"/>
       <c r="J72" s="176"/>
@@ -14993,7 +14998,7 @@
       <c r="P72" s="178"/>
       <c r="Q72" s="235"/>
       <c r="R72" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S72" s="175"/>
       <c r="T72" s="176"/>
@@ -15020,7 +15025,7 @@
       <c r="F73" s="123"/>
       <c r="G73" s="124"/>
       <c r="H73" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I73" s="179"/>
       <c r="J73" s="180"/>
@@ -15032,7 +15037,7 @@
       <c r="P73" s="182"/>
       <c r="Q73" s="239"/>
       <c r="R73" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S73" s="175"/>
       <c r="T73" s="176"/>
@@ -15069,7 +15074,7 @@
       <c r="P74" s="195"/>
       <c r="Q74" s="254"/>
       <c r="R74" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S74" s="256"/>
       <c r="T74" s="257"/>
@@ -15101,7 +15106,7 @@
       <c r="F75" s="138"/>
       <c r="G75" s="139"/>
       <c r="H75" s="140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I75" s="187"/>
       <c r="J75" s="188"/>
@@ -15113,7 +15118,7 @@
       <c r="P75" s="190"/>
       <c r="Q75" s="246"/>
       <c r="R75" s="247" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S75" s="248"/>
       <c r="T75" s="249"/>
@@ -15134,7 +15139,7 @@
     <row r="76" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A76" s="119"/>
       <c r="B76" s="141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C76" s="142"/>
       <c r="D76" s="143"/>
@@ -15142,7 +15147,7 @@
       <c r="F76" s="123"/>
       <c r="G76" s="124"/>
       <c r="H76" s="125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I76" s="175"/>
       <c r="J76" s="176"/>
@@ -15154,7 +15159,7 @@
       <c r="P76" s="178"/>
       <c r="Q76" s="235"/>
       <c r="R76" s="125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S76" s="175"/>
       <c r="T76" s="176"/>
@@ -15181,7 +15186,7 @@
       <c r="F77" s="123"/>
       <c r="G77" s="124"/>
       <c r="H77" s="129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I77" s="179"/>
       <c r="J77" s="180"/>
@@ -15193,7 +15198,7 @@
       <c r="P77" s="182"/>
       <c r="Q77" s="239"/>
       <c r="R77" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S77" s="175"/>
       <c r="T77" s="176"/>
@@ -15230,7 +15235,7 @@
       <c r="P78" s="195"/>
       <c r="Q78" s="254"/>
       <c r="R78" s="255" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S78" s="256"/>
       <c r="T78" s="257"/>
@@ -15792,63 +15797,63 @@
   <sheetData>
     <row r="1" ht="13.5" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
